--- a/hz-ms-report/src/main/resources/excel/report_6.xlsx
+++ b/hz-ms-report/src/main/resources/excel/report_6.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE012F2-D70B-4B1D-818E-C4237BD13458}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,10 +40,6 @@
   </si>
   <si>
     <t>日期：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级支行</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -126,12 +123,16 @@
     <t>单位：元</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>贷款机构</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,11 +301,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -346,7 +355,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -378,9 +387,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -412,6 +439,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -587,20 +632,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14" style="5" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="5"/>
+    <col min="2" max="16384" width="8.875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="30.6">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -616,7 +661,7 @@
       <c r="K1" s="16"/>
       <c r="L1" s="16"/>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="20.399999999999999">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -632,85 +677,85 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="28.8">
-      <c r="A3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="L3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="9" t="s">
+    </row>
+    <row r="4" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" s="7" customFormat="1">
-      <c r="A4" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="E4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="13" t="s">
+      <c r="G4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="H4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="I4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="J4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="K4" s="15" t="s">
         <v>22</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>23</v>
       </c>
       <c r="L4" s="15"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:13" s="7" customFormat="1">
+    <row r="5" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -723,7 +768,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:13" s="7" customFormat="1">
+    <row r="6" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -736,7 +781,7 @@
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="1:13" s="7" customFormat="1">
+    <row r="7" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -749,7 +794,7 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
     </row>
-    <row r="8" spans="1:13" s="7" customFormat="1">
+    <row r="8" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -762,7 +807,7 @@
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" spans="1:13" s="7" customFormat="1">
+    <row r="9" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -775,7 +820,7 @@
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
     </row>
-    <row r="10" spans="1:13" s="7" customFormat="1">
+    <row r="10" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -788,7 +833,7 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
     </row>
-    <row r="11" spans="1:13" s="7" customFormat="1">
+    <row r="11" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -801,7 +846,7 @@
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
     </row>
-    <row r="12" spans="1:13" s="7" customFormat="1">
+    <row r="12" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -814,7 +859,7 @@
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
     </row>
-    <row r="13" spans="1:13" s="7" customFormat="1">
+    <row r="13" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -827,7 +872,7 @@
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:13" s="7" customFormat="1">
+    <row r="14" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -840,7 +885,7 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:13" s="7" customFormat="1">
+    <row r="15" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -853,7 +898,7 @@
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:13" s="7" customFormat="1">
+    <row r="16" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -866,7 +911,7 @@
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="2:12" s="7" customFormat="1">
+    <row r="17" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -879,7 +924,7 @@
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
     </row>
-    <row r="18" spans="2:12" s="7" customFormat="1">
+    <row r="18" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -892,7 +937,7 @@
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
     </row>
-    <row r="19" spans="2:12" s="7" customFormat="1">
+    <row r="19" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -905,7 +950,7 @@
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
     </row>
-    <row r="20" spans="2:12" s="7" customFormat="1">
+    <row r="20" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -918,7 +963,7 @@
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
     </row>
-    <row r="21" spans="2:12" s="7" customFormat="1">
+    <row r="21" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -931,7 +976,7 @@
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
     </row>
-    <row r="22" spans="2:12" s="7" customFormat="1">
+    <row r="22" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -944,7 +989,7 @@
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
     </row>
-    <row r="23" spans="2:12" s="7" customFormat="1">
+    <row r="23" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -957,7 +1002,7 @@
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
     </row>
-    <row r="24" spans="2:12" s="7" customFormat="1">
+    <row r="24" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -970,7 +1015,7 @@
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
     </row>
-    <row r="25" spans="2:12" s="7" customFormat="1">
+    <row r="25" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -983,7 +1028,7 @@
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
     </row>
-    <row r="26" spans="2:12" s="7" customFormat="1">
+    <row r="26" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -996,7 +1041,7 @@
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
     </row>
-    <row r="27" spans="2:12" s="7" customFormat="1">
+    <row r="27" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -1009,7 +1054,7 @@
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
     </row>
-    <row r="28" spans="2:12" s="7" customFormat="1">
+    <row r="28" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -1022,7 +1067,7 @@
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
     </row>
-    <row r="29" spans="2:12" s="7" customFormat="1">
+    <row r="29" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -1035,7 +1080,7 @@
       <c r="K29" s="10"/>
       <c r="L29" s="10"/>
     </row>
-    <row r="30" spans="2:12" s="7" customFormat="1">
+    <row r="30" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -1048,7 +1093,7 @@
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
     </row>
-    <row r="31" spans="2:12" s="7" customFormat="1">
+    <row r="31" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -1061,7 +1106,7 @@
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
     </row>
-    <row r="32" spans="2:12" s="7" customFormat="1">
+    <row r="32" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -1074,7 +1119,7 @@
       <c r="K32" s="10"/>
       <c r="L32" s="10"/>
     </row>
-    <row r="33" spans="2:12" s="7" customFormat="1">
+    <row r="33" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -1087,7 +1132,7 @@
       <c r="K33" s="10"/>
       <c r="L33" s="10"/>
     </row>
-    <row r="34" spans="2:12" s="7" customFormat="1">
+    <row r="34" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -1100,7 +1145,7 @@
       <c r="K34" s="10"/>
       <c r="L34" s="10"/>
     </row>
-    <row r="35" spans="2:12" s="7" customFormat="1">
+    <row r="35" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -1113,7 +1158,7 @@
       <c r="K35" s="10"/>
       <c r="L35" s="10"/>
     </row>
-    <row r="36" spans="2:12" s="7" customFormat="1">
+    <row r="36" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -1126,7 +1171,7 @@
       <c r="K36" s="10"/>
       <c r="L36" s="10"/>
     </row>
-    <row r="37" spans="2:12" s="7" customFormat="1">
+    <row r="37" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -1139,7 +1184,7 @@
       <c r="K37" s="10"/>
       <c r="L37" s="10"/>
     </row>
-    <row r="38" spans="2:12" s="7" customFormat="1">
+    <row r="38" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -1152,7 +1197,7 @@
       <c r="K38" s="10"/>
       <c r="L38" s="10"/>
     </row>
-    <row r="39" spans="2:12" s="7" customFormat="1">
+    <row r="39" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
@@ -1165,7 +1210,7 @@
       <c r="K39" s="10"/>
       <c r="L39" s="10"/>
     </row>
-    <row r="40" spans="2:12" s="7" customFormat="1">
+    <row r="40" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
@@ -1178,7 +1223,7 @@
       <c r="K40" s="10"/>
       <c r="L40" s="10"/>
     </row>
-    <row r="41" spans="2:12" s="7" customFormat="1">
+    <row r="41" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
@@ -1191,7 +1236,7 @@
       <c r="K41" s="10"/>
       <c r="L41" s="10"/>
     </row>
-    <row r="42" spans="2:12" s="7" customFormat="1">
+    <row r="42" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
@@ -1204,7 +1249,7 @@
       <c r="K42" s="10"/>
       <c r="L42" s="10"/>
     </row>
-    <row r="43" spans="2:12" s="7" customFormat="1">
+    <row r="43" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
@@ -1217,7 +1262,7 @@
       <c r="K43" s="10"/>
       <c r="L43" s="10"/>
     </row>
-    <row r="44" spans="2:12" s="7" customFormat="1">
+    <row r="44" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
@@ -1230,7 +1275,7 @@
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
     </row>
-    <row r="45" spans="2:12" s="7" customFormat="1">
+    <row r="45" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
@@ -1243,7 +1288,7 @@
       <c r="K45" s="10"/>
       <c r="L45" s="10"/>
     </row>
-    <row r="46" spans="2:12" s="7" customFormat="1">
+    <row r="46" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
@@ -1256,7 +1301,7 @@
       <c r="K46" s="10"/>
       <c r="L46" s="10"/>
     </row>
-    <row r="47" spans="2:12" s="7" customFormat="1">
+    <row r="47" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
@@ -1269,7 +1314,7 @@
       <c r="K47" s="10"/>
       <c r="L47" s="10"/>
     </row>
-    <row r="48" spans="2:12" s="7" customFormat="1">
+    <row r="48" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
@@ -1282,7 +1327,7 @@
       <c r="K48" s="10"/>
       <c r="L48" s="10"/>
     </row>
-    <row r="49" spans="2:12" s="7" customFormat="1">
+    <row r="49" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
@@ -1295,7 +1340,7 @@
       <c r="K49" s="10"/>
       <c r="L49" s="10"/>
     </row>
-    <row r="50" spans="2:12" s="7" customFormat="1">
+    <row r="50" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
@@ -1308,7 +1353,7 @@
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
     </row>
-    <row r="51" spans="2:12" s="7" customFormat="1">
+    <row r="51" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
@@ -1321,7 +1366,7 @@
       <c r="K51" s="10"/>
       <c r="L51" s="10"/>
     </row>
-    <row r="52" spans="2:12" s="7" customFormat="1">
+    <row r="52" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
@@ -1334,7 +1379,7 @@
       <c r="K52" s="10"/>
       <c r="L52" s="10"/>
     </row>
-    <row r="53" spans="2:12" s="7" customFormat="1">
+    <row r="53" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
@@ -1347,7 +1392,7 @@
       <c r="K53" s="10"/>
       <c r="L53" s="10"/>
     </row>
-    <row r="54" spans="2:12" s="7" customFormat="1">
+    <row r="54" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
@@ -1360,7 +1405,7 @@
       <c r="K54" s="10"/>
       <c r="L54" s="10"/>
     </row>
-    <row r="55" spans="2:12" s="7" customFormat="1">
+    <row r="55" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
@@ -1373,7 +1418,7 @@
       <c r="K55" s="10"/>
       <c r="L55" s="10"/>
     </row>
-    <row r="56" spans="2:12" s="7" customFormat="1">
+    <row r="56" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
@@ -1386,7 +1431,7 @@
       <c r="K56" s="10"/>
       <c r="L56" s="10"/>
     </row>
-    <row r="57" spans="2:12" s="7" customFormat="1">
+    <row r="57" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
@@ -1399,7 +1444,7 @@
       <c r="K57" s="10"/>
       <c r="L57" s="10"/>
     </row>
-    <row r="58" spans="2:12" s="7" customFormat="1">
+    <row r="58" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
@@ -1412,7 +1457,7 @@
       <c r="K58" s="10"/>
       <c r="L58" s="10"/>
     </row>
-    <row r="59" spans="2:12" s="7" customFormat="1">
+    <row r="59" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
@@ -1425,7 +1470,7 @@
       <c r="K59" s="10"/>
       <c r="L59" s="10"/>
     </row>
-    <row r="60" spans="2:12" s="7" customFormat="1">
+    <row r="60" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
@@ -1438,7 +1483,7 @@
       <c r="K60" s="10"/>
       <c r="L60" s="10"/>
     </row>
-    <row r="61" spans="2:12" s="7" customFormat="1">
+    <row r="61" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
@@ -1451,7 +1496,7 @@
       <c r="K61" s="10"/>
       <c r="L61" s="10"/>
     </row>
-    <row r="62" spans="2:12" s="7" customFormat="1">
+    <row r="62" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
@@ -1464,7 +1509,7 @@
       <c r="K62" s="10"/>
       <c r="L62" s="10"/>
     </row>
-    <row r="63" spans="2:12" s="7" customFormat="1">
+    <row r="63" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
@@ -1477,7 +1522,7 @@
       <c r="K63" s="10"/>
       <c r="L63" s="10"/>
     </row>
-    <row r="64" spans="2:12" s="7" customFormat="1">
+    <row r="64" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
@@ -1490,7 +1535,7 @@
       <c r="K64" s="10"/>
       <c r="L64" s="10"/>
     </row>
-    <row r="65" spans="1:12" s="7" customFormat="1">
+    <row r="65" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
@@ -1503,7 +1548,7 @@
       <c r="K65" s="10"/>
       <c r="L65" s="10"/>
     </row>
-    <row r="66" spans="1:12" s="7" customFormat="1">
+    <row r="66" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
@@ -1516,7 +1561,7 @@
       <c r="K66" s="10"/>
       <c r="L66" s="10"/>
     </row>
-    <row r="67" spans="1:12" s="7" customFormat="1">
+    <row r="67" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -1529,7 +1574,7 @@
       <c r="K67" s="10"/>
       <c r="L67" s="10"/>
     </row>
-    <row r="68" spans="1:12" s="7" customFormat="1">
+    <row r="68" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
@@ -1542,7 +1587,7 @@
       <c r="K68" s="10"/>
       <c r="L68" s="10"/>
     </row>
-    <row r="69" spans="1:12" s="7" customFormat="1">
+    <row r="69" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
@@ -1555,7 +1600,7 @@
       <c r="K69" s="10"/>
       <c r="L69" s="10"/>
     </row>
-    <row r="70" spans="1:12" s="7" customFormat="1">
+    <row r="70" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
@@ -1568,7 +1613,7 @@
       <c r="K70" s="10"/>
       <c r="L70" s="10"/>
     </row>
-    <row r="71" spans="1:12" s="7" customFormat="1">
+    <row r="71" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A71" s="12"/>
       <c r="B71" s="12"/>
       <c r="C71" s="10"/>
@@ -1582,7 +1627,7 @@
       <c r="K71" s="10"/>
       <c r="L71" s="10"/>
     </row>
-    <row r="72" spans="1:12" s="7" customFormat="1">
+    <row r="72" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
@@ -1595,7 +1640,7 @@
       <c r="K72" s="10"/>
       <c r="L72" s="10"/>
     </row>
-    <row r="73" spans="1:12" s="7" customFormat="1">
+    <row r="73" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
@@ -1608,7 +1653,7 @@
       <c r="K73" s="10"/>
       <c r="L73" s="10"/>
     </row>
-    <row r="74" spans="1:12" s="7" customFormat="1">
+    <row r="74" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
@@ -1621,7 +1666,7 @@
       <c r="K74" s="10"/>
       <c r="L74" s="10"/>
     </row>
-    <row r="75" spans="1:12" s="7" customFormat="1">
+    <row r="75" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
@@ -1634,7 +1679,7 @@
       <c r="K75" s="10"/>
       <c r="L75" s="10"/>
     </row>
-    <row r="76" spans="1:12" s="7" customFormat="1">
+    <row r="76" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
@@ -1647,7 +1692,7 @@
       <c r="K76" s="10"/>
       <c r="L76" s="10"/>
     </row>
-    <row r="77" spans="1:12" s="7" customFormat="1">
+    <row r="77" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
@@ -1660,7 +1705,7 @@
       <c r="K77" s="10"/>
       <c r="L77" s="10"/>
     </row>
-    <row r="78" spans="1:12" s="7" customFormat="1">
+    <row r="78" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
@@ -1673,7 +1718,7 @@
       <c r="K78" s="10"/>
       <c r="L78" s="10"/>
     </row>
-    <row r="79" spans="1:12" s="7" customFormat="1">
+    <row r="79" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
       <c r="D79" s="10"/>
@@ -1686,7 +1731,7 @@
       <c r="K79" s="10"/>
       <c r="L79" s="10"/>
     </row>
-    <row r="80" spans="1:12" s="7" customFormat="1">
+    <row r="80" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
       <c r="D80" s="10"/>
@@ -1699,7 +1744,7 @@
       <c r="K80" s="10"/>
       <c r="L80" s="10"/>
     </row>
-    <row r="81" spans="1:12" s="7" customFormat="1">
+    <row r="81" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
       <c r="D81" s="10"/>
@@ -1712,7 +1757,7 @@
       <c r="K81" s="10"/>
       <c r="L81" s="10"/>
     </row>
-    <row r="82" spans="1:12" s="7" customFormat="1">
+    <row r="82" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
@@ -1725,7 +1770,7 @@
       <c r="K82" s="10"/>
       <c r="L82" s="10"/>
     </row>
-    <row r="83" spans="1:12" s="7" customFormat="1">
+    <row r="83" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
       <c r="D83" s="10"/>
@@ -1738,7 +1783,7 @@
       <c r="K83" s="10"/>
       <c r="L83" s="10"/>
     </row>
-    <row r="84" spans="1:12" s="7" customFormat="1">
+    <row r="84" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
       <c r="D84" s="10"/>
@@ -1751,7 +1796,7 @@
       <c r="K84" s="10"/>
       <c r="L84" s="10"/>
     </row>
-    <row r="85" spans="1:12" s="7" customFormat="1">
+    <row r="85" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A85" s="12"/>
       <c r="B85" s="12"/>
       <c r="C85" s="10"/>
@@ -1765,7 +1810,7 @@
       <c r="K85" s="10"/>
       <c r="L85" s="10"/>
     </row>
-    <row r="86" spans="1:12" s="7" customFormat="1">
+    <row r="86" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
       <c r="D86" s="10"/>
@@ -1778,7 +1823,7 @@
       <c r="K86" s="10"/>
       <c r="L86" s="10"/>
     </row>
-    <row r="87" spans="1:12" s="7" customFormat="1">
+    <row r="87" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
       <c r="D87" s="10"/>
@@ -1791,7 +1836,7 @@
       <c r="K87" s="10"/>
       <c r="L87" s="10"/>
     </row>
-    <row r="88" spans="1:12" s="7" customFormat="1">
+    <row r="88" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
       <c r="D88" s="10"/>
@@ -1804,7 +1849,7 @@
       <c r="K88" s="10"/>
       <c r="L88" s="10"/>
     </row>
-    <row r="89" spans="1:12" s="7" customFormat="1">
+    <row r="89" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
       <c r="D89" s="10"/>
@@ -1817,7 +1862,7 @@
       <c r="K89" s="10"/>
       <c r="L89" s="10"/>
     </row>
-    <row r="90" spans="1:12" s="7" customFormat="1">
+    <row r="90" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
       <c r="D90" s="10"/>
@@ -1830,7 +1875,7 @@
       <c r="K90" s="10"/>
       <c r="L90" s="10"/>
     </row>
-    <row r="91" spans="1:12" s="7" customFormat="1">
+    <row r="91" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
       <c r="D91" s="10"/>
@@ -1843,7 +1888,7 @@
       <c r="K91" s="10"/>
       <c r="L91" s="10"/>
     </row>
-    <row r="92" spans="1:12" s="7" customFormat="1">
+    <row r="92" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
       <c r="D92" s="10"/>
@@ -1856,7 +1901,7 @@
       <c r="K92" s="10"/>
       <c r="L92" s="10"/>
     </row>
-    <row r="93" spans="1:12" s="7" customFormat="1">
+    <row r="93" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
       <c r="D93" s="10"/>
@@ -1869,7 +1914,7 @@
       <c r="K93" s="10"/>
       <c r="L93" s="10"/>
     </row>
-    <row r="94" spans="1:12" s="7" customFormat="1">
+    <row r="94" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
       <c r="D94" s="10"/>
@@ -1882,7 +1927,7 @@
       <c r="K94" s="10"/>
       <c r="L94" s="10"/>
     </row>
-    <row r="95" spans="1:12" s="7" customFormat="1">
+    <row r="95" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A95" s="12"/>
       <c r="B95" s="12"/>
       <c r="C95" s="10"/>
@@ -1896,7 +1941,7 @@
       <c r="K95" s="10"/>
       <c r="L95" s="10"/>
     </row>
-    <row r="96" spans="1:12" s="7" customFormat="1">
+    <row r="96" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
       <c r="D96" s="10"/>
@@ -1909,7 +1954,7 @@
       <c r="K96" s="10"/>
       <c r="L96" s="10"/>
     </row>
-    <row r="97" spans="1:12" s="7" customFormat="1">
+    <row r="97" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
       <c r="D97" s="10"/>
@@ -1922,7 +1967,7 @@
       <c r="K97" s="10"/>
       <c r="L97" s="10"/>
     </row>
-    <row r="98" spans="1:12" s="7" customFormat="1">
+    <row r="98" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
       <c r="D98" s="10"/>
@@ -1935,7 +1980,7 @@
       <c r="K98" s="10"/>
       <c r="L98" s="10"/>
     </row>
-    <row r="99" spans="1:12" s="7" customFormat="1">
+    <row r="99" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
       <c r="D99" s="10"/>
@@ -1948,7 +1993,7 @@
       <c r="K99" s="10"/>
       <c r="L99" s="10"/>
     </row>
-    <row r="100" spans="1:12" s="7" customFormat="1">
+    <row r="100" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
       <c r="D100" s="10"/>
@@ -1961,7 +2006,7 @@
       <c r="K100" s="10"/>
       <c r="L100" s="10"/>
     </row>
-    <row r="101" spans="1:12" s="7" customFormat="1">
+    <row r="101" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
       <c r="D101" s="10"/>
@@ -1974,7 +2019,7 @@
       <c r="K101" s="10"/>
       <c r="L101" s="10"/>
     </row>
-    <row r="102" spans="1:12" s="7" customFormat="1">
+    <row r="102" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
       <c r="D102" s="10"/>
@@ -1987,7 +2032,7 @@
       <c r="K102" s="10"/>
       <c r="L102" s="10"/>
     </row>
-    <row r="103" spans="1:12" s="7" customFormat="1">
+    <row r="103" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
       <c r="D103" s="10"/>
@@ -2000,7 +2045,7 @@
       <c r="K103" s="10"/>
       <c r="L103" s="10"/>
     </row>
-    <row r="104" spans="1:12" s="7" customFormat="1">
+    <row r="104" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
       <c r="D104" s="10"/>
@@ -2013,7 +2058,7 @@
       <c r="K104" s="10"/>
       <c r="L104" s="10"/>
     </row>
-    <row r="105" spans="1:12" s="7" customFormat="1">
+    <row r="105" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A105" s="12"/>
       <c r="B105" s="12"/>
       <c r="C105" s="10"/>
@@ -2027,7 +2072,7 @@
       <c r="K105" s="10"/>
       <c r="L105" s="10"/>
     </row>
-    <row r="106" spans="1:12" s="7" customFormat="1">
+    <row r="106" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
       <c r="D106" s="10"/>
@@ -2040,7 +2085,7 @@
       <c r="K106" s="10"/>
       <c r="L106" s="10"/>
     </row>
-    <row r="107" spans="1:12" s="7" customFormat="1">
+    <row r="107" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
       <c r="D107" s="10"/>
@@ -2053,7 +2098,7 @@
       <c r="K107" s="10"/>
       <c r="L107" s="10"/>
     </row>
-    <row r="108" spans="1:12" s="7" customFormat="1">
+    <row r="108" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
       <c r="D108" s="10"/>
@@ -2066,7 +2111,7 @@
       <c r="K108" s="10"/>
       <c r="L108" s="10"/>
     </row>
-    <row r="109" spans="1:12" s="7" customFormat="1">
+    <row r="109" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
       <c r="D109" s="10"/>
@@ -2079,7 +2124,7 @@
       <c r="K109" s="10"/>
       <c r="L109" s="10"/>
     </row>
-    <row r="110" spans="1:12" s="7" customFormat="1">
+    <row r="110" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
       <c r="D110" s="10"/>
@@ -2092,7 +2137,7 @@
       <c r="K110" s="10"/>
       <c r="L110" s="10"/>
     </row>
-    <row r="111" spans="1:12" s="7" customFormat="1">
+    <row r="111" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
       <c r="D111" s="10"/>
@@ -2105,7 +2150,7 @@
       <c r="K111" s="10"/>
       <c r="L111" s="10"/>
     </row>
-    <row r="112" spans="1:12" s="7" customFormat="1">
+    <row r="112" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
       <c r="D112" s="10"/>
@@ -2118,7 +2163,7 @@
       <c r="K112" s="10"/>
       <c r="L112" s="10"/>
     </row>
-    <row r="113" spans="1:12" s="7" customFormat="1">
+    <row r="113" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
       <c r="D113" s="10"/>
@@ -2131,7 +2176,7 @@
       <c r="K113" s="10"/>
       <c r="L113" s="10"/>
     </row>
-    <row r="114" spans="1:12" s="7" customFormat="1">
+    <row r="114" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
       <c r="D114" s="10"/>
@@ -2144,7 +2189,7 @@
       <c r="K114" s="10"/>
       <c r="L114" s="10"/>
     </row>
-    <row r="115" spans="1:12" s="7" customFormat="1">
+    <row r="115" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
       <c r="D115" s="10"/>
@@ -2157,7 +2202,7 @@
       <c r="K115" s="10"/>
       <c r="L115" s="10"/>
     </row>
-    <row r="116" spans="1:12" s="7" customFormat="1">
+    <row r="116" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
       <c r="D116" s="10"/>
@@ -2170,7 +2215,7 @@
       <c r="K116" s="10"/>
       <c r="L116" s="10"/>
     </row>
-    <row r="117" spans="1:12" s="7" customFormat="1">
+    <row r="117" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
       <c r="D117" s="10"/>
@@ -2183,7 +2228,7 @@
       <c r="K117" s="10"/>
       <c r="L117" s="10"/>
     </row>
-    <row r="118" spans="1:12" s="7" customFormat="1">
+    <row r="118" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A118" s="12"/>
       <c r="B118" s="12"/>
       <c r="C118" s="10"/>
@@ -2197,7 +2242,7 @@
       <c r="K118" s="10"/>
       <c r="L118" s="10"/>
     </row>
-    <row r="119" spans="1:12" s="7" customFormat="1">
+    <row r="119" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
       <c r="D119" s="10"/>
@@ -2210,7 +2255,7 @@
       <c r="K119" s="10"/>
       <c r="L119" s="10"/>
     </row>
-    <row r="120" spans="1:12" s="7" customFormat="1">
+    <row r="120" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
       <c r="D120" s="10"/>
@@ -2223,7 +2268,7 @@
       <c r="K120" s="10"/>
       <c r="L120" s="10"/>
     </row>
-    <row r="121" spans="1:12" s="7" customFormat="1">
+    <row r="121" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
       <c r="D121" s="10"/>
@@ -2236,7 +2281,7 @@
       <c r="K121" s="10"/>
       <c r="L121" s="10"/>
     </row>
-    <row r="122" spans="1:12" s="7" customFormat="1">
+    <row r="122" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
       <c r="D122" s="10"/>
@@ -2249,7 +2294,7 @@
       <c r="K122" s="10"/>
       <c r="L122" s="10"/>
     </row>
-    <row r="123" spans="1:12" s="7" customFormat="1">
+    <row r="123" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
       <c r="D123" s="10"/>
@@ -2262,7 +2307,7 @@
       <c r="K123" s="10"/>
       <c r="L123" s="10"/>
     </row>
-    <row r="124" spans="1:12" s="7" customFormat="1">
+    <row r="124" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
       <c r="D124" s="10"/>
@@ -2275,7 +2320,7 @@
       <c r="K124" s="10"/>
       <c r="L124" s="10"/>
     </row>
-    <row r="125" spans="1:12" s="7" customFormat="1">
+    <row r="125" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
       <c r="D125" s="10"/>
@@ -2288,7 +2333,7 @@
       <c r="K125" s="10"/>
       <c r="L125" s="10"/>
     </row>
-    <row r="126" spans="1:12" s="7" customFormat="1">
+    <row r="126" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
       <c r="D126" s="10"/>
@@ -2301,7 +2346,7 @@
       <c r="K126" s="10"/>
       <c r="L126" s="10"/>
     </row>
-    <row r="127" spans="1:12" s="7" customFormat="1">
+    <row r="127" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B127" s="10"/>
       <c r="C127" s="10"/>
       <c r="D127" s="10"/>
@@ -2314,7 +2359,7 @@
       <c r="K127" s="10"/>
       <c r="L127" s="10"/>
     </row>
-    <row r="128" spans="1:12" s="7" customFormat="1">
+    <row r="128" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B128" s="10"/>
       <c r="C128" s="10"/>
       <c r="D128" s="10"/>
@@ -2327,7 +2372,7 @@
       <c r="K128" s="10"/>
       <c r="L128" s="10"/>
     </row>
-    <row r="129" spans="2:12" s="7" customFormat="1">
+    <row r="129" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B129" s="10"/>
       <c r="C129" s="10"/>
       <c r="D129" s="10"/>
@@ -2340,7 +2385,7 @@
       <c r="K129" s="10"/>
       <c r="L129" s="10"/>
     </row>
-    <row r="130" spans="2:12" s="7" customFormat="1">
+    <row r="130" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B130" s="10"/>
       <c r="C130" s="10"/>
       <c r="D130" s="10"/>
@@ -2353,7 +2398,7 @@
       <c r="K130" s="10"/>
       <c r="L130" s="10"/>
     </row>
-    <row r="131" spans="2:12" s="7" customFormat="1">
+    <row r="131" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B131" s="10"/>
       <c r="C131" s="10"/>
       <c r="D131" s="10"/>
@@ -2366,7 +2411,7 @@
       <c r="K131" s="10"/>
       <c r="L131" s="10"/>
     </row>
-    <row r="132" spans="2:12" s="7" customFormat="1">
+    <row r="132" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B132" s="10"/>
       <c r="C132" s="10"/>
       <c r="D132" s="10"/>
@@ -2379,7 +2424,7 @@
       <c r="K132" s="10"/>
       <c r="L132" s="10"/>
     </row>
-    <row r="133" spans="2:12" s="7" customFormat="1">
+    <row r="133" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B133" s="10"/>
       <c r="C133" s="10"/>
       <c r="D133" s="10"/>
@@ -2392,7 +2437,7 @@
       <c r="K133" s="10"/>
       <c r="L133" s="10"/>
     </row>
-    <row r="134" spans="2:12" s="7" customFormat="1">
+    <row r="134" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B134" s="10"/>
       <c r="C134" s="10"/>
       <c r="D134" s="10"/>
@@ -2405,7 +2450,7 @@
       <c r="K134" s="10"/>
       <c r="L134" s="10"/>
     </row>
-    <row r="135" spans="2:12" s="7" customFormat="1">
+    <row r="135" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B135" s="10"/>
       <c r="C135" s="10"/>
       <c r="D135" s="10"/>
@@ -2418,7 +2463,7 @@
       <c r="K135" s="10"/>
       <c r="L135" s="10"/>
     </row>
-    <row r="136" spans="2:12" s="7" customFormat="1">
+    <row r="136" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B136" s="10"/>
       <c r="C136" s="10"/>
       <c r="D136" s="10"/>
@@ -2431,7 +2476,7 @@
       <c r="K136" s="10"/>
       <c r="L136" s="10"/>
     </row>
-    <row r="137" spans="2:12" s="7" customFormat="1">
+    <row r="137" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B137" s="10"/>
       <c r="C137" s="10"/>
       <c r="D137" s="10"/>
@@ -2444,7 +2489,7 @@
       <c r="K137" s="10"/>
       <c r="L137" s="10"/>
     </row>
-    <row r="138" spans="2:12" s="7" customFormat="1">
+    <row r="138" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B138" s="10"/>
       <c r="C138" s="10"/>
       <c r="D138" s="10"/>
@@ -2457,7 +2502,7 @@
       <c r="K138" s="10"/>
       <c r="L138" s="10"/>
     </row>
-    <row r="139" spans="2:12" s="7" customFormat="1">
+    <row r="139" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B139" s="10"/>
       <c r="C139" s="10"/>
       <c r="D139" s="10"/>
@@ -2470,7 +2515,7 @@
       <c r="K139" s="10"/>
       <c r="L139" s="10"/>
     </row>
-    <row r="140" spans="2:12" s="7" customFormat="1">
+    <row r="140" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B140" s="10"/>
       <c r="C140" s="10"/>
       <c r="D140" s="10"/>
@@ -2483,7 +2528,7 @@
       <c r="K140" s="10"/>
       <c r="L140" s="10"/>
     </row>
-    <row r="141" spans="2:12" s="7" customFormat="1">
+    <row r="141" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B141" s="10"/>
       <c r="C141" s="10"/>
       <c r="D141" s="10"/>
@@ -2496,7 +2541,7 @@
       <c r="K141" s="10"/>
       <c r="L141" s="10"/>
     </row>
-    <row r="142" spans="2:12" s="7" customFormat="1">
+    <row r="142" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B142" s="10"/>
       <c r="C142" s="10"/>
       <c r="D142" s="10"/>
@@ -2509,7 +2554,7 @@
       <c r="K142" s="10"/>
       <c r="L142" s="10"/>
     </row>
-    <row r="143" spans="2:12" s="7" customFormat="1">
+    <row r="143" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B143" s="10"/>
       <c r="C143" s="10"/>
       <c r="D143" s="10"/>
@@ -2522,7 +2567,7 @@
       <c r="K143" s="10"/>
       <c r="L143" s="10"/>
     </row>
-    <row r="144" spans="2:12" s="7" customFormat="1">
+    <row r="144" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B144" s="10"/>
       <c r="C144" s="10"/>
       <c r="D144" s="10"/>
@@ -2535,7 +2580,7 @@
       <c r="K144" s="10"/>
       <c r="L144" s="10"/>
     </row>
-    <row r="145" spans="2:12" s="7" customFormat="1">
+    <row r="145" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B145" s="10"/>
       <c r="C145" s="10"/>
       <c r="D145" s="10"/>
@@ -2548,7 +2593,7 @@
       <c r="K145" s="10"/>
       <c r="L145" s="10"/>
     </row>
-    <row r="146" spans="2:12" s="7" customFormat="1">
+    <row r="146" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B146" s="10"/>
       <c r="C146" s="10"/>
       <c r="D146" s="10"/>
@@ -2561,7 +2606,7 @@
       <c r="K146" s="10"/>
       <c r="L146" s="10"/>
     </row>
-    <row r="147" spans="2:12" s="7" customFormat="1">
+    <row r="147" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B147" s="10"/>
       <c r="C147" s="10"/>
       <c r="D147" s="10"/>
@@ -2574,7 +2619,7 @@
       <c r="K147" s="10"/>
       <c r="L147" s="10"/>
     </row>
-    <row r="148" spans="2:12" s="7" customFormat="1">
+    <row r="148" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
       <c r="D148" s="10"/>
@@ -2587,7 +2632,7 @@
       <c r="K148" s="10"/>
       <c r="L148" s="10"/>
     </row>
-    <row r="149" spans="2:12" s="7" customFormat="1">
+    <row r="149" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B149" s="10"/>
       <c r="C149" s="10"/>
       <c r="D149" s="10"/>
@@ -2600,7 +2645,7 @@
       <c r="K149" s="10"/>
       <c r="L149" s="10"/>
     </row>
-    <row r="150" spans="2:12" s="7" customFormat="1">
+    <row r="150" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B150" s="10"/>
       <c r="C150" s="10"/>
       <c r="D150" s="10"/>
@@ -2613,7 +2658,7 @@
       <c r="K150" s="10"/>
       <c r="L150" s="10"/>
     </row>
-    <row r="151" spans="2:12" s="7" customFormat="1">
+    <row r="151" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B151" s="10"/>
       <c r="C151" s="10"/>
       <c r="D151" s="10"/>
@@ -2626,7 +2671,7 @@
       <c r="K151" s="10"/>
       <c r="L151" s="10"/>
     </row>
-    <row r="152" spans="2:12" s="7" customFormat="1">
+    <row r="152" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B152" s="10"/>
       <c r="C152" s="10"/>
       <c r="D152" s="10"/>
@@ -2639,7 +2684,7 @@
       <c r="K152" s="10"/>
       <c r="L152" s="10"/>
     </row>
-    <row r="153" spans="2:12" s="7" customFormat="1">
+    <row r="153" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B153" s="10"/>
       <c r="C153" s="10"/>
       <c r="D153" s="10"/>
@@ -2652,7 +2697,7 @@
       <c r="K153" s="10"/>
       <c r="L153" s="10"/>
     </row>
-    <row r="154" spans="2:12" s="7" customFormat="1">
+    <row r="154" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B154" s="10"/>
       <c r="C154" s="10"/>
       <c r="D154" s="10"/>
@@ -2665,7 +2710,7 @@
       <c r="K154" s="10"/>
       <c r="L154" s="10"/>
     </row>
-    <row r="155" spans="2:12" s="7" customFormat="1">
+    <row r="155" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B155" s="10"/>
       <c r="C155" s="10"/>
       <c r="D155" s="10"/>
@@ -2678,7 +2723,7 @@
       <c r="K155" s="10"/>
       <c r="L155" s="10"/>
     </row>
-    <row r="156" spans="2:12" s="7" customFormat="1">
+    <row r="156" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B156" s="10"/>
       <c r="C156" s="10"/>
       <c r="D156" s="10"/>
@@ -2691,7 +2736,7 @@
       <c r="K156" s="10"/>
       <c r="L156" s="10"/>
     </row>
-    <row r="157" spans="2:12" s="7" customFormat="1">
+    <row r="157" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B157" s="10"/>
       <c r="C157" s="10"/>
       <c r="D157" s="10"/>
@@ -2704,7 +2749,7 @@
       <c r="K157" s="10"/>
       <c r="L157" s="10"/>
     </row>
-    <row r="158" spans="2:12" s="7" customFormat="1">
+    <row r="158" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B158" s="10"/>
       <c r="C158" s="10"/>
       <c r="D158" s="10"/>
@@ -2717,7 +2762,7 @@
       <c r="K158" s="10"/>
       <c r="L158" s="10"/>
     </row>
-    <row r="159" spans="2:12" s="7" customFormat="1">
+    <row r="159" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B159" s="10"/>
       <c r="C159" s="10"/>
       <c r="D159" s="10"/>
@@ -2730,7 +2775,7 @@
       <c r="K159" s="10"/>
       <c r="L159" s="10"/>
     </row>
-    <row r="160" spans="2:12" s="7" customFormat="1">
+    <row r="160" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B160" s="10"/>
       <c r="C160" s="10"/>
       <c r="D160" s="10"/>
@@ -2743,7 +2788,7 @@
       <c r="K160" s="10"/>
       <c r="L160" s="10"/>
     </row>
-    <row r="161" spans="2:12" s="7" customFormat="1">
+    <row r="161" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B161" s="10"/>
       <c r="C161" s="10"/>
       <c r="D161" s="10"/>
@@ -2756,7 +2801,7 @@
       <c r="K161" s="10"/>
       <c r="L161" s="10"/>
     </row>
-    <row r="162" spans="2:12" s="7" customFormat="1">
+    <row r="162" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B162" s="10"/>
       <c r="C162" s="10"/>
       <c r="D162" s="10"/>
@@ -2769,7 +2814,7 @@
       <c r="K162" s="10"/>
       <c r="L162" s="10"/>
     </row>
-    <row r="163" spans="2:12" s="7" customFormat="1">
+    <row r="163" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B163" s="10"/>
       <c r="C163" s="10"/>
       <c r="D163" s="10"/>
@@ -2782,7 +2827,7 @@
       <c r="K163" s="10"/>
       <c r="L163" s="10"/>
     </row>
-    <row r="164" spans="2:12" s="7" customFormat="1">
+    <row r="164" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B164" s="10"/>
       <c r="C164" s="10"/>
       <c r="D164" s="10"/>
@@ -2795,7 +2840,7 @@
       <c r="K164" s="10"/>
       <c r="L164" s="10"/>
     </row>
-    <row r="165" spans="2:12" s="7" customFormat="1">
+    <row r="165" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B165" s="10"/>
       <c r="C165" s="10"/>
       <c r="D165" s="10"/>
@@ -2808,7 +2853,7 @@
       <c r="K165" s="10"/>
       <c r="L165" s="10"/>
     </row>
-    <row r="166" spans="2:12" s="7" customFormat="1">
+    <row r="166" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B166" s="10"/>
       <c r="C166" s="10"/>
       <c r="D166" s="10"/>
@@ -2821,7 +2866,7 @@
       <c r="K166" s="10"/>
       <c r="L166" s="10"/>
     </row>
-    <row r="167" spans="2:12" s="7" customFormat="1">
+    <row r="167" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B167" s="10"/>
       <c r="C167" s="10"/>
       <c r="D167" s="10"/>
@@ -2834,7 +2879,7 @@
       <c r="K167" s="10"/>
       <c r="L167" s="10"/>
     </row>
-    <row r="168" spans="2:12" s="7" customFormat="1">
+    <row r="168" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B168" s="10"/>
       <c r="C168" s="10"/>
       <c r="D168" s="10"/>
@@ -2847,7 +2892,7 @@
       <c r="K168" s="10"/>
       <c r="L168" s="10"/>
     </row>
-    <row r="169" spans="2:12" s="7" customFormat="1">
+    <row r="169" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B169" s="10"/>
       <c r="C169" s="10"/>
       <c r="D169" s="10"/>
@@ -2860,7 +2905,7 @@
       <c r="K169" s="10"/>
       <c r="L169" s="10"/>
     </row>
-    <row r="170" spans="2:12" s="7" customFormat="1">
+    <row r="170" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B170" s="10"/>
       <c r="C170" s="10"/>
       <c r="D170" s="10"/>
@@ -2873,7 +2918,7 @@
       <c r="K170" s="10"/>
       <c r="L170" s="10"/>
     </row>
-    <row r="171" spans="2:12" s="7" customFormat="1">
+    <row r="171" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B171" s="10"/>
       <c r="C171" s="10"/>
       <c r="D171" s="10"/>
@@ -2886,7 +2931,7 @@
       <c r="K171" s="10"/>
       <c r="L171" s="10"/>
     </row>
-    <row r="172" spans="2:12" s="7" customFormat="1">
+    <row r="172" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B172" s="10"/>
       <c r="C172" s="10"/>
       <c r="D172" s="10"/>
@@ -2899,7 +2944,7 @@
       <c r="K172" s="10"/>
       <c r="L172" s="10"/>
     </row>
-    <row r="173" spans="2:12" s="7" customFormat="1">
+    <row r="173" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B173" s="10"/>
       <c r="C173" s="10"/>
       <c r="D173" s="10"/>
@@ -2912,7 +2957,7 @@
       <c r="K173" s="10"/>
       <c r="L173" s="10"/>
     </row>
-    <row r="174" spans="2:12" s="7" customFormat="1">
+    <row r="174" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B174" s="10"/>
       <c r="C174" s="10"/>
       <c r="D174" s="10"/>
@@ -2925,7 +2970,7 @@
       <c r="K174" s="10"/>
       <c r="L174" s="10"/>
     </row>
-    <row r="175" spans="2:12" s="7" customFormat="1">
+    <row r="175" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B175" s="10"/>
       <c r="C175" s="10"/>
       <c r="D175" s="10"/>
@@ -2938,7 +2983,7 @@
       <c r="K175" s="10"/>
       <c r="L175" s="10"/>
     </row>
-    <row r="176" spans="2:12" s="7" customFormat="1">
+    <row r="176" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B176" s="10"/>
       <c r="C176" s="10"/>
       <c r="D176" s="10"/>
@@ -2951,7 +2996,7 @@
       <c r="K176" s="10"/>
       <c r="L176" s="10"/>
     </row>
-    <row r="177" spans="2:12" s="7" customFormat="1">
+    <row r="177" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B177" s="10"/>
       <c r="C177" s="10"/>
       <c r="D177" s="10"/>
@@ -2964,7 +3009,7 @@
       <c r="K177" s="10"/>
       <c r="L177" s="10"/>
     </row>
-    <row r="178" spans="2:12" s="7" customFormat="1">
+    <row r="178" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B178" s="10"/>
       <c r="C178" s="10"/>
       <c r="D178" s="10"/>
@@ -2977,7 +3022,7 @@
       <c r="K178" s="10"/>
       <c r="L178" s="10"/>
     </row>
-    <row r="179" spans="2:12" s="7" customFormat="1">
+    <row r="179" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B179" s="10"/>
       <c r="C179" s="10"/>
       <c r="D179" s="10"/>
@@ -2990,7 +3035,7 @@
       <c r="K179" s="10"/>
       <c r="L179" s="10"/>
     </row>
-    <row r="180" spans="2:12" s="7" customFormat="1">
+    <row r="180" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B180" s="10"/>
       <c r="C180" s="10"/>
       <c r="D180" s="10"/>
@@ -3003,7 +3048,7 @@
       <c r="K180" s="10"/>
       <c r="L180" s="10"/>
     </row>
-    <row r="181" spans="2:12" s="7" customFormat="1">
+    <row r="181" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B181" s="10"/>
       <c r="C181" s="10"/>
       <c r="D181" s="10"/>
@@ -3016,7 +3061,7 @@
       <c r="K181" s="10"/>
       <c r="L181" s="10"/>
     </row>
-    <row r="182" spans="2:12" s="7" customFormat="1">
+    <row r="182" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B182" s="10"/>
       <c r="C182" s="10"/>
       <c r="D182" s="10"/>
@@ -3029,7 +3074,7 @@
       <c r="K182" s="10"/>
       <c r="L182" s="10"/>
     </row>
-    <row r="183" spans="2:12" s="7" customFormat="1">
+    <row r="183" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B183" s="10"/>
       <c r="C183" s="10"/>
       <c r="D183" s="10"/>
@@ -3042,7 +3087,7 @@
       <c r="K183" s="10"/>
       <c r="L183" s="10"/>
     </row>
-    <row r="184" spans="2:12" s="7" customFormat="1">
+    <row r="184" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B184" s="10"/>
       <c r="C184" s="10"/>
       <c r="D184" s="10"/>
@@ -3055,7 +3100,7 @@
       <c r="K184" s="10"/>
       <c r="L184" s="10"/>
     </row>
-    <row r="185" spans="2:12" s="7" customFormat="1">
+    <row r="185" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B185" s="10"/>
       <c r="C185" s="10"/>
       <c r="D185" s="10"/>
@@ -3068,7 +3113,7 @@
       <c r="K185" s="10"/>
       <c r="L185" s="10"/>
     </row>
-    <row r="186" spans="2:12" s="7" customFormat="1">
+    <row r="186" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B186" s="10"/>
       <c r="C186" s="10"/>
       <c r="D186" s="10"/>
@@ -3081,7 +3126,7 @@
       <c r="K186" s="10"/>
       <c r="L186" s="10"/>
     </row>
-    <row r="187" spans="2:12" s="7" customFormat="1">
+    <row r="187" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B187" s="10"/>
       <c r="C187" s="10"/>
       <c r="D187" s="10"/>
@@ -3094,7 +3139,7 @@
       <c r="K187" s="10"/>
       <c r="L187" s="10"/>
     </row>
-    <row r="188" spans="2:12" s="7" customFormat="1">
+    <row r="188" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B188" s="10"/>
       <c r="C188" s="10"/>
       <c r="D188" s="10"/>
@@ -3107,7 +3152,7 @@
       <c r="K188" s="10"/>
       <c r="L188" s="10"/>
     </row>
-    <row r="189" spans="2:12" s="7" customFormat="1">
+    <row r="189" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B189" s="10"/>
       <c r="C189" s="10"/>
       <c r="D189" s="10"/>
@@ -3120,7 +3165,7 @@
       <c r="K189" s="10"/>
       <c r="L189" s="10"/>
     </row>
-    <row r="190" spans="2:12" s="7" customFormat="1">
+    <row r="190" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B190" s="10"/>
       <c r="C190" s="10"/>
       <c r="D190" s="10"/>
@@ -3133,7 +3178,7 @@
       <c r="K190" s="10"/>
       <c r="L190" s="10"/>
     </row>
-    <row r="191" spans="2:12" s="7" customFormat="1">
+    <row r="191" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B191" s="10"/>
       <c r="C191" s="10"/>
       <c r="D191" s="10"/>
@@ -3146,7 +3191,7 @@
       <c r="K191" s="10"/>
       <c r="L191" s="10"/>
     </row>
-    <row r="192" spans="2:12" s="7" customFormat="1">
+    <row r="192" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B192" s="10"/>
       <c r="C192" s="10"/>
       <c r="D192" s="10"/>
@@ -3159,7 +3204,7 @@
       <c r="K192" s="10"/>
       <c r="L192" s="10"/>
     </row>
-    <row r="193" spans="2:12" s="7" customFormat="1">
+    <row r="193" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B193" s="10"/>
       <c r="C193" s="10"/>
       <c r="D193" s="10"/>
@@ -3172,7 +3217,7 @@
       <c r="K193" s="10"/>
       <c r="L193" s="10"/>
     </row>
-    <row r="194" spans="2:12" s="7" customFormat="1">
+    <row r="194" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B194" s="10"/>
       <c r="C194" s="10"/>
       <c r="D194" s="10"/>
@@ -3185,7 +3230,7 @@
       <c r="K194" s="10"/>
       <c r="L194" s="10"/>
     </row>
-    <row r="195" spans="2:12" s="7" customFormat="1">
+    <row r="195" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B195" s="10"/>
       <c r="C195" s="10"/>
       <c r="D195" s="10"/>
@@ -3198,7 +3243,7 @@
       <c r="K195" s="10"/>
       <c r="L195" s="10"/>
     </row>
-    <row r="196" spans="2:12" s="7" customFormat="1">
+    <row r="196" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B196" s="10"/>
       <c r="C196" s="10"/>
       <c r="D196" s="10"/>
@@ -3211,7 +3256,7 @@
       <c r="K196" s="10"/>
       <c r="L196" s="10"/>
     </row>
-    <row r="197" spans="2:12" s="7" customFormat="1">
+    <row r="197" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B197" s="10"/>
       <c r="C197" s="10"/>
       <c r="D197" s="10"/>
@@ -3224,7 +3269,7 @@
       <c r="K197" s="10"/>
       <c r="L197" s="10"/>
     </row>
-    <row r="198" spans="2:12" s="7" customFormat="1">
+    <row r="198" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B198" s="10"/>
       <c r="C198" s="10"/>
       <c r="D198" s="10"/>
@@ -3237,7 +3282,7 @@
       <c r="K198" s="10"/>
       <c r="L198" s="10"/>
     </row>
-    <row r="199" spans="2:12" s="7" customFormat="1">
+    <row r="199" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B199" s="10"/>
       <c r="C199" s="10"/>
       <c r="D199" s="10"/>
@@ -3250,7 +3295,7 @@
       <c r="K199" s="10"/>
       <c r="L199" s="10"/>
     </row>
-    <row r="200" spans="2:12" s="7" customFormat="1">
+    <row r="200" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B200" s="10"/>
       <c r="C200" s="10"/>
       <c r="D200" s="10"/>
@@ -3263,7 +3308,7 @@
       <c r="K200" s="10"/>
       <c r="L200" s="10"/>
     </row>
-    <row r="201" spans="2:12" s="7" customFormat="1">
+    <row r="201" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B201" s="10"/>
       <c r="C201" s="10"/>
       <c r="D201" s="10"/>
@@ -3276,7 +3321,7 @@
       <c r="K201" s="10"/>
       <c r="L201" s="10"/>
     </row>
-    <row r="202" spans="2:12" s="7" customFormat="1">
+    <row r="202" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B202" s="10"/>
       <c r="C202" s="10"/>
       <c r="D202" s="10"/>
@@ -3289,7 +3334,7 @@
       <c r="K202" s="10"/>
       <c r="L202" s="10"/>
     </row>
-    <row r="203" spans="2:12" s="7" customFormat="1">
+    <row r="203" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B203" s="10"/>
       <c r="C203" s="10"/>
       <c r="D203" s="10"/>
@@ -3302,7 +3347,7 @@
       <c r="K203" s="10"/>
       <c r="L203" s="10"/>
     </row>
-    <row r="204" spans="2:12" s="7" customFormat="1">
+    <row r="204" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B204" s="10"/>
       <c r="C204" s="10"/>
       <c r="D204" s="10"/>
@@ -3315,7 +3360,7 @@
       <c r="K204" s="10"/>
       <c r="L204" s="10"/>
     </row>
-    <row r="205" spans="2:12" s="7" customFormat="1">
+    <row r="205" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B205" s="10"/>
       <c r="C205" s="10"/>
       <c r="D205" s="10"/>
@@ -3328,7 +3373,7 @@
       <c r="K205" s="10"/>
       <c r="L205" s="10"/>
     </row>
-    <row r="206" spans="2:12" s="7" customFormat="1">
+    <row r="206" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B206" s="10"/>
       <c r="C206" s="10"/>
       <c r="D206" s="10"/>
@@ -3341,7 +3386,7 @@
       <c r="K206" s="10"/>
       <c r="L206" s="10"/>
     </row>
-    <row r="207" spans="2:12" s="7" customFormat="1">
+    <row r="207" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B207" s="10"/>
       <c r="C207" s="10"/>
       <c r="D207" s="10"/>
@@ -3354,7 +3399,7 @@
       <c r="K207" s="10"/>
       <c r="L207" s="10"/>
     </row>
-    <row r="208" spans="2:12" s="7" customFormat="1">
+    <row r="208" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B208" s="10"/>
       <c r="C208" s="10"/>
       <c r="D208" s="10"/>
@@ -3367,7 +3412,7 @@
       <c r="K208" s="10"/>
       <c r="L208" s="10"/>
     </row>
-    <row r="209" spans="2:12" s="7" customFormat="1">
+    <row r="209" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B209" s="10"/>
       <c r="C209" s="10"/>
       <c r="D209" s="10"/>
@@ -3380,7 +3425,7 @@
       <c r="K209" s="10"/>
       <c r="L209" s="10"/>
     </row>
-    <row r="210" spans="2:12" s="7" customFormat="1">
+    <row r="210" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B210" s="10"/>
       <c r="C210" s="10"/>
       <c r="D210" s="10"/>
@@ -3393,7 +3438,7 @@
       <c r="K210" s="10"/>
       <c r="L210" s="10"/>
     </row>
-    <row r="211" spans="2:12" s="7" customFormat="1">
+    <row r="211" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B211" s="10"/>
       <c r="C211" s="10"/>
       <c r="D211" s="10"/>
@@ -3406,7 +3451,7 @@
       <c r="K211" s="10"/>
       <c r="L211" s="10"/>
     </row>
-    <row r="212" spans="2:12" s="7" customFormat="1">
+    <row r="212" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B212" s="10"/>
       <c r="C212" s="10"/>
       <c r="D212" s="10"/>
@@ -3419,7 +3464,7 @@
       <c r="K212" s="10"/>
       <c r="L212" s="10"/>
     </row>
-    <row r="213" spans="2:12" s="7" customFormat="1">
+    <row r="213" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B213" s="10"/>
       <c r="C213" s="10"/>
       <c r="D213" s="10"/>
@@ -3432,7 +3477,7 @@
       <c r="K213" s="10"/>
       <c r="L213" s="10"/>
     </row>
-    <row r="214" spans="2:12" s="7" customFormat="1">
+    <row r="214" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B214" s="10"/>
       <c r="C214" s="10"/>
       <c r="D214" s="10"/>
@@ -3445,7 +3490,7 @@
       <c r="K214" s="10"/>
       <c r="L214" s="10"/>
     </row>
-    <row r="215" spans="2:12" s="7" customFormat="1">
+    <row r="215" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B215" s="10"/>
       <c r="C215" s="10"/>
       <c r="D215" s="10"/>
@@ -3458,7 +3503,7 @@
       <c r="K215" s="10"/>
       <c r="L215" s="10"/>
     </row>
-    <row r="216" spans="2:12" s="7" customFormat="1">
+    <row r="216" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B216" s="10"/>
       <c r="C216" s="10"/>
       <c r="D216" s="10"/>
@@ -3471,7 +3516,7 @@
       <c r="K216" s="10"/>
       <c r="L216" s="10"/>
     </row>
-    <row r="217" spans="2:12" s="7" customFormat="1">
+    <row r="217" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B217" s="10"/>
       <c r="C217" s="10"/>
       <c r="D217" s="10"/>
@@ -3484,7 +3529,7 @@
       <c r="K217" s="10"/>
       <c r="L217" s="10"/>
     </row>
-    <row r="218" spans="2:12" s="7" customFormat="1">
+    <row r="218" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B218" s="10"/>
       <c r="C218" s="10"/>
       <c r="D218" s="10"/>
@@ -3497,7 +3542,7 @@
       <c r="K218" s="10"/>
       <c r="L218" s="10"/>
     </row>
-    <row r="219" spans="2:12" s="7" customFormat="1">
+    <row r="219" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B219" s="10"/>
       <c r="C219" s="10"/>
       <c r="D219" s="10"/>
@@ -3510,7 +3555,7 @@
       <c r="K219" s="10"/>
       <c r="L219" s="10"/>
     </row>
-    <row r="220" spans="2:12" s="7" customFormat="1">
+    <row r="220" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B220" s="10"/>
       <c r="C220" s="10"/>
       <c r="D220" s="10"/>
@@ -3523,7 +3568,7 @@
       <c r="K220" s="10"/>
       <c r="L220" s="10"/>
     </row>
-    <row r="221" spans="2:12" s="7" customFormat="1">
+    <row r="221" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B221" s="10"/>
       <c r="C221" s="10"/>
       <c r="D221" s="10"/>
@@ -3536,7 +3581,7 @@
       <c r="K221" s="10"/>
       <c r="L221" s="10"/>
     </row>
-    <row r="222" spans="2:12" s="7" customFormat="1">
+    <row r="222" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B222" s="10"/>
       <c r="C222" s="10"/>
       <c r="D222" s="10"/>
@@ -3549,7 +3594,7 @@
       <c r="K222" s="10"/>
       <c r="L222" s="10"/>
     </row>
-    <row r="223" spans="2:12" s="7" customFormat="1">
+    <row r="223" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B223" s="10"/>
       <c r="C223" s="10"/>
       <c r="D223" s="10"/>
@@ -3562,7 +3607,7 @@
       <c r="K223" s="10"/>
       <c r="L223" s="10"/>
     </row>
-    <row r="224" spans="2:12" s="7" customFormat="1">
+    <row r="224" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B224" s="10"/>
       <c r="C224" s="10"/>
       <c r="D224" s="10"/>
@@ -3575,7 +3620,7 @@
       <c r="K224" s="10"/>
       <c r="L224" s="10"/>
     </row>
-    <row r="225" spans="2:12" s="7" customFormat="1">
+    <row r="225" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B225" s="10"/>
       <c r="C225" s="10"/>
       <c r="D225" s="10"/>
@@ -3588,7 +3633,7 @@
       <c r="K225" s="10"/>
       <c r="L225" s="10"/>
     </row>
-    <row r="226" spans="2:12" s="7" customFormat="1">
+    <row r="226" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B226" s="10"/>
       <c r="C226" s="10"/>
       <c r="D226" s="10"/>
@@ -3601,7 +3646,7 @@
       <c r="K226" s="10"/>
       <c r="L226" s="10"/>
     </row>
-    <row r="227" spans="2:12" s="7" customFormat="1">
+    <row r="227" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B227" s="10"/>
       <c r="C227" s="10"/>
       <c r="D227" s="10"/>
@@ -3614,7 +3659,7 @@
       <c r="K227" s="10"/>
       <c r="L227" s="10"/>
     </row>
-    <row r="228" spans="2:12" s="7" customFormat="1">
+    <row r="228" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B228" s="10"/>
       <c r="C228" s="10"/>
       <c r="D228" s="10"/>
@@ -3627,7 +3672,7 @@
       <c r="K228" s="10"/>
       <c r="L228" s="10"/>
     </row>
-    <row r="229" spans="2:12" s="7" customFormat="1">
+    <row r="229" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B229" s="10"/>
       <c r="C229" s="10"/>
       <c r="D229" s="10"/>
@@ -3640,7 +3685,7 @@
       <c r="K229" s="10"/>
       <c r="L229" s="10"/>
     </row>
-    <row r="230" spans="2:12" s="7" customFormat="1">
+    <row r="230" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B230" s="10"/>
       <c r="C230" s="10"/>
       <c r="D230" s="10"/>
@@ -3653,7 +3698,7 @@
       <c r="K230" s="10"/>
       <c r="L230" s="10"/>
     </row>
-    <row r="231" spans="2:12" s="7" customFormat="1">
+    <row r="231" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B231" s="10"/>
       <c r="C231" s="10"/>
       <c r="D231" s="10"/>
@@ -3666,7 +3711,7 @@
       <c r="K231" s="10"/>
       <c r="L231" s="10"/>
     </row>
-    <row r="232" spans="2:12" s="7" customFormat="1">
+    <row r="232" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B232" s="10"/>
       <c r="C232" s="10"/>
       <c r="D232" s="10"/>
@@ -3679,7 +3724,7 @@
       <c r="K232" s="10"/>
       <c r="L232" s="10"/>
     </row>
-    <row r="233" spans="2:12" s="7" customFormat="1">
+    <row r="233" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B233" s="10"/>
       <c r="C233" s="10"/>
       <c r="D233" s="10"/>
@@ -3692,7 +3737,7 @@
       <c r="K233" s="10"/>
       <c r="L233" s="10"/>
     </row>
-    <row r="234" spans="2:12" s="7" customFormat="1">
+    <row r="234" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B234" s="10"/>
       <c r="C234" s="10"/>
       <c r="D234" s="10"/>
@@ -3705,7 +3750,7 @@
       <c r="K234" s="10"/>
       <c r="L234" s="10"/>
     </row>
-    <row r="235" spans="2:12" s="7" customFormat="1">
+    <row r="235" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B235" s="10"/>
       <c r="C235" s="10"/>
       <c r="D235" s="10"/>
@@ -3718,7 +3763,7 @@
       <c r="K235" s="10"/>
       <c r="L235" s="10"/>
     </row>
-    <row r="236" spans="2:12" s="7" customFormat="1">
+    <row r="236" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B236" s="10"/>
       <c r="C236" s="10"/>
       <c r="D236" s="10"/>
@@ -3731,7 +3776,7 @@
       <c r="K236" s="10"/>
       <c r="L236" s="10"/>
     </row>
-    <row r="237" spans="2:12" s="7" customFormat="1">
+    <row r="237" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B237" s="10"/>
       <c r="C237" s="10"/>
       <c r="D237" s="10"/>
@@ -3744,7 +3789,7 @@
       <c r="K237" s="10"/>
       <c r="L237" s="10"/>
     </row>
-    <row r="238" spans="2:12" s="7" customFormat="1">
+    <row r="238" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B238" s="10"/>
       <c r="C238" s="10"/>
       <c r="D238" s="10"/>
@@ -3757,7 +3802,7 @@
       <c r="K238" s="10"/>
       <c r="L238" s="10"/>
     </row>
-    <row r="239" spans="2:12" s="7" customFormat="1">
+    <row r="239" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B239" s="10"/>
       <c r="C239" s="10"/>
       <c r="D239" s="10"/>
@@ -3770,7 +3815,7 @@
       <c r="K239" s="10"/>
       <c r="L239" s="10"/>
     </row>
-    <row r="240" spans="2:12" s="7" customFormat="1">
+    <row r="240" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B240" s="10"/>
       <c r="C240" s="10"/>
       <c r="D240" s="10"/>
@@ -3783,7 +3828,7 @@
       <c r="K240" s="10"/>
       <c r="L240" s="10"/>
     </row>
-    <row r="241" spans="2:12" s="7" customFormat="1">
+    <row r="241" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B241" s="10"/>
       <c r="C241" s="10"/>
       <c r="D241" s="10"/>
@@ -3796,7 +3841,7 @@
       <c r="K241" s="10"/>
       <c r="L241" s="10"/>
     </row>
-    <row r="242" spans="2:12" s="7" customFormat="1">
+    <row r="242" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B242" s="10"/>
       <c r="C242" s="10"/>
       <c r="D242" s="10"/>
@@ -3809,7 +3854,7 @@
       <c r="K242" s="10"/>
       <c r="L242" s="10"/>
     </row>
-    <row r="243" spans="2:12" s="7" customFormat="1">
+    <row r="243" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B243" s="10"/>
       <c r="C243" s="10"/>
       <c r="D243" s="10"/>
@@ -3822,7 +3867,7 @@
       <c r="K243" s="10"/>
       <c r="L243" s="10"/>
     </row>
-    <row r="244" spans="2:12" s="7" customFormat="1">
+    <row r="244" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B244" s="10"/>
       <c r="C244" s="10"/>
       <c r="D244" s="10"/>
@@ -3835,7 +3880,7 @@
       <c r="K244" s="10"/>
       <c r="L244" s="10"/>
     </row>
-    <row r="245" spans="2:12" s="7" customFormat="1">
+    <row r="245" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B245" s="10"/>
       <c r="C245" s="10"/>
       <c r="D245" s="10"/>
@@ -3848,7 +3893,7 @@
       <c r="K245" s="10"/>
       <c r="L245" s="10"/>
     </row>
-    <row r="246" spans="2:12" s="7" customFormat="1">
+    <row r="246" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B246" s="10"/>
       <c r="C246" s="10"/>
       <c r="D246" s="10"/>
@@ -3861,7 +3906,7 @@
       <c r="K246" s="10"/>
       <c r="L246" s="10"/>
     </row>
-    <row r="247" spans="2:12" s="7" customFormat="1">
+    <row r="247" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B247" s="10"/>
       <c r="C247" s="10"/>
       <c r="D247" s="10"/>
@@ -3874,7 +3919,7 @@
       <c r="K247" s="10"/>
       <c r="L247" s="10"/>
     </row>
-    <row r="248" spans="2:12" s="7" customFormat="1">
+    <row r="248" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B248" s="10"/>
       <c r="C248" s="10"/>
       <c r="D248" s="10"/>
@@ -3887,7 +3932,7 @@
       <c r="K248" s="10"/>
       <c r="L248" s="10"/>
     </row>
-    <row r="249" spans="2:12" s="7" customFormat="1">
+    <row r="249" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B249" s="10"/>
       <c r="C249" s="10"/>
       <c r="D249" s="10"/>
@@ -3900,7 +3945,7 @@
       <c r="K249" s="10"/>
       <c r="L249" s="10"/>
     </row>
-    <row r="250" spans="2:12" s="7" customFormat="1">
+    <row r="250" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B250" s="10"/>
       <c r="C250" s="10"/>
       <c r="D250" s="10"/>
@@ -3913,7 +3958,7 @@
       <c r="K250" s="10"/>
       <c r="L250" s="10"/>
     </row>
-    <row r="251" spans="2:12" s="7" customFormat="1">
+    <row r="251" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B251" s="10"/>
       <c r="C251" s="10"/>
       <c r="D251" s="10"/>
@@ -3926,7 +3971,7 @@
       <c r="K251" s="10"/>
       <c r="L251" s="10"/>
     </row>
-    <row r="252" spans="2:12" s="7" customFormat="1">
+    <row r="252" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B252" s="10"/>
       <c r="C252" s="10"/>
       <c r="D252" s="10"/>
@@ -3939,7 +3984,7 @@
       <c r="K252" s="10"/>
       <c r="L252" s="10"/>
     </row>
-    <row r="253" spans="2:12" s="7" customFormat="1">
+    <row r="253" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B253" s="10"/>
       <c r="C253" s="10"/>
       <c r="D253" s="10"/>
@@ -3952,7 +3997,7 @@
       <c r="K253" s="10"/>
       <c r="L253" s="10"/>
     </row>
-    <row r="254" spans="2:12" s="7" customFormat="1">
+    <row r="254" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B254" s="10"/>
       <c r="C254" s="10"/>
       <c r="D254" s="10"/>
@@ -3965,7 +4010,7 @@
       <c r="K254" s="10"/>
       <c r="L254" s="10"/>
     </row>
-    <row r="255" spans="2:12" s="7" customFormat="1">
+    <row r="255" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B255" s="10"/>
       <c r="C255" s="10"/>
       <c r="D255" s="10"/>
@@ -3978,7 +4023,7 @@
       <c r="K255" s="10"/>
       <c r="L255" s="10"/>
     </row>
-    <row r="256" spans="2:12" s="7" customFormat="1">
+    <row r="256" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B256" s="10"/>
       <c r="C256" s="10"/>
       <c r="D256" s="10"/>
@@ -3991,7 +4036,7 @@
       <c r="K256" s="10"/>
       <c r="L256" s="10"/>
     </row>
-    <row r="257" spans="2:12" s="7" customFormat="1">
+    <row r="257" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B257" s="10"/>
       <c r="C257" s="10"/>
       <c r="D257" s="10"/>
@@ -4004,7 +4049,7 @@
       <c r="K257" s="10"/>
       <c r="L257" s="10"/>
     </row>
-    <row r="258" spans="2:12" s="7" customFormat="1">
+    <row r="258" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B258" s="10"/>
       <c r="C258" s="10"/>
       <c r="D258" s="10"/>
@@ -4017,7 +4062,7 @@
       <c r="K258" s="10"/>
       <c r="L258" s="10"/>
     </row>
-    <row r="259" spans="2:12" s="7" customFormat="1">
+    <row r="259" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B259" s="10"/>
       <c r="C259" s="10"/>
       <c r="D259" s="10"/>
@@ -4030,7 +4075,7 @@
       <c r="K259" s="10"/>
       <c r="L259" s="10"/>
     </row>
-    <row r="260" spans="2:12" s="7" customFormat="1">
+    <row r="260" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B260" s="10"/>
       <c r="C260" s="10"/>
       <c r="D260" s="10"/>
@@ -4043,7 +4088,7 @@
       <c r="K260" s="10"/>
       <c r="L260" s="10"/>
     </row>
-    <row r="261" spans="2:12" s="7" customFormat="1">
+    <row r="261" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B261" s="10"/>
       <c r="C261" s="10"/>
       <c r="D261" s="10"/>
@@ -4056,7 +4101,7 @@
       <c r="K261" s="10"/>
       <c r="L261" s="10"/>
     </row>
-    <row r="262" spans="2:12" s="7" customFormat="1">
+    <row r="262" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B262" s="10"/>
       <c r="C262" s="10"/>
       <c r="D262" s="10"/>
@@ -4069,7 +4114,7 @@
       <c r="K262" s="10"/>
       <c r="L262" s="10"/>
     </row>
-    <row r="263" spans="2:12" s="7" customFormat="1">
+    <row r="263" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B263" s="10"/>
       <c r="C263" s="10"/>
       <c r="D263" s="10"/>
@@ -4082,7 +4127,7 @@
       <c r="K263" s="10"/>
       <c r="L263" s="10"/>
     </row>
-    <row r="264" spans="2:12" s="7" customFormat="1">
+    <row r="264" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B264" s="10"/>
       <c r="C264" s="10"/>
       <c r="D264" s="10"/>
@@ -4095,7 +4140,7 @@
       <c r="K264" s="10"/>
       <c r="L264" s="10"/>
     </row>
-    <row r="265" spans="2:12" s="7" customFormat="1">
+    <row r="265" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B265" s="10"/>
       <c r="C265" s="10"/>
       <c r="D265" s="10"/>
@@ -4108,7 +4153,7 @@
       <c r="K265" s="10"/>
       <c r="L265" s="10"/>
     </row>
-    <row r="266" spans="2:12" s="7" customFormat="1">
+    <row r="266" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B266" s="10"/>
       <c r="C266" s="10"/>
       <c r="D266" s="10"/>
@@ -4121,7 +4166,7 @@
       <c r="K266" s="10"/>
       <c r="L266" s="10"/>
     </row>
-    <row r="267" spans="2:12" s="7" customFormat="1">
+    <row r="267" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B267" s="10"/>
       <c r="C267" s="10"/>
       <c r="D267" s="10"/>
@@ -4134,7 +4179,7 @@
       <c r="K267" s="10"/>
       <c r="L267" s="10"/>
     </row>
-    <row r="268" spans="2:12" s="7" customFormat="1">
+    <row r="268" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B268" s="10"/>
       <c r="C268" s="10"/>
       <c r="D268" s="10"/>
@@ -4147,7 +4192,7 @@
       <c r="K268" s="10"/>
       <c r="L268" s="10"/>
     </row>
-    <row r="269" spans="2:12" s="7" customFormat="1">
+    <row r="269" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B269" s="10"/>
       <c r="C269" s="10"/>
       <c r="D269" s="10"/>
@@ -4160,7 +4205,7 @@
       <c r="K269" s="10"/>
       <c r="L269" s="10"/>
     </row>
-    <row r="270" spans="2:12" s="7" customFormat="1">
+    <row r="270" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B270" s="10"/>
       <c r="C270" s="10"/>
       <c r="D270" s="10"/>
@@ -4173,7 +4218,7 @@
       <c r="K270" s="10"/>
       <c r="L270" s="10"/>
     </row>
-    <row r="271" spans="2:12" s="7" customFormat="1">
+    <row r="271" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B271" s="10"/>
       <c r="C271" s="10"/>
       <c r="D271" s="10"/>
@@ -4186,7 +4231,7 @@
       <c r="K271" s="10"/>
       <c r="L271" s="10"/>
     </row>
-    <row r="272" spans="2:12" s="7" customFormat="1">
+    <row r="272" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B272" s="10"/>
       <c r="C272" s="10"/>
       <c r="D272" s="10"/>
@@ -4199,7 +4244,7 @@
       <c r="K272" s="10"/>
       <c r="L272" s="10"/>
     </row>
-    <row r="273" spans="2:12" s="7" customFormat="1">
+    <row r="273" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B273" s="10"/>
       <c r="C273" s="10"/>
       <c r="D273" s="10"/>
@@ -4212,7 +4257,7 @@
       <c r="K273" s="10"/>
       <c r="L273" s="10"/>
     </row>
-    <row r="274" spans="2:12" s="7" customFormat="1">
+    <row r="274" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B274" s="10"/>
       <c r="C274" s="10"/>
       <c r="D274" s="10"/>
@@ -4225,7 +4270,7 @@
       <c r="K274" s="10"/>
       <c r="L274" s="10"/>
     </row>
-    <row r="275" spans="2:12" s="7" customFormat="1">
+    <row r="275" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B275" s="10"/>
       <c r="C275" s="10"/>
       <c r="D275" s="10"/>
@@ -4238,7 +4283,7 @@
       <c r="K275" s="10"/>
       <c r="L275" s="10"/>
     </row>
-    <row r="276" spans="2:12" s="7" customFormat="1">
+    <row r="276" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B276" s="10"/>
       <c r="C276" s="10"/>
       <c r="D276" s="10"/>
@@ -4251,7 +4296,7 @@
       <c r="K276" s="10"/>
       <c r="L276" s="10"/>
     </row>
-    <row r="277" spans="2:12" s="7" customFormat="1">
+    <row r="277" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B277" s="10"/>
       <c r="C277" s="10"/>
       <c r="D277" s="10"/>
@@ -4264,7 +4309,7 @@
       <c r="K277" s="10"/>
       <c r="L277" s="10"/>
     </row>
-    <row r="278" spans="2:12" s="7" customFormat="1">
+    <row r="278" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B278" s="10"/>
       <c r="C278" s="10"/>
       <c r="D278" s="10"/>
@@ -4277,7 +4322,7 @@
       <c r="K278" s="10"/>
       <c r="L278" s="10"/>
     </row>
-    <row r="279" spans="2:12" s="7" customFormat="1">
+    <row r="279" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B279" s="10"/>
       <c r="C279" s="10"/>
       <c r="D279" s="10"/>
@@ -4290,7 +4335,7 @@
       <c r="K279" s="10"/>
       <c r="L279" s="10"/>
     </row>
-    <row r="280" spans="2:12" s="7" customFormat="1">
+    <row r="280" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B280" s="10"/>
       <c r="C280" s="10"/>
       <c r="D280" s="10"/>
@@ -4303,7 +4348,7 @@
       <c r="K280" s="10"/>
       <c r="L280" s="10"/>
     </row>
-    <row r="281" spans="2:12" s="7" customFormat="1">
+    <row r="281" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B281" s="10"/>
       <c r="C281" s="10"/>
       <c r="D281" s="10"/>
@@ -4316,7 +4361,7 @@
       <c r="K281" s="10"/>
       <c r="L281" s="10"/>
     </row>
-    <row r="282" spans="2:12" s="7" customFormat="1">
+    <row r="282" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B282" s="10"/>
       <c r="C282" s="10"/>
       <c r="D282" s="10"/>
@@ -4329,7 +4374,7 @@
       <c r="K282" s="10"/>
       <c r="L282" s="10"/>
     </row>
-    <row r="283" spans="2:12" s="7" customFormat="1">
+    <row r="283" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B283" s="10"/>
       <c r="C283" s="10"/>
       <c r="D283" s="10"/>
@@ -4342,7 +4387,7 @@
       <c r="K283" s="10"/>
       <c r="L283" s="10"/>
     </row>
-    <row r="284" spans="2:12" s="7" customFormat="1">
+    <row r="284" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B284" s="10"/>
       <c r="C284" s="10"/>
       <c r="D284" s="10"/>
@@ -4355,7 +4400,7 @@
       <c r="K284" s="10"/>
       <c r="L284" s="10"/>
     </row>
-    <row r="285" spans="2:12" s="7" customFormat="1">
+    <row r="285" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B285" s="10"/>
       <c r="C285" s="10"/>
       <c r="D285" s="10"/>
@@ -4368,7 +4413,7 @@
       <c r="K285" s="10"/>
       <c r="L285" s="10"/>
     </row>
-    <row r="286" spans="2:12" s="7" customFormat="1">
+    <row r="286" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B286" s="10"/>
       <c r="C286" s="10"/>
       <c r="D286" s="10"/>
@@ -4381,7 +4426,7 @@
       <c r="K286" s="10"/>
       <c r="L286" s="10"/>
     </row>
-    <row r="287" spans="2:12" s="7" customFormat="1">
+    <row r="287" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B287" s="10"/>
       <c r="C287" s="10"/>
       <c r="D287" s="10"/>
@@ -4394,7 +4439,7 @@
       <c r="K287" s="10"/>
       <c r="L287" s="10"/>
     </row>
-    <row r="288" spans="2:12" s="7" customFormat="1">
+    <row r="288" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B288" s="10"/>
       <c r="C288" s="10"/>
       <c r="D288" s="10"/>
@@ -4407,7 +4452,7 @@
       <c r="K288" s="10"/>
       <c r="L288" s="10"/>
     </row>
-    <row r="289" spans="2:12" s="7" customFormat="1">
+    <row r="289" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B289" s="10"/>
       <c r="C289" s="10"/>
       <c r="D289" s="10"/>
@@ -4420,7 +4465,7 @@
       <c r="K289" s="10"/>
       <c r="L289" s="10"/>
     </row>
-    <row r="290" spans="2:12" s="7" customFormat="1">
+    <row r="290" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B290" s="10"/>
       <c r="C290" s="10"/>
       <c r="D290" s="10"/>
@@ -4433,7 +4478,7 @@
       <c r="K290" s="10"/>
       <c r="L290" s="10"/>
     </row>
-    <row r="291" spans="2:12" s="7" customFormat="1">
+    <row r="291" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B291" s="10"/>
       <c r="C291" s="10"/>
       <c r="D291" s="10"/>
@@ -4446,7 +4491,7 @@
       <c r="K291" s="10"/>
       <c r="L291" s="10"/>
     </row>
-    <row r="292" spans="2:12" s="7" customFormat="1">
+    <row r="292" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B292" s="10"/>
       <c r="C292" s="10"/>
       <c r="D292" s="10"/>
@@ -4459,7 +4504,7 @@
       <c r="K292" s="10"/>
       <c r="L292" s="10"/>
     </row>
-    <row r="293" spans="2:12" s="7" customFormat="1">
+    <row r="293" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B293" s="10"/>
       <c r="C293" s="10"/>
       <c r="D293" s="10"/>
@@ -4472,7 +4517,7 @@
       <c r="K293" s="10"/>
       <c r="L293" s="10"/>
     </row>
-    <row r="294" spans="2:12" s="7" customFormat="1">
+    <row r="294" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B294" s="10"/>
       <c r="C294" s="10"/>
       <c r="D294" s="10"/>
@@ -4485,7 +4530,7 @@
       <c r="K294" s="10"/>
       <c r="L294" s="10"/>
     </row>
-    <row r="295" spans="2:12" s="7" customFormat="1">
+    <row r="295" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B295" s="10"/>
       <c r="C295" s="10"/>
       <c r="D295" s="10"/>
@@ -4498,7 +4543,7 @@
       <c r="K295" s="10"/>
       <c r="L295" s="10"/>
     </row>
-    <row r="296" spans="2:12" s="7" customFormat="1">
+    <row r="296" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B296" s="10"/>
       <c r="C296" s="10"/>
       <c r="D296" s="10"/>
@@ -4511,7 +4556,7 @@
       <c r="K296" s="10"/>
       <c r="L296" s="10"/>
     </row>
-    <row r="297" spans="2:12" s="7" customFormat="1">
+    <row r="297" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B297" s="10"/>
       <c r="C297" s="10"/>
       <c r="D297" s="10"/>
@@ -4524,7 +4569,7 @@
       <c r="K297" s="10"/>
       <c r="L297" s="10"/>
     </row>
-    <row r="298" spans="2:12" s="7" customFormat="1">
+    <row r="298" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B298" s="10"/>
       <c r="C298" s="10"/>
       <c r="D298" s="10"/>
@@ -4537,7 +4582,7 @@
       <c r="K298" s="10"/>
       <c r="L298" s="10"/>
     </row>
-    <row r="299" spans="2:12" s="7" customFormat="1">
+    <row r="299" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B299" s="10"/>
       <c r="C299" s="10"/>
       <c r="D299" s="10"/>
@@ -4550,7 +4595,7 @@
       <c r="K299" s="10"/>
       <c r="L299" s="10"/>
     </row>
-    <row r="300" spans="2:12" s="7" customFormat="1">
+    <row r="300" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B300" s="10"/>
       <c r="C300" s="10"/>
       <c r="D300" s="10"/>
@@ -4563,7 +4608,7 @@
       <c r="K300" s="10"/>
       <c r="L300" s="10"/>
     </row>
-    <row r="301" spans="2:12" s="7" customFormat="1">
+    <row r="301" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B301" s="10"/>
       <c r="C301" s="10"/>
       <c r="D301" s="10"/>
@@ -4576,7 +4621,7 @@
       <c r="K301" s="10"/>
       <c r="L301" s="10"/>
     </row>
-    <row r="302" spans="2:12" s="7" customFormat="1">
+    <row r="302" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B302" s="10"/>
       <c r="C302" s="10"/>
       <c r="D302" s="10"/>
@@ -4589,7 +4634,7 @@
       <c r="K302" s="10"/>
       <c r="L302" s="10"/>
     </row>
-    <row r="303" spans="2:12" s="7" customFormat="1">
+    <row r="303" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B303" s="10"/>
       <c r="C303" s="10"/>
       <c r="D303" s="10"/>
@@ -4602,7 +4647,7 @@
       <c r="K303" s="10"/>
       <c r="L303" s="10"/>
     </row>
-    <row r="304" spans="2:12" s="7" customFormat="1">
+    <row r="304" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B304" s="10"/>
       <c r="C304" s="10"/>
       <c r="D304" s="10"/>
@@ -4615,7 +4660,7 @@
       <c r="K304" s="10"/>
       <c r="L304" s="10"/>
     </row>
-    <row r="305" spans="2:12" s="7" customFormat="1">
+    <row r="305" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B305" s="10"/>
       <c r="C305" s="10"/>
       <c r="D305" s="10"/>
@@ -4628,7 +4673,7 @@
       <c r="K305" s="10"/>
       <c r="L305" s="10"/>
     </row>
-    <row r="306" spans="2:12" s="7" customFormat="1">
+    <row r="306" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B306" s="10"/>
       <c r="C306" s="10"/>
       <c r="D306" s="10"/>
@@ -4641,7 +4686,7 @@
       <c r="K306" s="10"/>
       <c r="L306" s="10"/>
     </row>
-    <row r="307" spans="2:12" s="7" customFormat="1">
+    <row r="307" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B307" s="10"/>
       <c r="C307" s="10"/>
       <c r="D307" s="10"/>
@@ -4654,7 +4699,7 @@
       <c r="K307" s="10"/>
       <c r="L307" s="10"/>
     </row>
-    <row r="308" spans="2:12" s="7" customFormat="1">
+    <row r="308" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B308" s="10"/>
       <c r="C308" s="10"/>
       <c r="D308" s="10"/>
@@ -4667,7 +4712,7 @@
       <c r="K308" s="10"/>
       <c r="L308" s="10"/>
     </row>
-    <row r="309" spans="2:12" s="7" customFormat="1">
+    <row r="309" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B309" s="10"/>
       <c r="C309" s="10"/>
       <c r="D309" s="10"/>
@@ -4680,7 +4725,7 @@
       <c r="K309" s="10"/>
       <c r="L309" s="10"/>
     </row>
-    <row r="310" spans="2:12" s="7" customFormat="1">
+    <row r="310" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B310" s="10"/>
       <c r="C310" s="10"/>
       <c r="D310" s="10"/>
@@ -4693,7 +4738,7 @@
       <c r="K310" s="10"/>
       <c r="L310" s="10"/>
     </row>
-    <row r="311" spans="2:12" s="7" customFormat="1">
+    <row r="311" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B311" s="10"/>
       <c r="C311" s="10"/>
       <c r="D311" s="10"/>
@@ -4706,7 +4751,7 @@
       <c r="K311" s="10"/>
       <c r="L311" s="10"/>
     </row>
-    <row r="312" spans="2:12" s="7" customFormat="1">
+    <row r="312" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B312" s="10"/>
       <c r="C312" s="10"/>
       <c r="D312" s="10"/>
@@ -4719,7 +4764,7 @@
       <c r="K312" s="10"/>
       <c r="L312" s="10"/>
     </row>
-    <row r="313" spans="2:12" s="7" customFormat="1">
+    <row r="313" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B313" s="10"/>
       <c r="C313" s="10"/>
       <c r="D313" s="10"/>
@@ -4732,7 +4777,7 @@
       <c r="K313" s="10"/>
       <c r="L313" s="10"/>
     </row>
-    <row r="314" spans="2:12" s="7" customFormat="1">
+    <row r="314" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B314" s="10"/>
       <c r="C314" s="10"/>
       <c r="D314" s="10"/>
@@ -4745,7 +4790,7 @@
       <c r="K314" s="10"/>
       <c r="L314" s="10"/>
     </row>
-    <row r="315" spans="2:12" s="7" customFormat="1">
+    <row r="315" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B315" s="10"/>
       <c r="C315" s="10"/>
       <c r="D315" s="10"/>
@@ -4758,7 +4803,7 @@
       <c r="K315" s="10"/>
       <c r="L315" s="10"/>
     </row>
-    <row r="316" spans="2:12" s="7" customFormat="1">
+    <row r="316" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B316" s="10"/>
       <c r="C316" s="10"/>
       <c r="D316" s="10"/>
@@ -4771,7 +4816,7 @@
       <c r="K316" s="10"/>
       <c r="L316" s="10"/>
     </row>
-    <row r="317" spans="2:12" s="7" customFormat="1">
+    <row r="317" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B317" s="10"/>
       <c r="C317" s="10"/>
       <c r="D317" s="10"/>
@@ -4784,7 +4829,7 @@
       <c r="K317" s="10"/>
       <c r="L317" s="10"/>
     </row>
-    <row r="318" spans="2:12" s="7" customFormat="1">
+    <row r="318" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B318" s="10"/>
       <c r="C318" s="10"/>
       <c r="D318" s="10"/>
@@ -4797,7 +4842,7 @@
       <c r="K318" s="10"/>
       <c r="L318" s="10"/>
     </row>
-    <row r="319" spans="2:12" s="7" customFormat="1">
+    <row r="319" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B319" s="10"/>
       <c r="C319" s="10"/>
       <c r="D319" s="10"/>
@@ -4810,7 +4855,7 @@
       <c r="K319" s="10"/>
       <c r="L319" s="10"/>
     </row>
-    <row r="320" spans="2:12" s="7" customFormat="1">
+    <row r="320" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B320" s="10"/>
       <c r="C320" s="10"/>
       <c r="D320" s="10"/>
@@ -4823,7 +4868,7 @@
       <c r="K320" s="10"/>
       <c r="L320" s="10"/>
     </row>
-    <row r="321" spans="2:12" s="7" customFormat="1">
+    <row r="321" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B321" s="10"/>
       <c r="C321" s="10"/>
       <c r="D321" s="10"/>
@@ -4836,7 +4881,7 @@
       <c r="K321" s="10"/>
       <c r="L321" s="10"/>
     </row>
-    <row r="322" spans="2:12" s="7" customFormat="1">
+    <row r="322" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B322" s="10"/>
       <c r="C322" s="10"/>
       <c r="D322" s="10"/>
@@ -4849,7 +4894,7 @@
       <c r="K322" s="10"/>
       <c r="L322" s="10"/>
     </row>
-    <row r="323" spans="2:12" s="7" customFormat="1">
+    <row r="323" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B323" s="10"/>
       <c r="C323" s="10"/>
       <c r="D323" s="10"/>
@@ -4862,7 +4907,7 @@
       <c r="K323" s="10"/>
       <c r="L323" s="10"/>
     </row>
-    <row r="324" spans="2:12" s="7" customFormat="1">
+    <row r="324" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B324" s="10"/>
       <c r="C324" s="10"/>
       <c r="D324" s="10"/>
@@ -4875,7 +4920,7 @@
       <c r="K324" s="10"/>
       <c r="L324" s="10"/>
     </row>
-    <row r="325" spans="2:12" s="7" customFormat="1">
+    <row r="325" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B325" s="10"/>
       <c r="C325" s="10"/>
       <c r="D325" s="10"/>
@@ -4888,7 +4933,7 @@
       <c r="K325" s="10"/>
       <c r="L325" s="10"/>
     </row>
-    <row r="326" spans="2:12" s="7" customFormat="1">
+    <row r="326" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B326" s="10"/>
       <c r="C326" s="10"/>
       <c r="D326" s="10"/>
@@ -4901,7 +4946,7 @@
       <c r="K326" s="10"/>
       <c r="L326" s="10"/>
     </row>
-    <row r="327" spans="2:12" s="7" customFormat="1">
+    <row r="327" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B327" s="10"/>
       <c r="C327" s="10"/>
       <c r="D327" s="10"/>
@@ -4914,7 +4959,7 @@
       <c r="K327" s="10"/>
       <c r="L327" s="10"/>
     </row>
-    <row r="328" spans="2:12" s="7" customFormat="1">
+    <row r="328" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B328" s="10"/>
       <c r="C328" s="10"/>
       <c r="D328" s="10"/>
@@ -4927,7 +4972,7 @@
       <c r="K328" s="10"/>
       <c r="L328" s="10"/>
     </row>
-    <row r="329" spans="2:12" s="7" customFormat="1">
+    <row r="329" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B329" s="10"/>
       <c r="C329" s="10"/>
       <c r="D329" s="10"/>
@@ -4940,7 +4985,7 @@
       <c r="K329" s="10"/>
       <c r="L329" s="10"/>
     </row>
-    <row r="330" spans="2:12" s="7" customFormat="1">
+    <row r="330" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B330" s="10"/>
       <c r="C330" s="10"/>
       <c r="D330" s="10"/>
@@ -4953,7 +4998,7 @@
       <c r="K330" s="10"/>
       <c r="L330" s="10"/>
     </row>
-    <row r="331" spans="2:12" s="7" customFormat="1">
+    <row r="331" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B331" s="10"/>
       <c r="C331" s="10"/>
       <c r="D331" s="10"/>
@@ -4966,7 +5011,7 @@
       <c r="K331" s="10"/>
       <c r="L331" s="10"/>
     </row>
-    <row r="332" spans="2:12" s="7" customFormat="1">
+    <row r="332" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B332" s="10"/>
       <c r="C332" s="10"/>
       <c r="D332" s="10"/>
@@ -4979,7 +5024,7 @@
       <c r="K332" s="10"/>
       <c r="L332" s="10"/>
     </row>
-    <row r="333" spans="2:12" s="7" customFormat="1">
+    <row r="333" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B333" s="10"/>
       <c r="C333" s="10"/>
       <c r="D333" s="10"/>
@@ -4992,7 +5037,7 @@
       <c r="K333" s="10"/>
       <c r="L333" s="10"/>
     </row>
-    <row r="334" spans="2:12" s="7" customFormat="1">
+    <row r="334" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B334" s="10"/>
       <c r="C334" s="10"/>
       <c r="D334" s="10"/>
@@ -5005,7 +5050,7 @@
       <c r="K334" s="10"/>
       <c r="L334" s="10"/>
     </row>
-    <row r="335" spans="2:12" s="7" customFormat="1">
+    <row r="335" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B335" s="10"/>
       <c r="C335" s="10"/>
       <c r="D335" s="10"/>
@@ -5018,7 +5063,7 @@
       <c r="K335" s="10"/>
       <c r="L335" s="10"/>
     </row>
-    <row r="336" spans="2:12" s="7" customFormat="1">
+    <row r="336" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B336" s="10"/>
       <c r="C336" s="10"/>
       <c r="D336" s="10"/>
@@ -5031,7 +5076,7 @@
       <c r="K336" s="10"/>
       <c r="L336" s="10"/>
     </row>
-    <row r="337" spans="2:12" s="7" customFormat="1">
+    <row r="337" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B337" s="10"/>
       <c r="C337" s="10"/>
       <c r="D337" s="10"/>
@@ -5044,7 +5089,7 @@
       <c r="K337" s="10"/>
       <c r="L337" s="10"/>
     </row>
-    <row r="338" spans="2:12" s="7" customFormat="1">
+    <row r="338" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B338" s="10"/>
       <c r="C338" s="10"/>
       <c r="D338" s="10"/>
@@ -5057,7 +5102,7 @@
       <c r="K338" s="10"/>
       <c r="L338" s="10"/>
     </row>
-    <row r="339" spans="2:12" s="7" customFormat="1">
+    <row r="339" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B339" s="10"/>
       <c r="C339" s="10"/>
       <c r="D339" s="10"/>
@@ -5070,7 +5115,7 @@
       <c r="K339" s="10"/>
       <c r="L339" s="10"/>
     </row>
-    <row r="340" spans="2:12" s="7" customFormat="1">
+    <row r="340" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B340" s="10"/>
       <c r="C340" s="10"/>
       <c r="D340" s="10"/>
@@ -5083,7 +5128,7 @@
       <c r="K340" s="10"/>
       <c r="L340" s="10"/>
     </row>
-    <row r="341" spans="2:12" s="7" customFormat="1">
+    <row r="341" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B341" s="10"/>
       <c r="C341" s="10"/>
       <c r="D341" s="10"/>
@@ -5096,7 +5141,7 @@
       <c r="K341" s="10"/>
       <c r="L341" s="10"/>
     </row>
-    <row r="342" spans="2:12" s="7" customFormat="1">
+    <row r="342" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B342" s="10"/>
       <c r="C342" s="10"/>
       <c r="D342" s="10"/>
@@ -5109,7 +5154,7 @@
       <c r="K342" s="10"/>
       <c r="L342" s="10"/>
     </row>
-    <row r="343" spans="2:12" s="7" customFormat="1">
+    <row r="343" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B343" s="10"/>
       <c r="C343" s="10"/>
       <c r="D343" s="10"/>
@@ -5122,7 +5167,7 @@
       <c r="K343" s="10"/>
       <c r="L343" s="10"/>
     </row>
-    <row r="344" spans="2:12" s="7" customFormat="1">
+    <row r="344" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B344" s="10"/>
       <c r="C344" s="10"/>
       <c r="D344" s="10"/>
@@ -5135,7 +5180,7 @@
       <c r="K344" s="10"/>
       <c r="L344" s="10"/>
     </row>
-    <row r="345" spans="2:12" s="7" customFormat="1">
+    <row r="345" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B345" s="10"/>
       <c r="C345" s="10"/>
       <c r="D345" s="10"/>
@@ -5148,7 +5193,7 @@
       <c r="K345" s="10"/>
       <c r="L345" s="10"/>
     </row>
-    <row r="346" spans="2:12" s="7" customFormat="1">
+    <row r="346" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B346" s="10"/>
       <c r="C346" s="10"/>
       <c r="D346" s="10"/>
@@ -5161,7 +5206,7 @@
       <c r="K346" s="10"/>
       <c r="L346" s="10"/>
     </row>
-    <row r="347" spans="2:12" s="7" customFormat="1">
+    <row r="347" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B347" s="10"/>
       <c r="C347" s="10"/>
       <c r="D347" s="10"/>
@@ -5174,7 +5219,7 @@
       <c r="K347" s="10"/>
       <c r="L347" s="10"/>
     </row>
-    <row r="348" spans="2:12" s="7" customFormat="1">
+    <row r="348" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B348" s="10"/>
       <c r="C348" s="10"/>
       <c r="D348" s="10"/>
@@ -5187,7 +5232,7 @@
       <c r="K348" s="10"/>
       <c r="L348" s="10"/>
     </row>
-    <row r="349" spans="2:12" s="7" customFormat="1">
+    <row r="349" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B349" s="10"/>
       <c r="C349" s="10"/>
       <c r="D349" s="10"/>
@@ -5200,7 +5245,7 @@
       <c r="K349" s="10"/>
       <c r="L349" s="10"/>
     </row>
-    <row r="350" spans="2:12" s="7" customFormat="1">
+    <row r="350" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B350" s="10"/>
       <c r="C350" s="10"/>
       <c r="D350" s="10"/>
@@ -5213,7 +5258,7 @@
       <c r="K350" s="10"/>
       <c r="L350" s="10"/>
     </row>
-    <row r="351" spans="2:12" s="7" customFormat="1">
+    <row r="351" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B351" s="10"/>
       <c r="C351" s="10"/>
       <c r="D351" s="10"/>
@@ -5226,7 +5271,7 @@
       <c r="K351" s="10"/>
       <c r="L351" s="10"/>
     </row>
-    <row r="352" spans="2:12" s="7" customFormat="1">
+    <row r="352" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B352" s="10"/>
       <c r="C352" s="10"/>
       <c r="D352" s="10"/>
@@ -5239,7 +5284,7 @@
       <c r="K352" s="10"/>
       <c r="L352" s="10"/>
     </row>
-    <row r="353" spans="2:12" s="7" customFormat="1">
+    <row r="353" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B353" s="10"/>
       <c r="C353" s="10"/>
       <c r="D353" s="10"/>
@@ -5252,7 +5297,7 @@
       <c r="K353" s="10"/>
       <c r="L353" s="10"/>
     </row>
-    <row r="354" spans="2:12" s="7" customFormat="1">
+    <row r="354" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B354" s="10"/>
       <c r="C354" s="10"/>
       <c r="D354" s="10"/>
@@ -5265,7 +5310,7 @@
       <c r="K354" s="10"/>
       <c r="L354" s="10"/>
     </row>
-    <row r="355" spans="2:12" s="7" customFormat="1">
+    <row r="355" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B355" s="10"/>
       <c r="C355" s="10"/>
       <c r="D355" s="10"/>
@@ -5278,7 +5323,7 @@
       <c r="K355" s="10"/>
       <c r="L355" s="10"/>
     </row>
-    <row r="356" spans="2:12" s="7" customFormat="1">
+    <row r="356" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B356" s="10"/>
       <c r="C356" s="10"/>
       <c r="D356" s="10"/>
@@ -5291,7 +5336,7 @@
       <c r="K356" s="10"/>
       <c r="L356" s="10"/>
     </row>
-    <row r="357" spans="2:12" s="7" customFormat="1">
+    <row r="357" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B357" s="10"/>
       <c r="C357" s="10"/>
       <c r="D357" s="10"/>
@@ -5304,7 +5349,7 @@
       <c r="K357" s="10"/>
       <c r="L357" s="10"/>
     </row>
-    <row r="358" spans="2:12" s="7" customFormat="1">
+    <row r="358" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B358" s="10"/>
       <c r="C358" s="10"/>
       <c r="D358" s="10"/>
@@ -5317,7 +5362,7 @@
       <c r="K358" s="10"/>
       <c r="L358" s="10"/>
     </row>
-    <row r="359" spans="2:12" s="7" customFormat="1">
+    <row r="359" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B359" s="10"/>
       <c r="C359" s="10"/>
       <c r="D359" s="10"/>
@@ -5330,7 +5375,7 @@
       <c r="K359" s="10"/>
       <c r="L359" s="10"/>
     </row>
-    <row r="360" spans="2:12" s="7" customFormat="1">
+    <row r="360" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B360" s="10"/>
       <c r="C360" s="10"/>
       <c r="D360" s="10"/>
@@ -5343,7 +5388,7 @@
       <c r="K360" s="10"/>
       <c r="L360" s="10"/>
     </row>
-    <row r="361" spans="2:12" s="7" customFormat="1">
+    <row r="361" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B361" s="10"/>
       <c r="C361" s="10"/>
       <c r="D361" s="10"/>
@@ -5356,7 +5401,7 @@
       <c r="K361" s="10"/>
       <c r="L361" s="10"/>
     </row>
-    <row r="362" spans="2:12" s="7" customFormat="1">
+    <row r="362" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B362" s="10"/>
       <c r="C362" s="10"/>
       <c r="D362" s="10"/>
@@ -5369,7 +5414,7 @@
       <c r="K362" s="10"/>
       <c r="L362" s="10"/>
     </row>
-    <row r="363" spans="2:12" s="7" customFormat="1">
+    <row r="363" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B363" s="10"/>
       <c r="C363" s="10"/>
       <c r="D363" s="10"/>
@@ -5382,7 +5427,7 @@
       <c r="K363" s="10"/>
       <c r="L363" s="10"/>
     </row>
-    <row r="364" spans="2:12" s="7" customFormat="1">
+    <row r="364" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B364" s="10"/>
       <c r="C364" s="10"/>
       <c r="D364" s="10"/>
@@ -5395,7 +5440,7 @@
       <c r="K364" s="10"/>
       <c r="L364" s="10"/>
     </row>
-    <row r="365" spans="2:12" s="7" customFormat="1">
+    <row r="365" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B365" s="10"/>
       <c r="C365" s="10"/>
       <c r="D365" s="10"/>
@@ -5408,7 +5453,7 @@
       <c r="K365" s="10"/>
       <c r="L365" s="10"/>
     </row>
-    <row r="366" spans="2:12" s="7" customFormat="1">
+    <row r="366" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B366" s="10"/>
       <c r="C366" s="10"/>
       <c r="D366" s="10"/>
@@ -5421,7 +5466,7 @@
       <c r="K366" s="10"/>
       <c r="L366" s="10"/>
     </row>
-    <row r="367" spans="2:12" s="7" customFormat="1">
+    <row r="367" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B367" s="10"/>
       <c r="C367" s="10"/>
       <c r="D367" s="10"/>
@@ -5434,7 +5479,7 @@
       <c r="K367" s="10"/>
       <c r="L367" s="10"/>
     </row>
-    <row r="368" spans="2:12" s="7" customFormat="1">
+    <row r="368" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B368" s="10"/>
       <c r="C368" s="10"/>
       <c r="D368" s="10"/>
@@ -5447,7 +5492,7 @@
       <c r="K368" s="10"/>
       <c r="L368" s="10"/>
     </row>
-    <row r="369" spans="2:12" s="7" customFormat="1">
+    <row r="369" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B369" s="10"/>
       <c r="C369" s="10"/>
       <c r="D369" s="10"/>
@@ -5460,7 +5505,7 @@
       <c r="K369" s="10"/>
       <c r="L369" s="10"/>
     </row>
-    <row r="370" spans="2:12" s="7" customFormat="1">
+    <row r="370" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B370" s="10"/>
       <c r="C370" s="10"/>
       <c r="D370" s="10"/>
@@ -5473,7 +5518,7 @@
       <c r="K370" s="10"/>
       <c r="L370" s="10"/>
     </row>
-    <row r="371" spans="2:12" s="7" customFormat="1">
+    <row r="371" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B371" s="10"/>
       <c r="C371" s="10"/>
       <c r="D371" s="10"/>
@@ -5486,7 +5531,7 @@
       <c r="K371" s="10"/>
       <c r="L371" s="10"/>
     </row>
-    <row r="372" spans="2:12" s="7" customFormat="1">
+    <row r="372" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B372" s="10"/>
       <c r="C372" s="10"/>
       <c r="D372" s="10"/>
@@ -5499,7 +5544,7 @@
       <c r="K372" s="10"/>
       <c r="L372" s="10"/>
     </row>
-    <row r="373" spans="2:12" s="7" customFormat="1">
+    <row r="373" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B373" s="10"/>
       <c r="C373" s="10"/>
       <c r="D373" s="10"/>
@@ -5512,7 +5557,7 @@
       <c r="K373" s="10"/>
       <c r="L373" s="10"/>
     </row>
-    <row r="374" spans="2:12" s="7" customFormat="1">
+    <row r="374" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B374" s="10"/>
       <c r="C374" s="10"/>
       <c r="D374" s="10"/>
@@ -5525,7 +5570,7 @@
       <c r="K374" s="10"/>
       <c r="L374" s="10"/>
     </row>
-    <row r="375" spans="2:12" s="7" customFormat="1">
+    <row r="375" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B375" s="10"/>
       <c r="C375" s="10"/>
       <c r="D375" s="10"/>
@@ -5538,7 +5583,7 @@
       <c r="K375" s="10"/>
       <c r="L375" s="10"/>
     </row>
-    <row r="376" spans="2:12" s="7" customFormat="1">
+    <row r="376" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B376" s="10"/>
       <c r="C376" s="10"/>
       <c r="D376" s="10"/>
@@ -5551,7 +5596,7 @@
       <c r="K376" s="10"/>
       <c r="L376" s="10"/>
     </row>
-    <row r="377" spans="2:12" s="7" customFormat="1">
+    <row r="377" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B377" s="10"/>
       <c r="C377" s="10"/>
       <c r="D377" s="10"/>
@@ -5564,7 +5609,7 @@
       <c r="K377" s="10"/>
       <c r="L377" s="10"/>
     </row>
-    <row r="378" spans="2:12" s="7" customFormat="1">
+    <row r="378" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B378" s="10"/>
       <c r="C378" s="10"/>
       <c r="D378" s="10"/>
@@ -5577,7 +5622,7 @@
       <c r="K378" s="10"/>
       <c r="L378" s="10"/>
     </row>
-    <row r="379" spans="2:12" s="7" customFormat="1">
+    <row r="379" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B379" s="10"/>
       <c r="C379" s="10"/>
       <c r="D379" s="10"/>
@@ -5590,7 +5635,7 @@
       <c r="K379" s="10"/>
       <c r="L379" s="10"/>
     </row>
-    <row r="380" spans="2:12" s="7" customFormat="1">
+    <row r="380" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B380" s="10"/>
       <c r="C380" s="10"/>
       <c r="D380" s="10"/>
@@ -5603,7 +5648,7 @@
       <c r="K380" s="10"/>
       <c r="L380" s="10"/>
     </row>
-    <row r="381" spans="2:12" s="7" customFormat="1">
+    <row r="381" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B381" s="10"/>
       <c r="C381" s="10"/>
       <c r="D381" s="10"/>
@@ -5616,7 +5661,7 @@
       <c r="K381" s="10"/>
       <c r="L381" s="10"/>
     </row>
-    <row r="382" spans="2:12" s="7" customFormat="1">
+    <row r="382" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B382" s="10"/>
       <c r="C382" s="10"/>
       <c r="D382" s="10"/>
@@ -5629,7 +5674,7 @@
       <c r="K382" s="10"/>
       <c r="L382" s="10"/>
     </row>
-    <row r="383" spans="2:12" s="7" customFormat="1">
+    <row r="383" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B383" s="10"/>
       <c r="C383" s="10"/>
       <c r="D383" s="10"/>
@@ -5642,7 +5687,7 @@
       <c r="K383" s="10"/>
       <c r="L383" s="10"/>
     </row>
-    <row r="384" spans="2:12" s="7" customFormat="1">
+    <row r="384" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B384" s="10"/>
       <c r="C384" s="10"/>
       <c r="D384" s="10"/>
@@ -5655,7 +5700,7 @@
       <c r="K384" s="10"/>
       <c r="L384" s="10"/>
     </row>
-    <row r="385" spans="2:12" s="7" customFormat="1">
+    <row r="385" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B385" s="10"/>
       <c r="C385" s="10"/>
       <c r="D385" s="10"/>
@@ -5668,7 +5713,7 @@
       <c r="K385" s="10"/>
       <c r="L385" s="10"/>
     </row>
-    <row r="386" spans="2:12" s="7" customFormat="1">
+    <row r="386" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B386" s="10"/>
       <c r="C386" s="10"/>
       <c r="D386" s="10"/>
@@ -5681,7 +5726,7 @@
       <c r="K386" s="10"/>
       <c r="L386" s="10"/>
     </row>
-    <row r="387" spans="2:12" s="7" customFormat="1">
+    <row r="387" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B387" s="10"/>
       <c r="C387" s="10"/>
       <c r="D387" s="10"/>
@@ -5694,7 +5739,7 @@
       <c r="K387" s="10"/>
       <c r="L387" s="10"/>
     </row>
-    <row r="388" spans="2:12" s="7" customFormat="1">
+    <row r="388" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B388" s="10"/>
       <c r="C388" s="10"/>
       <c r="D388" s="10"/>
@@ -5707,7 +5752,7 @@
       <c r="K388" s="10"/>
       <c r="L388" s="10"/>
     </row>
-    <row r="389" spans="2:12" s="7" customFormat="1">
+    <row r="389" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B389" s="10"/>
       <c r="C389" s="10"/>
       <c r="D389" s="10"/>
@@ -5720,7 +5765,7 @@
       <c r="K389" s="10"/>
       <c r="L389" s="10"/>
     </row>
-    <row r="390" spans="2:12" s="7" customFormat="1">
+    <row r="390" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B390" s="10"/>
       <c r="C390" s="10"/>
       <c r="D390" s="10"/>
@@ -5733,7 +5778,7 @@
       <c r="K390" s="10"/>
       <c r="L390" s="10"/>
     </row>
-    <row r="391" spans="2:12" s="7" customFormat="1">
+    <row r="391" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B391" s="10"/>
       <c r="C391" s="10"/>
       <c r="D391" s="10"/>
@@ -5746,7 +5791,7 @@
       <c r="K391" s="10"/>
       <c r="L391" s="10"/>
     </row>
-    <row r="392" spans="2:12" s="7" customFormat="1">
+    <row r="392" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B392" s="10"/>
       <c r="C392" s="10"/>
       <c r="D392" s="10"/>
@@ -5759,7 +5804,7 @@
       <c r="K392" s="10"/>
       <c r="L392" s="10"/>
     </row>
-    <row r="393" spans="2:12" s="7" customFormat="1">
+    <row r="393" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B393" s="10"/>
       <c r="C393" s="10"/>
       <c r="D393" s="10"/>
@@ -5772,7 +5817,7 @@
       <c r="K393" s="10"/>
       <c r="L393" s="10"/>
     </row>
-    <row r="394" spans="2:12" s="7" customFormat="1">
+    <row r="394" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B394" s="10"/>
       <c r="C394" s="10"/>
       <c r="D394" s="10"/>
@@ -5785,7 +5830,7 @@
       <c r="K394" s="10"/>
       <c r="L394" s="10"/>
     </row>
-    <row r="395" spans="2:12" s="7" customFormat="1">
+    <row r="395" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B395" s="10"/>
       <c r="C395" s="10"/>
       <c r="D395" s="10"/>
@@ -5798,7 +5843,7 @@
       <c r="K395" s="10"/>
       <c r="L395" s="10"/>
     </row>
-    <row r="396" spans="2:12" s="7" customFormat="1">
+    <row r="396" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B396" s="10"/>
       <c r="C396" s="10"/>
       <c r="D396" s="10"/>
@@ -5811,7 +5856,7 @@
       <c r="K396" s="10"/>
       <c r="L396" s="10"/>
     </row>
-    <row r="397" spans="2:12" s="7" customFormat="1">
+    <row r="397" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B397" s="10"/>
       <c r="C397" s="10"/>
       <c r="D397" s="10"/>
@@ -5824,7 +5869,7 @@
       <c r="K397" s="10"/>
       <c r="L397" s="10"/>
     </row>
-    <row r="398" spans="2:12" s="7" customFormat="1">
+    <row r="398" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B398" s="10"/>
       <c r="C398" s="10"/>
       <c r="D398" s="10"/>
@@ -5837,7 +5882,7 @@
       <c r="K398" s="10"/>
       <c r="L398" s="10"/>
     </row>
-    <row r="399" spans="2:12" s="7" customFormat="1">
+    <row r="399" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B399" s="10"/>
       <c r="C399" s="10"/>
       <c r="D399" s="10"/>
@@ -5850,7 +5895,7 @@
       <c r="K399" s="10"/>
       <c r="L399" s="10"/>
     </row>
-    <row r="400" spans="2:12" s="7" customFormat="1">
+    <row r="400" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B400" s="10"/>
       <c r="C400" s="10"/>
       <c r="D400" s="10"/>
@@ -5863,7 +5908,7 @@
       <c r="K400" s="10"/>
       <c r="L400" s="10"/>
     </row>
-    <row r="401" spans="2:12" s="7" customFormat="1">
+    <row r="401" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B401" s="10"/>
       <c r="C401" s="10"/>
       <c r="D401" s="10"/>
@@ -5876,7 +5921,7 @@
       <c r="K401" s="10"/>
       <c r="L401" s="10"/>
     </row>
-    <row r="402" spans="2:12" s="7" customFormat="1">
+    <row r="402" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B402" s="10"/>
       <c r="C402" s="10"/>
       <c r="D402" s="10"/>
@@ -5889,7 +5934,7 @@
       <c r="K402" s="10"/>
       <c r="L402" s="10"/>
     </row>
-    <row r="403" spans="2:12" s="7" customFormat="1">
+    <row r="403" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B403" s="10"/>
       <c r="C403" s="10"/>
       <c r="D403" s="10"/>
@@ -5902,7 +5947,7 @@
       <c r="K403" s="10"/>
       <c r="L403" s="10"/>
     </row>
-    <row r="404" spans="2:12" s="7" customFormat="1">
+    <row r="404" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B404" s="10"/>
       <c r="C404" s="10"/>
       <c r="D404" s="10"/>
@@ -5915,7 +5960,7 @@
       <c r="K404" s="10"/>
       <c r="L404" s="10"/>
     </row>
-    <row r="405" spans="2:12" s="7" customFormat="1">
+    <row r="405" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B405" s="10"/>
       <c r="C405" s="10"/>
       <c r="D405" s="10"/>
@@ -5928,7 +5973,7 @@
       <c r="K405" s="10"/>
       <c r="L405" s="10"/>
     </row>
-    <row r="406" spans="2:12" s="7" customFormat="1">
+    <row r="406" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B406" s="10"/>
       <c r="C406" s="10"/>
       <c r="D406" s="10"/>
@@ -5941,7 +5986,7 @@
       <c r="K406" s="10"/>
       <c r="L406" s="10"/>
     </row>
-    <row r="407" spans="2:12" s="7" customFormat="1">
+    <row r="407" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B407" s="10"/>
       <c r="C407" s="10"/>
       <c r="D407" s="10"/>
@@ -5954,7 +5999,7 @@
       <c r="K407" s="10"/>
       <c r="L407" s="10"/>
     </row>
-    <row r="408" spans="2:12" s="7" customFormat="1">
+    <row r="408" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B408" s="10"/>
       <c r="C408" s="10"/>
       <c r="D408" s="10"/>
@@ -5967,7 +6012,7 @@
       <c r="K408" s="10"/>
       <c r="L408" s="10"/>
     </row>
-    <row r="409" spans="2:12" s="7" customFormat="1">
+    <row r="409" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B409" s="10"/>
       <c r="C409" s="10"/>
       <c r="D409" s="10"/>
@@ -5980,7 +6025,7 @@
       <c r="K409" s="10"/>
       <c r="L409" s="10"/>
     </row>
-    <row r="410" spans="2:12" s="7" customFormat="1">
+    <row r="410" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B410" s="10"/>
       <c r="C410" s="10"/>
       <c r="D410" s="10"/>
@@ -5993,7 +6038,7 @@
       <c r="K410" s="10"/>
       <c r="L410" s="10"/>
     </row>
-    <row r="411" spans="2:12" s="7" customFormat="1">
+    <row r="411" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B411" s="10"/>
       <c r="C411" s="10"/>
       <c r="D411" s="10"/>
@@ -6006,7 +6051,7 @@
       <c r="K411" s="10"/>
       <c r="L411" s="10"/>
     </row>
-    <row r="412" spans="2:12" s="7" customFormat="1">
+    <row r="412" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B412" s="10"/>
       <c r="C412" s="10"/>
       <c r="D412" s="10"/>
@@ -6019,7 +6064,7 @@
       <c r="K412" s="10"/>
       <c r="L412" s="10"/>
     </row>
-    <row r="413" spans="2:12" s="7" customFormat="1">
+    <row r="413" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B413" s="10"/>
       <c r="C413" s="10"/>
       <c r="D413" s="10"/>
@@ -6032,7 +6077,7 @@
       <c r="K413" s="10"/>
       <c r="L413" s="10"/>
     </row>
-    <row r="414" spans="2:12" s="7" customFormat="1">
+    <row r="414" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B414" s="10"/>
       <c r="C414" s="10"/>
       <c r="D414" s="10"/>
@@ -6045,7 +6090,7 @@
       <c r="K414" s="10"/>
       <c r="L414" s="10"/>
     </row>
-    <row r="415" spans="2:12" s="7" customFormat="1">
+    <row r="415" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B415" s="10"/>
       <c r="C415" s="10"/>
       <c r="D415" s="10"/>
@@ -6058,7 +6103,7 @@
       <c r="K415" s="10"/>
       <c r="L415" s="10"/>
     </row>
-    <row r="416" spans="2:12" s="7" customFormat="1">
+    <row r="416" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B416" s="10"/>
       <c r="C416" s="10"/>
       <c r="D416" s="10"/>
@@ -6071,7 +6116,7 @@
       <c r="K416" s="10"/>
       <c r="L416" s="10"/>
     </row>
-    <row r="417" spans="2:12" s="7" customFormat="1">
+    <row r="417" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B417" s="10"/>
       <c r="C417" s="10"/>
       <c r="D417" s="10"/>
@@ -6084,7 +6129,7 @@
       <c r="K417" s="10"/>
       <c r="L417" s="10"/>
     </row>
-    <row r="418" spans="2:12" s="7" customFormat="1">
+    <row r="418" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B418" s="10"/>
       <c r="C418" s="10"/>
       <c r="D418" s="10"/>
@@ -6097,7 +6142,7 @@
       <c r="K418" s="10"/>
       <c r="L418" s="10"/>
     </row>
-    <row r="419" spans="2:12" s="7" customFormat="1">
+    <row r="419" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B419" s="10"/>
       <c r="C419" s="10"/>
       <c r="D419" s="10"/>
@@ -6110,7 +6155,7 @@
       <c r="K419" s="10"/>
       <c r="L419" s="10"/>
     </row>
-    <row r="420" spans="2:12" s="7" customFormat="1">
+    <row r="420" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B420" s="10"/>
       <c r="C420" s="10"/>
       <c r="D420" s="10"/>
@@ -6123,7 +6168,7 @@
       <c r="K420" s="10"/>
       <c r="L420" s="10"/>
     </row>
-    <row r="421" spans="2:12" s="7" customFormat="1">
+    <row r="421" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B421" s="10"/>
       <c r="C421" s="10"/>
       <c r="D421" s="10"/>
@@ -6136,7 +6181,7 @@
       <c r="K421" s="10"/>
       <c r="L421" s="10"/>
     </row>
-    <row r="422" spans="2:12" s="7" customFormat="1">
+    <row r="422" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B422" s="10"/>
       <c r="C422" s="10"/>
       <c r="D422" s="10"/>
@@ -6149,7 +6194,7 @@
       <c r="K422" s="10"/>
       <c r="L422" s="10"/>
     </row>
-    <row r="423" spans="2:12" s="7" customFormat="1">
+    <row r="423" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B423" s="10"/>
       <c r="C423" s="10"/>
       <c r="D423" s="10"/>
@@ -6162,7 +6207,7 @@
       <c r="K423" s="10"/>
       <c r="L423" s="10"/>
     </row>
-    <row r="424" spans="2:12" s="7" customFormat="1">
+    <row r="424" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B424" s="10"/>
       <c r="C424" s="10"/>
       <c r="D424" s="10"/>
@@ -6175,7 +6220,7 @@
       <c r="K424" s="10"/>
       <c r="L424" s="10"/>
     </row>
-    <row r="425" spans="2:12" s="7" customFormat="1">
+    <row r="425" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B425" s="10"/>
       <c r="C425" s="10"/>
       <c r="D425" s="10"/>
@@ -6188,7 +6233,7 @@
       <c r="K425" s="10"/>
       <c r="L425" s="10"/>
     </row>
-    <row r="426" spans="2:12" s="7" customFormat="1">
+    <row r="426" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B426" s="10"/>
       <c r="C426" s="10"/>
       <c r="D426" s="10"/>
@@ -6201,7 +6246,7 @@
       <c r="K426" s="10"/>
       <c r="L426" s="10"/>
     </row>
-    <row r="427" spans="2:12" s="7" customFormat="1">
+    <row r="427" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B427" s="10"/>
       <c r="C427" s="10"/>
       <c r="D427" s="10"/>
@@ -6214,7 +6259,7 @@
       <c r="K427" s="10"/>
       <c r="L427" s="10"/>
     </row>
-    <row r="428" spans="2:12" s="7" customFormat="1">
+    <row r="428" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B428" s="10"/>
       <c r="C428" s="10"/>
       <c r="D428" s="10"/>
@@ -6227,7 +6272,7 @@
       <c r="K428" s="10"/>
       <c r="L428" s="10"/>
     </row>
-    <row r="429" spans="2:12" s="7" customFormat="1">
+    <row r="429" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B429" s="10"/>
       <c r="C429" s="10"/>
       <c r="D429" s="10"/>
@@ -6240,7 +6285,7 @@
       <c r="K429" s="10"/>
       <c r="L429" s="10"/>
     </row>
-    <row r="430" spans="2:12" s="7" customFormat="1">
+    <row r="430" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B430" s="10"/>
       <c r="C430" s="10"/>
       <c r="D430" s="10"/>
@@ -6253,7 +6298,7 @@
       <c r="K430" s="10"/>
       <c r="L430" s="10"/>
     </row>
-    <row r="431" spans="2:12" s="7" customFormat="1">
+    <row r="431" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B431" s="10"/>
       <c r="C431" s="10"/>
       <c r="D431" s="10"/>
@@ -6266,7 +6311,7 @@
       <c r="K431" s="10"/>
       <c r="L431" s="10"/>
     </row>
-    <row r="432" spans="2:12" s="7" customFormat="1">
+    <row r="432" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B432" s="10"/>
       <c r="C432" s="10"/>
       <c r="D432" s="10"/>
@@ -6279,7 +6324,7 @@
       <c r="K432" s="10"/>
       <c r="L432" s="10"/>
     </row>
-    <row r="433" spans="2:12" s="7" customFormat="1">
+    <row r="433" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B433" s="10"/>
       <c r="C433" s="10"/>
       <c r="D433" s="10"/>
@@ -6292,7 +6337,7 @@
       <c r="K433" s="10"/>
       <c r="L433" s="10"/>
     </row>
-    <row r="434" spans="2:12" s="7" customFormat="1">
+    <row r="434" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B434" s="10"/>
       <c r="C434" s="10"/>
       <c r="D434" s="10"/>
@@ -6305,7 +6350,7 @@
       <c r="K434" s="10"/>
       <c r="L434" s="10"/>
     </row>
-    <row r="435" spans="2:12" s="7" customFormat="1">
+    <row r="435" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B435" s="10"/>
       <c r="C435" s="10"/>
       <c r="D435" s="10"/>
@@ -6318,7 +6363,7 @@
       <c r="K435" s="10"/>
       <c r="L435" s="10"/>
     </row>
-    <row r="436" spans="2:12" s="7" customFormat="1">
+    <row r="436" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B436" s="10"/>
       <c r="C436" s="10"/>
       <c r="D436" s="10"/>
@@ -6331,7 +6376,7 @@
       <c r="K436" s="10"/>
       <c r="L436" s="10"/>
     </row>
-    <row r="437" spans="2:12" s="7" customFormat="1">
+    <row r="437" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B437" s="10"/>
       <c r="C437" s="10"/>
       <c r="D437" s="10"/>
@@ -6344,7 +6389,7 @@
       <c r="K437" s="10"/>
       <c r="L437" s="10"/>
     </row>
-    <row r="438" spans="2:12" s="7" customFormat="1">
+    <row r="438" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B438" s="10"/>
       <c r="C438" s="10"/>
       <c r="D438" s="10"/>
@@ -6357,7 +6402,7 @@
       <c r="K438" s="10"/>
       <c r="L438" s="10"/>
     </row>
-    <row r="439" spans="2:12" s="7" customFormat="1">
+    <row r="439" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B439" s="10"/>
       <c r="C439" s="10"/>
       <c r="D439" s="10"/>
@@ -6370,7 +6415,7 @@
       <c r="K439" s="10"/>
       <c r="L439" s="10"/>
     </row>
-    <row r="440" spans="2:12" s="7" customFormat="1">
+    <row r="440" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B440" s="10"/>
       <c r="C440" s="10"/>
       <c r="D440" s="10"/>
@@ -6383,7 +6428,7 @@
       <c r="K440" s="10"/>
       <c r="L440" s="10"/>
     </row>
-    <row r="441" spans="2:12" s="7" customFormat="1">
+    <row r="441" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B441" s="10"/>
       <c r="C441" s="10"/>
       <c r="D441" s="10"/>
@@ -6396,7 +6441,7 @@
       <c r="K441" s="10"/>
       <c r="L441" s="10"/>
     </row>
-    <row r="442" spans="2:12" s="7" customFormat="1">
+    <row r="442" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B442" s="10"/>
       <c r="C442" s="10"/>
       <c r="D442" s="10"/>
@@ -6409,7 +6454,7 @@
       <c r="K442" s="10"/>
       <c r="L442" s="10"/>
     </row>
-    <row r="443" spans="2:12" s="7" customFormat="1">
+    <row r="443" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B443" s="10"/>
       <c r="C443" s="10"/>
       <c r="D443" s="10"/>
@@ -6422,7 +6467,7 @@
       <c r="K443" s="10"/>
       <c r="L443" s="10"/>
     </row>
-    <row r="444" spans="2:12" s="7" customFormat="1">
+    <row r="444" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B444" s="10"/>
       <c r="C444" s="10"/>
       <c r="D444" s="10"/>
@@ -6435,7 +6480,7 @@
       <c r="K444" s="10"/>
       <c r="L444" s="10"/>
     </row>
-    <row r="445" spans="2:12" s="7" customFormat="1">
+    <row r="445" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B445" s="10"/>
       <c r="C445" s="10"/>
       <c r="D445" s="10"/>
@@ -6448,7 +6493,7 @@
       <c r="K445" s="10"/>
       <c r="L445" s="10"/>
     </row>
-    <row r="446" spans="2:12" s="7" customFormat="1">
+    <row r="446" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B446" s="10"/>
       <c r="C446" s="10"/>
       <c r="D446" s="10"/>
@@ -6461,7 +6506,7 @@
       <c r="K446" s="10"/>
       <c r="L446" s="10"/>
     </row>
-    <row r="447" spans="2:12" s="7" customFormat="1">
+    <row r="447" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B447" s="10"/>
       <c r="C447" s="10"/>
       <c r="D447" s="10"/>
@@ -6474,7 +6519,7 @@
       <c r="K447" s="10"/>
       <c r="L447" s="10"/>
     </row>
-    <row r="448" spans="2:12" s="7" customFormat="1">
+    <row r="448" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B448" s="10"/>
       <c r="C448" s="10"/>
       <c r="D448" s="10"/>
@@ -6487,7 +6532,7 @@
       <c r="K448" s="10"/>
       <c r="L448" s="10"/>
     </row>
-    <row r="449" spans="2:12" s="7" customFormat="1">
+    <row r="449" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B449" s="10"/>
       <c r="C449" s="10"/>
       <c r="D449" s="10"/>
@@ -6500,7 +6545,7 @@
       <c r="K449" s="10"/>
       <c r="L449" s="10"/>
     </row>
-    <row r="450" spans="2:12" s="7" customFormat="1">
+    <row r="450" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B450" s="10"/>
       <c r="C450" s="10"/>
       <c r="D450" s="10"/>
@@ -6513,7 +6558,7 @@
       <c r="K450" s="10"/>
       <c r="L450" s="10"/>
     </row>
-    <row r="451" spans="2:12" s="7" customFormat="1">
+    <row r="451" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B451" s="10"/>
       <c r="C451" s="10"/>
       <c r="D451" s="10"/>
@@ -6526,7 +6571,7 @@
       <c r="K451" s="10"/>
       <c r="L451" s="10"/>
     </row>
-    <row r="452" spans="2:12" s="7" customFormat="1">
+    <row r="452" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B452" s="10"/>
       <c r="C452" s="10"/>
       <c r="D452" s="10"/>
@@ -6539,7 +6584,7 @@
       <c r="K452" s="10"/>
       <c r="L452" s="10"/>
     </row>
-    <row r="453" spans="2:12" s="7" customFormat="1">
+    <row r="453" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B453" s="10"/>
       <c r="C453" s="10"/>
       <c r="D453" s="10"/>
@@ -6552,7 +6597,7 @@
       <c r="K453" s="10"/>
       <c r="L453" s="10"/>
     </row>
-    <row r="454" spans="2:12" s="7" customFormat="1">
+    <row r="454" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B454" s="10"/>
       <c r="C454" s="10"/>
       <c r="D454" s="10"/>
@@ -6565,7 +6610,7 @@
       <c r="K454" s="10"/>
       <c r="L454" s="10"/>
     </row>
-    <row r="455" spans="2:12" s="7" customFormat="1">
+    <row r="455" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B455" s="10"/>
       <c r="C455" s="10"/>
       <c r="D455" s="10"/>
@@ -6578,7 +6623,7 @@
       <c r="K455" s="10"/>
       <c r="L455" s="10"/>
     </row>
-    <row r="456" spans="2:12" s="7" customFormat="1">
+    <row r="456" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B456" s="10"/>
       <c r="C456" s="10"/>
       <c r="D456" s="10"/>
@@ -6591,7 +6636,7 @@
       <c r="K456" s="10"/>
       <c r="L456" s="10"/>
     </row>
-    <row r="457" spans="2:12" s="7" customFormat="1">
+    <row r="457" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B457" s="10"/>
       <c r="C457" s="10"/>
       <c r="D457" s="10"/>
@@ -6604,7 +6649,7 @@
       <c r="K457" s="10"/>
       <c r="L457" s="10"/>
     </row>
-    <row r="458" spans="2:12" s="7" customFormat="1">
+    <row r="458" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B458" s="10"/>
       <c r="C458" s="10"/>
       <c r="D458" s="10"/>
@@ -6617,7 +6662,7 @@
       <c r="K458" s="10"/>
       <c r="L458" s="10"/>
     </row>
-    <row r="459" spans="2:12" s="7" customFormat="1">
+    <row r="459" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B459" s="10"/>
       <c r="C459" s="10"/>
       <c r="D459" s="10"/>
@@ -6630,7 +6675,7 @@
       <c r="K459" s="10"/>
       <c r="L459" s="10"/>
     </row>
-    <row r="460" spans="2:12" s="7" customFormat="1">
+    <row r="460" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B460" s="10"/>
       <c r="C460" s="10"/>
       <c r="D460" s="10"/>
@@ -6643,7 +6688,7 @@
       <c r="K460" s="10"/>
       <c r="L460" s="10"/>
     </row>
-    <row r="461" spans="2:12" s="7" customFormat="1">
+    <row r="461" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B461" s="10"/>
       <c r="C461" s="10"/>
       <c r="D461" s="10"/>
@@ -6656,7 +6701,7 @@
       <c r="K461" s="10"/>
       <c r="L461" s="10"/>
     </row>
-    <row r="462" spans="2:12" s="7" customFormat="1">
+    <row r="462" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B462" s="10"/>
       <c r="C462" s="10"/>
       <c r="D462" s="10"/>
@@ -6669,7 +6714,7 @@
       <c r="K462" s="10"/>
       <c r="L462" s="10"/>
     </row>
-    <row r="463" spans="2:12" s="7" customFormat="1">
+    <row r="463" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B463" s="10"/>
       <c r="C463" s="10"/>
       <c r="D463" s="10"/>
@@ -6682,7 +6727,7 @@
       <c r="K463" s="10"/>
       <c r="L463" s="10"/>
     </row>
-    <row r="464" spans="2:12" s="7" customFormat="1">
+    <row r="464" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B464" s="10"/>
       <c r="C464" s="10"/>
       <c r="D464" s="10"/>
@@ -6695,7 +6740,7 @@
       <c r="K464" s="10"/>
       <c r="L464" s="10"/>
     </row>
-    <row r="465" spans="2:12" s="7" customFormat="1">
+    <row r="465" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B465" s="10"/>
       <c r="C465" s="10"/>
       <c r="D465" s="10"/>
@@ -6708,7 +6753,7 @@
       <c r="K465" s="10"/>
       <c r="L465" s="10"/>
     </row>
-    <row r="466" spans="2:12" s="7" customFormat="1">
+    <row r="466" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B466" s="10"/>
       <c r="C466" s="10"/>
       <c r="D466" s="10"/>
@@ -6721,7 +6766,7 @@
       <c r="K466" s="10"/>
       <c r="L466" s="10"/>
     </row>
-    <row r="467" spans="2:12" s="7" customFormat="1">
+    <row r="467" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B467" s="10"/>
       <c r="C467" s="10"/>
       <c r="D467" s="10"/>
@@ -6734,7 +6779,7 @@
       <c r="K467" s="10"/>
       <c r="L467" s="10"/>
     </row>
-    <row r="468" spans="2:12" s="7" customFormat="1">
+    <row r="468" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B468" s="10"/>
       <c r="C468" s="10"/>
       <c r="D468" s="10"/>
@@ -6747,7 +6792,7 @@
       <c r="K468" s="10"/>
       <c r="L468" s="10"/>
     </row>
-    <row r="469" spans="2:12" s="7" customFormat="1">
+    <row r="469" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B469" s="10"/>
       <c r="C469" s="10"/>
       <c r="D469" s="10"/>
@@ -6760,7 +6805,7 @@
       <c r="K469" s="10"/>
       <c r="L469" s="10"/>
     </row>
-    <row r="470" spans="2:12" s="7" customFormat="1">
+    <row r="470" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B470" s="10"/>
       <c r="C470" s="10"/>
       <c r="D470" s="10"/>
@@ -6773,7 +6818,7 @@
       <c r="K470" s="10"/>
       <c r="L470" s="10"/>
     </row>
-    <row r="471" spans="2:12" s="7" customFormat="1">
+    <row r="471" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B471" s="10"/>
       <c r="C471" s="10"/>
       <c r="D471" s="10"/>
@@ -6786,7 +6831,7 @@
       <c r="K471" s="10"/>
       <c r="L471" s="10"/>
     </row>
-    <row r="472" spans="2:12" s="7" customFormat="1">
+    <row r="472" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B472" s="10"/>
       <c r="C472" s="10"/>
       <c r="D472" s="10"/>
@@ -6799,7 +6844,7 @@
       <c r="K472" s="10"/>
       <c r="L472" s="10"/>
     </row>
-    <row r="473" spans="2:12" s="7" customFormat="1">
+    <row r="473" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B473" s="10"/>
       <c r="C473" s="10"/>
       <c r="D473" s="10"/>
@@ -6812,7 +6857,7 @@
       <c r="K473" s="10"/>
       <c r="L473" s="10"/>
     </row>
-    <row r="474" spans="2:12" s="7" customFormat="1">
+    <row r="474" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B474" s="10"/>
       <c r="C474" s="10"/>
       <c r="D474" s="10"/>
@@ -6825,7 +6870,7 @@
       <c r="K474" s="10"/>
       <c r="L474" s="10"/>
     </row>
-    <row r="475" spans="2:12" s="7" customFormat="1">
+    <row r="475" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B475" s="10"/>
       <c r="C475" s="10"/>
       <c r="D475" s="10"/>
@@ -6838,7 +6883,7 @@
       <c r="K475" s="10"/>
       <c r="L475" s="10"/>
     </row>
-    <row r="476" spans="2:12" s="7" customFormat="1">
+    <row r="476" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B476" s="10"/>
       <c r="C476" s="10"/>
       <c r="D476" s="10"/>
@@ -6851,7 +6896,7 @@
       <c r="K476" s="10"/>
       <c r="L476" s="10"/>
     </row>
-    <row r="477" spans="2:12" s="7" customFormat="1">
+    <row r="477" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B477" s="10"/>
       <c r="C477" s="10"/>
       <c r="D477" s="10"/>
@@ -6864,7 +6909,7 @@
       <c r="K477" s="10"/>
       <c r="L477" s="10"/>
     </row>
-    <row r="478" spans="2:12" s="7" customFormat="1">
+    <row r="478" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B478" s="10"/>
       <c r="C478" s="10"/>
       <c r="D478" s="10"/>
@@ -6877,7 +6922,7 @@
       <c r="K478" s="10"/>
       <c r="L478" s="10"/>
     </row>
-    <row r="479" spans="2:12" s="7" customFormat="1">
+    <row r="479" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B479" s="10"/>
       <c r="C479" s="10"/>
       <c r="D479" s="10"/>
@@ -6890,7 +6935,7 @@
       <c r="K479" s="10"/>
       <c r="L479" s="10"/>
     </row>
-    <row r="480" spans="2:12" s="7" customFormat="1">
+    <row r="480" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B480" s="10"/>
       <c r="C480" s="10"/>
       <c r="D480" s="10"/>
@@ -6903,7 +6948,7 @@
       <c r="K480" s="10"/>
       <c r="L480" s="10"/>
     </row>
-    <row r="481" spans="2:12" s="7" customFormat="1">
+    <row r="481" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B481" s="10"/>
       <c r="C481" s="10"/>
       <c r="D481" s="10"/>
@@ -6916,7 +6961,7 @@
       <c r="K481" s="10"/>
       <c r="L481" s="10"/>
     </row>
-    <row r="482" spans="2:12" s="7" customFormat="1">
+    <row r="482" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B482" s="10"/>
       <c r="C482" s="10"/>
       <c r="D482" s="10"/>
@@ -6929,7 +6974,7 @@
       <c r="K482" s="10"/>
       <c r="L482" s="10"/>
     </row>
-    <row r="483" spans="2:12" s="7" customFormat="1">
+    <row r="483" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B483" s="10"/>
       <c r="C483" s="10"/>
       <c r="D483" s="10"/>
@@ -6942,7 +6987,7 @@
       <c r="K483" s="10"/>
       <c r="L483" s="10"/>
     </row>
-    <row r="484" spans="2:12" s="7" customFormat="1">
+    <row r="484" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B484" s="10"/>
       <c r="C484" s="10"/>
       <c r="D484" s="10"/>
@@ -6955,7 +7000,7 @@
       <c r="K484" s="10"/>
       <c r="L484" s="10"/>
     </row>
-    <row r="485" spans="2:12" s="7" customFormat="1">
+    <row r="485" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B485" s="10"/>
       <c r="C485" s="10"/>
       <c r="D485" s="10"/>
@@ -6968,7 +7013,7 @@
       <c r="K485" s="10"/>
       <c r="L485" s="10"/>
     </row>
-    <row r="486" spans="2:12" s="7" customFormat="1">
+    <row r="486" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B486" s="10"/>
       <c r="C486" s="10"/>
       <c r="D486" s="10"/>
@@ -6981,7 +7026,7 @@
       <c r="K486" s="10"/>
       <c r="L486" s="10"/>
     </row>
-    <row r="487" spans="2:12" s="7" customFormat="1">
+    <row r="487" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B487" s="10"/>
       <c r="C487" s="10"/>
       <c r="D487" s="10"/>
@@ -6994,7 +7039,7 @@
       <c r="K487" s="10"/>
       <c r="L487" s="10"/>
     </row>
-    <row r="488" spans="2:12" s="7" customFormat="1">
+    <row r="488" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B488" s="10"/>
       <c r="C488" s="10"/>
       <c r="D488" s="10"/>
@@ -7007,7 +7052,7 @@
       <c r="K488" s="10"/>
       <c r="L488" s="10"/>
     </row>
-    <row r="489" spans="2:12" s="7" customFormat="1">
+    <row r="489" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B489" s="10"/>
       <c r="C489" s="10"/>
       <c r="D489" s="10"/>
@@ -7020,7 +7065,7 @@
       <c r="K489" s="10"/>
       <c r="L489" s="10"/>
     </row>
-    <row r="490" spans="2:12" s="7" customFormat="1">
+    <row r="490" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B490" s="10"/>
       <c r="C490" s="10"/>
       <c r="D490" s="10"/>
@@ -7033,7 +7078,7 @@
       <c r="K490" s="10"/>
       <c r="L490" s="10"/>
     </row>
-    <row r="491" spans="2:12" s="7" customFormat="1">
+    <row r="491" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B491" s="10"/>
       <c r="C491" s="10"/>
       <c r="D491" s="10"/>
@@ -7046,7 +7091,7 @@
       <c r="K491" s="10"/>
       <c r="L491" s="10"/>
     </row>
-    <row r="492" spans="2:12" s="7" customFormat="1">
+    <row r="492" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B492" s="10"/>
       <c r="C492" s="10"/>
       <c r="D492" s="10"/>
@@ -7059,7 +7104,7 @@
       <c r="K492" s="10"/>
       <c r="L492" s="10"/>
     </row>
-    <row r="493" spans="2:12" s="7" customFormat="1">
+    <row r="493" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B493" s="10"/>
       <c r="C493" s="10"/>
       <c r="D493" s="10"/>
@@ -7072,7 +7117,7 @@
       <c r="K493" s="10"/>
       <c r="L493" s="10"/>
     </row>
-    <row r="494" spans="2:12" s="7" customFormat="1">
+    <row r="494" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B494" s="10"/>
       <c r="C494" s="10"/>
       <c r="D494" s="10"/>
@@ -7085,7 +7130,7 @@
       <c r="K494" s="10"/>
       <c r="L494" s="10"/>
     </row>
-    <row r="495" spans="2:12" s="7" customFormat="1">
+    <row r="495" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B495" s="10"/>
       <c r="C495" s="10"/>
       <c r="D495" s="10"/>
@@ -7098,7 +7143,7 @@
       <c r="K495" s="10"/>
       <c r="L495" s="10"/>
     </row>
-    <row r="496" spans="2:12" s="7" customFormat="1">
+    <row r="496" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B496" s="10"/>
       <c r="C496" s="10"/>
       <c r="D496" s="10"/>
@@ -7111,7 +7156,7 @@
       <c r="K496" s="10"/>
       <c r="L496" s="10"/>
     </row>
-    <row r="497" spans="2:12" s="7" customFormat="1">
+    <row r="497" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B497" s="10"/>
       <c r="C497" s="10"/>
       <c r="D497" s="10"/>
@@ -7124,7 +7169,7 @@
       <c r="K497" s="10"/>
       <c r="L497" s="10"/>
     </row>
-    <row r="498" spans="2:12" s="7" customFormat="1">
+    <row r="498" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B498" s="10"/>
       <c r="C498" s="10"/>
       <c r="D498" s="10"/>
@@ -7137,7 +7182,7 @@
       <c r="K498" s="10"/>
       <c r="L498" s="10"/>
     </row>
-    <row r="499" spans="2:12" s="7" customFormat="1">
+    <row r="499" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B499" s="10"/>
       <c r="C499" s="10"/>
       <c r="D499" s="10"/>
@@ -7150,7 +7195,7 @@
       <c r="K499" s="10"/>
       <c r="L499" s="10"/>
     </row>
-    <row r="500" spans="2:12" s="7" customFormat="1">
+    <row r="500" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B500" s="10"/>
       <c r="C500" s="10"/>
       <c r="D500" s="10"/>
@@ -7163,7 +7208,7 @@
       <c r="K500" s="10"/>
       <c r="L500" s="10"/>
     </row>
-    <row r="501" spans="2:12" s="7" customFormat="1">
+    <row r="501" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B501" s="10"/>
       <c r="C501" s="10"/>
       <c r="D501" s="10"/>
@@ -7176,7 +7221,7 @@
       <c r="K501" s="10"/>
       <c r="L501" s="10"/>
     </row>
-    <row r="502" spans="2:12" s="7" customFormat="1">
+    <row r="502" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B502" s="10"/>
       <c r="C502" s="10"/>
       <c r="D502" s="10"/>
@@ -7189,7 +7234,7 @@
       <c r="K502" s="10"/>
       <c r="L502" s="10"/>
     </row>
-    <row r="503" spans="2:12" s="7" customFormat="1">
+    <row r="503" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B503" s="10"/>
       <c r="C503" s="10"/>
       <c r="D503" s="10"/>
@@ -7202,7 +7247,7 @@
       <c r="K503" s="10"/>
       <c r="L503" s="10"/>
     </row>
-    <row r="504" spans="2:12" s="7" customFormat="1">
+    <row r="504" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B504" s="10"/>
       <c r="C504" s="10"/>
       <c r="D504" s="10"/>
@@ -7215,7 +7260,7 @@
       <c r="K504" s="10"/>
       <c r="L504" s="10"/>
     </row>
-    <row r="505" spans="2:12" s="7" customFormat="1">
+    <row r="505" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B505" s="10"/>
       <c r="C505" s="10"/>
       <c r="D505" s="10"/>
@@ -7228,7 +7273,7 @@
       <c r="K505" s="10"/>
       <c r="L505" s="10"/>
     </row>
-    <row r="506" spans="2:12" s="7" customFormat="1">
+    <row r="506" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B506" s="10"/>
       <c r="C506" s="10"/>
       <c r="D506" s="10"/>
@@ -7241,7 +7286,7 @@
       <c r="K506" s="10"/>
       <c r="L506" s="10"/>
     </row>
-    <row r="507" spans="2:12" s="7" customFormat="1">
+    <row r="507" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B507" s="10"/>
       <c r="C507" s="10"/>
       <c r="D507" s="10"/>
@@ -7254,7 +7299,7 @@
       <c r="K507" s="10"/>
       <c r="L507" s="10"/>
     </row>
-    <row r="508" spans="2:12" s="7" customFormat="1">
+    <row r="508" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B508" s="10"/>
       <c r="C508" s="10"/>
       <c r="D508" s="10"/>
@@ -7267,7 +7312,7 @@
       <c r="K508" s="10"/>
       <c r="L508" s="10"/>
     </row>
-    <row r="509" spans="2:12" s="7" customFormat="1">
+    <row r="509" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B509" s="10"/>
       <c r="C509" s="10"/>
       <c r="D509" s="10"/>
@@ -7280,7 +7325,7 @@
       <c r="K509" s="10"/>
       <c r="L509" s="10"/>
     </row>
-    <row r="510" spans="2:12" s="7" customFormat="1">
+    <row r="510" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B510" s="10"/>
       <c r="C510" s="10"/>
       <c r="D510" s="10"/>
@@ -7293,7 +7338,7 @@
       <c r="K510" s="10"/>
       <c r="L510" s="10"/>
     </row>
-    <row r="511" spans="2:12" s="7" customFormat="1">
+    <row r="511" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B511" s="10"/>
       <c r="C511" s="10"/>
       <c r="D511" s="10"/>
@@ -7306,7 +7351,7 @@
       <c r="K511" s="10"/>
       <c r="L511" s="10"/>
     </row>
-    <row r="512" spans="2:12" s="7" customFormat="1">
+    <row r="512" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B512" s="10"/>
       <c r="C512" s="10"/>
       <c r="D512" s="10"/>
@@ -7319,7 +7364,7 @@
       <c r="K512" s="10"/>
       <c r="L512" s="10"/>
     </row>
-    <row r="513" spans="2:12" s="7" customFormat="1">
+    <row r="513" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B513" s="10"/>
       <c r="C513" s="10"/>
       <c r="D513" s="10"/>
@@ -7332,7 +7377,7 @@
       <c r="K513" s="10"/>
       <c r="L513" s="10"/>
     </row>
-    <row r="514" spans="2:12" s="7" customFormat="1">
+    <row r="514" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B514" s="10"/>
       <c r="C514" s="10"/>
       <c r="D514" s="10"/>
@@ -7345,7 +7390,7 @@
       <c r="K514" s="10"/>
       <c r="L514" s="10"/>
     </row>
-    <row r="515" spans="2:12" s="7" customFormat="1">
+    <row r="515" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B515" s="10"/>
       <c r="C515" s="10"/>
       <c r="D515" s="10"/>
@@ -7358,7 +7403,7 @@
       <c r="K515" s="10"/>
       <c r="L515" s="10"/>
     </row>
-    <row r="516" spans="2:12" s="7" customFormat="1">
+    <row r="516" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B516" s="10"/>
       <c r="C516" s="10"/>
       <c r="D516" s="10"/>
@@ -7371,7 +7416,7 @@
       <c r="K516" s="10"/>
       <c r="L516" s="10"/>
     </row>
-    <row r="517" spans="2:12" s="7" customFormat="1">
+    <row r="517" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B517" s="10"/>
       <c r="C517" s="10"/>
       <c r="D517" s="10"/>
@@ -7384,7 +7429,7 @@
       <c r="K517" s="10"/>
       <c r="L517" s="10"/>
     </row>
-    <row r="518" spans="2:12" s="7" customFormat="1">
+    <row r="518" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B518" s="10"/>
       <c r="C518" s="10"/>
       <c r="D518" s="10"/>
@@ -7397,7 +7442,7 @@
       <c r="K518" s="10"/>
       <c r="L518" s="10"/>
     </row>
-    <row r="519" spans="2:12" s="7" customFormat="1">
+    <row r="519" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B519" s="10"/>
       <c r="C519" s="10"/>
       <c r="D519" s="10"/>
@@ -7410,7 +7455,7 @@
       <c r="K519" s="10"/>
       <c r="L519" s="10"/>
     </row>
-    <row r="520" spans="2:12" s="7" customFormat="1">
+    <row r="520" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B520" s="10"/>
       <c r="C520" s="10"/>
       <c r="D520" s="10"/>
@@ -7423,7 +7468,7 @@
       <c r="K520" s="10"/>
       <c r="L520" s="10"/>
     </row>
-    <row r="521" spans="2:12" s="7" customFormat="1">
+    <row r="521" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B521" s="10"/>
       <c r="C521" s="10"/>
       <c r="D521" s="10"/>
@@ -7436,7 +7481,7 @@
       <c r="K521" s="10"/>
       <c r="L521" s="10"/>
     </row>
-    <row r="522" spans="2:12" s="7" customFormat="1">
+    <row r="522" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B522" s="10"/>
       <c r="C522" s="10"/>
       <c r="D522" s="10"/>
@@ -7449,7 +7494,7 @@
       <c r="K522" s="10"/>
       <c r="L522" s="10"/>
     </row>
-    <row r="523" spans="2:12" s="7" customFormat="1">
+    <row r="523" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B523" s="10"/>
       <c r="C523" s="10"/>
       <c r="D523" s="10"/>
@@ -7462,7 +7507,7 @@
       <c r="K523" s="10"/>
       <c r="L523" s="10"/>
     </row>
-    <row r="524" spans="2:12" s="7" customFormat="1">
+    <row r="524" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B524" s="10"/>
       <c r="C524" s="10"/>
       <c r="D524" s="10"/>
@@ -7475,7 +7520,7 @@
       <c r="K524" s="10"/>
       <c r="L524" s="10"/>
     </row>
-    <row r="525" spans="2:12" s="7" customFormat="1">
+    <row r="525" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B525" s="10"/>
       <c r="C525" s="10"/>
       <c r="D525" s="10"/>
@@ -7488,7 +7533,7 @@
       <c r="K525" s="10"/>
       <c r="L525" s="10"/>
     </row>
-    <row r="526" spans="2:12" s="7" customFormat="1">
+    <row r="526" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B526" s="10"/>
       <c r="C526" s="10"/>
       <c r="D526" s="10"/>
@@ -7501,7 +7546,7 @@
       <c r="K526" s="10"/>
       <c r="L526" s="10"/>
     </row>
-    <row r="527" spans="2:12" s="7" customFormat="1">
+    <row r="527" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B527" s="10"/>
       <c r="C527" s="10"/>
       <c r="D527" s="10"/>
@@ -7514,7 +7559,7 @@
       <c r="K527" s="10"/>
       <c r="L527" s="10"/>
     </row>
-    <row r="528" spans="2:12" s="7" customFormat="1">
+    <row r="528" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B528" s="10"/>
       <c r="C528" s="10"/>
       <c r="D528" s="10"/>
@@ -7527,7 +7572,7 @@
       <c r="K528" s="10"/>
       <c r="L528" s="10"/>
     </row>
-    <row r="529" spans="2:12" s="7" customFormat="1">
+    <row r="529" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B529" s="10"/>
       <c r="C529" s="10"/>
       <c r="D529" s="10"/>
@@ -7540,7 +7585,7 @@
       <c r="K529" s="10"/>
       <c r="L529" s="10"/>
     </row>
-    <row r="530" spans="2:12" s="7" customFormat="1">
+    <row r="530" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B530" s="10"/>
       <c r="C530" s="10"/>
       <c r="D530" s="10"/>
@@ -7553,7 +7598,7 @@
       <c r="K530" s="10"/>
       <c r="L530" s="10"/>
     </row>
-    <row r="531" spans="2:12" s="7" customFormat="1">
+    <row r="531" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B531" s="10"/>
       <c r="C531" s="10"/>
       <c r="D531" s="10"/>
@@ -7566,7 +7611,7 @@
       <c r="K531" s="10"/>
       <c r="L531" s="10"/>
     </row>
-    <row r="532" spans="2:12" s="7" customFormat="1">
+    <row r="532" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B532" s="10"/>
       <c r="C532" s="10"/>
       <c r="D532" s="10"/>
@@ -7579,7 +7624,7 @@
       <c r="K532" s="10"/>
       <c r="L532" s="10"/>
     </row>
-    <row r="533" spans="2:12" s="7" customFormat="1">
+    <row r="533" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B533" s="10"/>
       <c r="C533" s="10"/>
       <c r="D533" s="10"/>
@@ -7592,7 +7637,7 @@
       <c r="K533" s="10"/>
       <c r="L533" s="10"/>
     </row>
-    <row r="534" spans="2:12" s="7" customFormat="1">
+    <row r="534" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B534" s="10"/>
       <c r="C534" s="10"/>
       <c r="D534" s="10"/>
@@ -7605,7 +7650,7 @@
       <c r="K534" s="10"/>
       <c r="L534" s="10"/>
     </row>
-    <row r="535" spans="2:12" s="7" customFormat="1">
+    <row r="535" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B535" s="10"/>
       <c r="C535" s="10"/>
       <c r="D535" s="10"/>
@@ -7618,7 +7663,7 @@
       <c r="K535" s="10"/>
       <c r="L535" s="10"/>
     </row>
-    <row r="536" spans="2:12" s="7" customFormat="1">
+    <row r="536" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B536" s="10"/>
       <c r="C536" s="10"/>
       <c r="D536" s="10"/>
@@ -7631,7 +7676,7 @@
       <c r="K536" s="10"/>
       <c r="L536" s="10"/>
     </row>
-    <row r="537" spans="2:12" s="7" customFormat="1">
+    <row r="537" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B537" s="10"/>
       <c r="C537" s="10"/>
       <c r="D537" s="10"/>
@@ -7644,7 +7689,7 @@
       <c r="K537" s="10"/>
       <c r="L537" s="10"/>
     </row>
-    <row r="538" spans="2:12" s="7" customFormat="1">
+    <row r="538" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B538" s="10"/>
       <c r="C538" s="10"/>
       <c r="D538" s="10"/>
@@ -7657,7 +7702,7 @@
       <c r="K538" s="10"/>
       <c r="L538" s="10"/>
     </row>
-    <row r="539" spans="2:12" s="7" customFormat="1">
+    <row r="539" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B539" s="10"/>
       <c r="C539" s="10"/>
       <c r="D539" s="10"/>
@@ -7670,7 +7715,7 @@
       <c r="K539" s="10"/>
       <c r="L539" s="10"/>
     </row>
-    <row r="540" spans="2:12" s="7" customFormat="1">
+    <row r="540" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B540" s="10"/>
       <c r="C540" s="10"/>
       <c r="D540" s="10"/>
@@ -7683,7 +7728,7 @@
       <c r="K540" s="10"/>
       <c r="L540" s="10"/>
     </row>
-    <row r="541" spans="2:12" s="7" customFormat="1">
+    <row r="541" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B541" s="10"/>
       <c r="C541" s="10"/>
       <c r="D541" s="10"/>
@@ -7696,7 +7741,7 @@
       <c r="K541" s="10"/>
       <c r="L541" s="10"/>
     </row>
-    <row r="542" spans="2:12" s="7" customFormat="1">
+    <row r="542" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B542" s="10"/>
       <c r="C542" s="10"/>
       <c r="D542" s="10"/>
@@ -7709,7 +7754,7 @@
       <c r="K542" s="10"/>
       <c r="L542" s="10"/>
     </row>
-    <row r="543" spans="2:12" s="7" customFormat="1">
+    <row r="543" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B543" s="10"/>
       <c r="C543" s="10"/>
       <c r="D543" s="10"/>
@@ -7722,7 +7767,7 @@
       <c r="K543" s="10"/>
       <c r="L543" s="10"/>
     </row>
-    <row r="544" spans="2:12" s="7" customFormat="1">
+    <row r="544" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B544" s="10"/>
       <c r="C544" s="10"/>
       <c r="D544" s="10"/>
@@ -7735,7 +7780,7 @@
       <c r="K544" s="10"/>
       <c r="L544" s="10"/>
     </row>
-    <row r="545" spans="1:12" s="7" customFormat="1">
+    <row r="545" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B545" s="10"/>
       <c r="C545" s="10"/>
       <c r="D545" s="10"/>
@@ -7748,7 +7793,7 @@
       <c r="K545" s="10"/>
       <c r="L545" s="10"/>
     </row>
-    <row r="546" spans="1:12" s="7" customFormat="1">
+    <row r="546" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B546" s="10"/>
       <c r="C546" s="10"/>
       <c r="D546" s="10"/>
@@ -7761,7 +7806,7 @@
       <c r="K546" s="10"/>
       <c r="L546" s="10"/>
     </row>
-    <row r="547" spans="1:12" s="7" customFormat="1">
+    <row r="547" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B547" s="10"/>
       <c r="C547" s="10"/>
       <c r="D547" s="10"/>
@@ -7774,7 +7819,7 @@
       <c r="K547" s="10"/>
       <c r="L547" s="10"/>
     </row>
-    <row r="548" spans="1:12" s="7" customFormat="1">
+    <row r="548" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B548" s="10"/>
       <c r="C548" s="10"/>
       <c r="D548" s="10"/>
@@ -7787,7 +7832,7 @@
       <c r="K548" s="10"/>
       <c r="L548" s="10"/>
     </row>
-    <row r="549" spans="1:12" s="7" customFormat="1">
+    <row r="549" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B549" s="10"/>
       <c r="C549" s="10"/>
       <c r="D549" s="10"/>
@@ -7800,7 +7845,7 @@
       <c r="K549" s="10"/>
       <c r="L549" s="10"/>
     </row>
-    <row r="550" spans="1:12" s="7" customFormat="1">
+    <row r="550" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B550" s="10"/>
       <c r="C550" s="10"/>
       <c r="D550" s="10"/>
@@ -7813,7 +7858,7 @@
       <c r="K550" s="10"/>
       <c r="L550" s="10"/>
     </row>
-    <row r="551" spans="1:12" s="7" customFormat="1">
+    <row r="551" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B551" s="10"/>
       <c r="C551" s="10"/>
       <c r="D551" s="10"/>
@@ -7826,7 +7871,7 @@
       <c r="K551" s="10"/>
       <c r="L551" s="10"/>
     </row>
-    <row r="552" spans="1:12" s="7" customFormat="1">
+    <row r="552" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B552" s="10"/>
       <c r="C552" s="10"/>
       <c r="D552" s="10"/>
@@ -7839,7 +7884,7 @@
       <c r="K552" s="10"/>
       <c r="L552" s="10"/>
     </row>
-    <row r="553" spans="1:12" s="7" customFormat="1">
+    <row r="553" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B553" s="10"/>
       <c r="C553" s="10"/>
       <c r="D553" s="10"/>
@@ -7852,7 +7897,7 @@
       <c r="K553" s="10"/>
       <c r="L553" s="10"/>
     </row>
-    <row r="554" spans="1:12" s="7" customFormat="1">
+    <row r="554" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B554" s="10"/>
       <c r="C554" s="10"/>
       <c r="D554" s="10"/>
@@ -7865,7 +7910,7 @@
       <c r="K554" s="10"/>
       <c r="L554" s="10"/>
     </row>
-    <row r="555" spans="1:12" s="7" customFormat="1">
+    <row r="555" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A555" s="12"/>
       <c r="B555" s="12"/>
       <c r="C555" s="10"/>
@@ -7879,7 +7924,7 @@
       <c r="K555" s="10"/>
       <c r="L555" s="10"/>
     </row>
-    <row r="556" spans="1:12" s="7" customFormat="1">
+    <row r="556" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B556" s="10"/>
       <c r="C556" s="10"/>
       <c r="D556" s="10"/>
@@ -7892,7 +7937,7 @@
       <c r="K556" s="10"/>
       <c r="L556" s="10"/>
     </row>
-    <row r="557" spans="1:12" s="7" customFormat="1">
+    <row r="557" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B557" s="10"/>
       <c r="C557" s="10"/>
       <c r="D557" s="10"/>
@@ -7905,7 +7950,7 @@
       <c r="K557" s="10"/>
       <c r="L557" s="10"/>
     </row>
-    <row r="558" spans="1:12" s="7" customFormat="1">
+    <row r="558" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B558" s="10"/>
       <c r="C558" s="10"/>
       <c r="D558" s="10"/>
@@ -7918,7 +7963,7 @@
       <c r="K558" s="10"/>
       <c r="L558" s="10"/>
     </row>
-    <row r="559" spans="1:12" s="7" customFormat="1">
+    <row r="559" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B559" s="10"/>
       <c r="C559" s="10"/>
       <c r="D559" s="10"/>
@@ -7931,7 +7976,7 @@
       <c r="K559" s="10"/>
       <c r="L559" s="10"/>
     </row>
-    <row r="560" spans="1:12" s="7" customFormat="1">
+    <row r="560" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B560" s="10"/>
       <c r="C560" s="10"/>
       <c r="D560" s="10"/>
@@ -7944,7 +7989,7 @@
       <c r="K560" s="10"/>
       <c r="L560" s="10"/>
     </row>
-    <row r="561" spans="2:12" s="7" customFormat="1">
+    <row r="561" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B561" s="10"/>
       <c r="C561" s="10"/>
       <c r="D561" s="10"/>
@@ -7957,7 +8002,7 @@
       <c r="K561" s="10"/>
       <c r="L561" s="10"/>
     </row>
-    <row r="562" spans="2:12" s="7" customFormat="1">
+    <row r="562" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B562" s="10"/>
       <c r="C562" s="10"/>
       <c r="D562" s="10"/>
@@ -7970,7 +8015,7 @@
       <c r="K562" s="10"/>
       <c r="L562" s="10"/>
     </row>
-    <row r="563" spans="2:12" s="7" customFormat="1">
+    <row r="563" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B563" s="10"/>
       <c r="C563" s="10"/>
       <c r="D563" s="10"/>
@@ -7983,7 +8028,7 @@
       <c r="K563" s="10"/>
       <c r="L563" s="10"/>
     </row>
-    <row r="564" spans="2:12" s="7" customFormat="1">
+    <row r="564" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B564" s="10"/>
       <c r="C564" s="10"/>
       <c r="D564" s="10"/>
@@ -7996,7 +8041,7 @@
       <c r="K564" s="10"/>
       <c r="L564" s="10"/>
     </row>
-    <row r="565" spans="2:12" s="7" customFormat="1">
+    <row r="565" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B565" s="10"/>
       <c r="C565" s="10"/>
       <c r="D565" s="10"/>
@@ -8009,7 +8054,7 @@
       <c r="K565" s="10"/>
       <c r="L565" s="10"/>
     </row>
-    <row r="566" spans="2:12" s="7" customFormat="1">
+    <row r="566" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B566" s="10"/>
       <c r="C566" s="10"/>
       <c r="D566" s="10"/>
@@ -8022,7 +8067,7 @@
       <c r="K566" s="10"/>
       <c r="L566" s="10"/>
     </row>
-    <row r="567" spans="2:12" s="7" customFormat="1">
+    <row r="567" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B567" s="10"/>
       <c r="C567" s="10"/>
       <c r="D567" s="10"/>
@@ -8035,7 +8080,7 @@
       <c r="K567" s="10"/>
       <c r="L567" s="10"/>
     </row>
-    <row r="568" spans="2:12" s="7" customFormat="1">
+    <row r="568" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B568" s="10"/>
       <c r="C568" s="10"/>
       <c r="D568" s="10"/>
@@ -8048,7 +8093,7 @@
       <c r="K568" s="10"/>
       <c r="L568" s="10"/>
     </row>
-    <row r="569" spans="2:12" s="7" customFormat="1">
+    <row r="569" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B569" s="10"/>
       <c r="C569" s="10"/>
       <c r="D569" s="10"/>
@@ -8061,7 +8106,7 @@
       <c r="K569" s="10"/>
       <c r="L569" s="10"/>
     </row>
-    <row r="570" spans="2:12" s="7" customFormat="1">
+    <row r="570" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B570" s="10"/>
       <c r="C570" s="10"/>
       <c r="D570" s="10"/>
@@ -8074,7 +8119,7 @@
       <c r="K570" s="10"/>
       <c r="L570" s="10"/>
     </row>
-    <row r="571" spans="2:12" s="7" customFormat="1">
+    <row r="571" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B571" s="10"/>
       <c r="C571" s="10"/>
       <c r="D571" s="10"/>
@@ -8087,7 +8132,7 @@
       <c r="K571" s="10"/>
       <c r="L571" s="10"/>
     </row>
-    <row r="572" spans="2:12" s="7" customFormat="1">
+    <row r="572" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B572" s="10"/>
       <c r="C572" s="10"/>
       <c r="D572" s="10"/>
@@ -8100,7 +8145,7 @@
       <c r="K572" s="10"/>
       <c r="L572" s="10"/>
     </row>
-    <row r="573" spans="2:12" s="7" customFormat="1">
+    <row r="573" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B573" s="10"/>
       <c r="C573" s="10"/>
       <c r="D573" s="10"/>
@@ -8113,7 +8158,7 @@
       <c r="K573" s="10"/>
       <c r="L573" s="10"/>
     </row>
-    <row r="574" spans="2:12" s="7" customFormat="1">
+    <row r="574" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B574" s="10"/>
       <c r="C574" s="10"/>
       <c r="D574" s="10"/>
@@ -8126,7 +8171,7 @@
       <c r="K574" s="10"/>
       <c r="L574" s="10"/>
     </row>
-    <row r="575" spans="2:12" s="7" customFormat="1">
+    <row r="575" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B575" s="10"/>
       <c r="C575" s="10"/>
       <c r="D575" s="10"/>
@@ -8139,7 +8184,7 @@
       <c r="K575" s="10"/>
       <c r="L575" s="10"/>
     </row>
-    <row r="576" spans="2:12" s="7" customFormat="1">
+    <row r="576" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B576" s="10"/>
       <c r="C576" s="10"/>
       <c r="D576" s="10"/>
@@ -8152,7 +8197,7 @@
       <c r="K576" s="10"/>
       <c r="L576" s="10"/>
     </row>
-    <row r="577" spans="2:12" s="7" customFormat="1">
+    <row r="577" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B577" s="10"/>
       <c r="C577" s="10"/>
       <c r="D577" s="10"/>
@@ -8165,7 +8210,7 @@
       <c r="K577" s="10"/>
       <c r="L577" s="10"/>
     </row>
-    <row r="578" spans="2:12" s="7" customFormat="1">
+    <row r="578" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B578" s="10"/>
       <c r="C578" s="10"/>
       <c r="D578" s="10"/>
@@ -8178,7 +8223,7 @@
       <c r="K578" s="10"/>
       <c r="L578" s="10"/>
     </row>
-    <row r="579" spans="2:12" s="7" customFormat="1">
+    <row r="579" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B579" s="10"/>
       <c r="C579" s="10"/>
       <c r="D579" s="10"/>
@@ -8191,7 +8236,7 @@
       <c r="K579" s="10"/>
       <c r="L579" s="10"/>
     </row>
-    <row r="580" spans="2:12" s="7" customFormat="1">
+    <row r="580" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B580" s="10"/>
       <c r="C580" s="10"/>
       <c r="D580" s="10"/>
@@ -8204,7 +8249,7 @@
       <c r="K580" s="10"/>
       <c r="L580" s="10"/>
     </row>
-    <row r="581" spans="2:12" s="7" customFormat="1">
+    <row r="581" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B581" s="10"/>
       <c r="C581" s="10"/>
       <c r="D581" s="10"/>
@@ -8217,7 +8262,7 @@
       <c r="K581" s="10"/>
       <c r="L581" s="10"/>
     </row>
-    <row r="582" spans="2:12" s="7" customFormat="1">
+    <row r="582" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B582" s="10"/>
       <c r="C582" s="10"/>
       <c r="D582" s="10"/>
@@ -8230,7 +8275,7 @@
       <c r="K582" s="10"/>
       <c r="L582" s="10"/>
     </row>
-    <row r="583" spans="2:12" s="7" customFormat="1">
+    <row r="583" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B583" s="10"/>
       <c r="C583" s="10"/>
       <c r="D583" s="10"/>
@@ -8243,7 +8288,7 @@
       <c r="K583" s="10"/>
       <c r="L583" s="10"/>
     </row>
-    <row r="584" spans="2:12" s="7" customFormat="1">
+    <row r="584" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B584" s="10"/>
       <c r="C584" s="10"/>
       <c r="D584" s="10"/>
@@ -8256,7 +8301,7 @@
       <c r="K584" s="10"/>
       <c r="L584" s="10"/>
     </row>
-    <row r="585" spans="2:12" s="7" customFormat="1">
+    <row r="585" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B585" s="10"/>
       <c r="C585" s="10"/>
       <c r="D585" s="10"/>
@@ -8269,7 +8314,7 @@
       <c r="K585" s="10"/>
       <c r="L585" s="10"/>
     </row>
-    <row r="586" spans="2:12" s="7" customFormat="1">
+    <row r="586" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B586" s="10"/>
       <c r="C586" s="10"/>
       <c r="D586" s="10"/>
@@ -8282,7 +8327,7 @@
       <c r="K586" s="10"/>
       <c r="L586" s="10"/>
     </row>
-    <row r="587" spans="2:12" s="7" customFormat="1">
+    <row r="587" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B587" s="10"/>
       <c r="C587" s="10"/>
       <c r="D587" s="10"/>
@@ -8295,7 +8340,7 @@
       <c r="K587" s="10"/>
       <c r="L587" s="10"/>
     </row>
-    <row r="588" spans="2:12" s="7" customFormat="1">
+    <row r="588" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B588" s="10"/>
       <c r="C588" s="10"/>
       <c r="D588" s="10"/>
@@ -8308,7 +8353,7 @@
       <c r="K588" s="10"/>
       <c r="L588" s="10"/>
     </row>
-    <row r="589" spans="2:12" s="7" customFormat="1">
+    <row r="589" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B589" s="10"/>
       <c r="C589" s="10"/>
       <c r="D589" s="10"/>
@@ -8321,7 +8366,7 @@
       <c r="K589" s="10"/>
       <c r="L589" s="10"/>
     </row>
-    <row r="590" spans="2:12" s="7" customFormat="1">
+    <row r="590" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B590" s="10"/>
       <c r="C590" s="10"/>
       <c r="D590" s="10"/>
@@ -8334,7 +8379,7 @@
       <c r="K590" s="10"/>
       <c r="L590" s="10"/>
     </row>
-    <row r="591" spans="2:12" s="7" customFormat="1">
+    <row r="591" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B591" s="10"/>
       <c r="C591" s="10"/>
       <c r="D591" s="10"/>
@@ -8347,7 +8392,7 @@
       <c r="K591" s="10"/>
       <c r="L591" s="10"/>
     </row>
-    <row r="592" spans="2:12" s="7" customFormat="1">
+    <row r="592" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B592" s="10"/>
       <c r="C592" s="10"/>
       <c r="D592" s="10"/>
@@ -8360,7 +8405,7 @@
       <c r="K592" s="10"/>
       <c r="L592" s="10"/>
     </row>
-    <row r="593" spans="2:12" s="7" customFormat="1">
+    <row r="593" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B593" s="10"/>
       <c r="C593" s="10"/>
       <c r="D593" s="10"/>
@@ -8373,7 +8418,7 @@
       <c r="K593" s="10"/>
       <c r="L593" s="10"/>
     </row>
-    <row r="594" spans="2:12" s="7" customFormat="1">
+    <row r="594" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B594" s="10"/>
       <c r="C594" s="10"/>
       <c r="D594" s="10"/>
@@ -8386,7 +8431,7 @@
       <c r="K594" s="10"/>
       <c r="L594" s="10"/>
     </row>
-    <row r="595" spans="2:12" s="7" customFormat="1">
+    <row r="595" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B595" s="10"/>
       <c r="C595" s="10"/>
       <c r="D595" s="10"/>
@@ -8399,7 +8444,7 @@
       <c r="K595" s="10"/>
       <c r="L595" s="10"/>
     </row>
-    <row r="596" spans="2:12" s="7" customFormat="1">
+    <row r="596" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B596" s="10"/>
       <c r="C596" s="10"/>
       <c r="D596" s="10"/>
@@ -8412,7 +8457,7 @@
       <c r="K596" s="10"/>
       <c r="L596" s="10"/>
     </row>
-    <row r="597" spans="2:12" s="7" customFormat="1">
+    <row r="597" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B597" s="10"/>
       <c r="C597" s="10"/>
       <c r="D597" s="10"/>
@@ -8425,7 +8470,7 @@
       <c r="K597" s="10"/>
       <c r="L597" s="10"/>
     </row>
-    <row r="598" spans="2:12" s="7" customFormat="1">
+    <row r="598" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B598" s="10"/>
       <c r="C598" s="10"/>
       <c r="D598" s="10"/>
@@ -8438,7 +8483,7 @@
       <c r="K598" s="10"/>
       <c r="L598" s="10"/>
     </row>
-    <row r="599" spans="2:12" s="7" customFormat="1">
+    <row r="599" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B599" s="10"/>
       <c r="C599" s="10"/>
       <c r="D599" s="10"/>
@@ -8451,7 +8496,7 @@
       <c r="K599" s="10"/>
       <c r="L599" s="10"/>
     </row>
-    <row r="600" spans="2:12" s="7" customFormat="1">
+    <row r="600" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B600" s="10"/>
       <c r="C600" s="10"/>
       <c r="D600" s="10"/>
@@ -8464,7 +8509,7 @@
       <c r="K600" s="10"/>
       <c r="L600" s="10"/>
     </row>
-    <row r="601" spans="2:12" s="7" customFormat="1">
+    <row r="601" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B601" s="10"/>
       <c r="C601" s="10"/>
       <c r="D601" s="10"/>
@@ -8477,7 +8522,7 @@
       <c r="K601" s="10"/>
       <c r="L601" s="10"/>
     </row>
-    <row r="602" spans="2:12" s="7" customFormat="1">
+    <row r="602" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B602" s="10"/>
       <c r="C602" s="10"/>
       <c r="D602" s="10"/>
@@ -8490,7 +8535,7 @@
       <c r="K602" s="10"/>
       <c r="L602" s="10"/>
     </row>
-    <row r="603" spans="2:12" s="7" customFormat="1">
+    <row r="603" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B603" s="10"/>
       <c r="C603" s="10"/>
       <c r="D603" s="10"/>
@@ -8503,7 +8548,7 @@
       <c r="K603" s="10"/>
       <c r="L603" s="10"/>
     </row>
-    <row r="604" spans="2:12" s="7" customFormat="1">
+    <row r="604" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B604" s="10"/>
       <c r="C604" s="10"/>
       <c r="D604" s="10"/>
@@ -8516,7 +8561,7 @@
       <c r="K604" s="10"/>
       <c r="L604" s="10"/>
     </row>
-    <row r="605" spans="2:12" s="7" customFormat="1">
+    <row r="605" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B605" s="10"/>
       <c r="C605" s="10"/>
       <c r="D605" s="10"/>
@@ -8529,7 +8574,7 @@
       <c r="K605" s="10"/>
       <c r="L605" s="10"/>
     </row>
-    <row r="606" spans="2:12" s="7" customFormat="1">
+    <row r="606" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B606" s="10"/>
       <c r="C606" s="10"/>
       <c r="D606" s="10"/>
@@ -8542,7 +8587,7 @@
       <c r="K606" s="10"/>
       <c r="L606" s="10"/>
     </row>
-    <row r="607" spans="2:12" s="7" customFormat="1">
+    <row r="607" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B607" s="10"/>
       <c r="C607" s="10"/>
       <c r="D607" s="10"/>
@@ -8555,7 +8600,7 @@
       <c r="K607" s="10"/>
       <c r="L607" s="10"/>
     </row>
-    <row r="608" spans="2:12" s="7" customFormat="1">
+    <row r="608" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B608" s="10"/>
       <c r="C608" s="10"/>
       <c r="D608" s="10"/>
@@ -8568,7 +8613,7 @@
       <c r="K608" s="10"/>
       <c r="L608" s="10"/>
     </row>
-    <row r="609" spans="2:12" s="7" customFormat="1">
+    <row r="609" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B609" s="10"/>
       <c r="C609" s="10"/>
       <c r="D609" s="10"/>
@@ -8581,7 +8626,7 @@
       <c r="K609" s="10"/>
       <c r="L609" s="10"/>
     </row>
-    <row r="610" spans="2:12" s="7" customFormat="1">
+    <row r="610" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B610" s="10"/>
       <c r="C610" s="10"/>
       <c r="D610" s="10"/>
@@ -8594,7 +8639,7 @@
       <c r="K610" s="10"/>
       <c r="L610" s="10"/>
     </row>
-    <row r="611" spans="2:12" s="7" customFormat="1">
+    <row r="611" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B611" s="10"/>
       <c r="C611" s="10"/>
       <c r="D611" s="10"/>
@@ -8607,7 +8652,7 @@
       <c r="K611" s="10"/>
       <c r="L611" s="10"/>
     </row>
-    <row r="612" spans="2:12" s="7" customFormat="1">
+    <row r="612" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B612" s="10"/>
       <c r="C612" s="10"/>
       <c r="D612" s="10"/>
@@ -8620,7 +8665,7 @@
       <c r="K612" s="10"/>
       <c r="L612" s="10"/>
     </row>
-    <row r="613" spans="2:12" s="7" customFormat="1">
+    <row r="613" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B613" s="10"/>
       <c r="C613" s="10"/>
       <c r="D613" s="10"/>
@@ -8633,7 +8678,7 @@
       <c r="K613" s="10"/>
       <c r="L613" s="10"/>
     </row>
-    <row r="614" spans="2:12" s="7" customFormat="1">
+    <row r="614" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B614" s="10"/>
       <c r="C614" s="10"/>
       <c r="D614" s="10"/>
@@ -8646,7 +8691,7 @@
       <c r="K614" s="10"/>
       <c r="L614" s="10"/>
     </row>
-    <row r="615" spans="2:12" s="7" customFormat="1">
+    <row r="615" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B615" s="10"/>
       <c r="C615" s="10"/>
       <c r="D615" s="10"/>
@@ -8659,7 +8704,7 @@
       <c r="K615" s="10"/>
       <c r="L615" s="10"/>
     </row>
-    <row r="616" spans="2:12" s="7" customFormat="1">
+    <row r="616" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B616" s="10"/>
       <c r="C616" s="10"/>
       <c r="D616" s="10"/>
@@ -8672,7 +8717,7 @@
       <c r="K616" s="10"/>
       <c r="L616" s="10"/>
     </row>
-    <row r="617" spans="2:12" s="7" customFormat="1">
+    <row r="617" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B617" s="10"/>
       <c r="C617" s="10"/>
       <c r="D617" s="10"/>
@@ -8685,7 +8730,7 @@
       <c r="K617" s="10"/>
       <c r="L617" s="10"/>
     </row>
-    <row r="618" spans="2:12" s="7" customFormat="1">
+    <row r="618" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B618" s="10"/>
       <c r="C618" s="10"/>
       <c r="D618" s="10"/>
@@ -8698,7 +8743,7 @@
       <c r="K618" s="10"/>
       <c r="L618" s="10"/>
     </row>
-    <row r="619" spans="2:12" s="7" customFormat="1">
+    <row r="619" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B619" s="10"/>
       <c r="C619" s="10"/>
       <c r="D619" s="10"/>
@@ -8711,7 +8756,7 @@
       <c r="K619" s="10"/>
       <c r="L619" s="10"/>
     </row>
-    <row r="620" spans="2:12" s="7" customFormat="1">
+    <row r="620" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B620" s="10"/>
       <c r="C620" s="10"/>
       <c r="D620" s="10"/>
@@ -8724,7 +8769,7 @@
       <c r="K620" s="10"/>
       <c r="L620" s="10"/>
     </row>
-    <row r="621" spans="2:12" s="7" customFormat="1">
+    <row r="621" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B621" s="10"/>
       <c r="C621" s="10"/>
       <c r="D621" s="10"/>
@@ -8737,7 +8782,7 @@
       <c r="K621" s="10"/>
       <c r="L621" s="10"/>
     </row>
-    <row r="622" spans="2:12" s="7" customFormat="1">
+    <row r="622" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B622" s="10"/>
       <c r="C622" s="10"/>
       <c r="D622" s="10"/>
@@ -8750,7 +8795,7 @@
       <c r="K622" s="10"/>
       <c r="L622" s="10"/>
     </row>
-    <row r="623" spans="2:12" s="7" customFormat="1">
+    <row r="623" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B623" s="10"/>
       <c r="C623" s="10"/>
       <c r="D623" s="10"/>
@@ -8763,7 +8808,7 @@
       <c r="K623" s="10"/>
       <c r="L623" s="10"/>
     </row>
-    <row r="624" spans="2:12" s="7" customFormat="1">
+    <row r="624" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B624" s="10"/>
       <c r="C624" s="10"/>
       <c r="D624" s="10"/>
@@ -8776,7 +8821,7 @@
       <c r="K624" s="10"/>
       <c r="L624" s="10"/>
     </row>
-    <row r="625" spans="2:12" s="7" customFormat="1">
+    <row r="625" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B625" s="10"/>
       <c r="C625" s="10"/>
       <c r="D625" s="10"/>
@@ -8789,7 +8834,7 @@
       <c r="K625" s="10"/>
       <c r="L625" s="10"/>
     </row>
-    <row r="626" spans="2:12" s="7" customFormat="1">
+    <row r="626" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B626" s="10"/>
       <c r="C626" s="10"/>
       <c r="D626" s="10"/>
@@ -8802,7 +8847,7 @@
       <c r="K626" s="10"/>
       <c r="L626" s="10"/>
     </row>
-    <row r="627" spans="2:12" s="7" customFormat="1">
+    <row r="627" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B627" s="10"/>
       <c r="C627" s="10"/>
       <c r="D627" s="10"/>
@@ -8815,7 +8860,7 @@
       <c r="K627" s="10"/>
       <c r="L627" s="10"/>
     </row>
-    <row r="628" spans="2:12" s="7" customFormat="1">
+    <row r="628" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B628" s="10"/>
       <c r="C628" s="10"/>
       <c r="D628" s="10"/>
@@ -8828,7 +8873,7 @@
       <c r="K628" s="10"/>
       <c r="L628" s="10"/>
     </row>
-    <row r="629" spans="2:12" s="7" customFormat="1">
+    <row r="629" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B629" s="10"/>
       <c r="C629" s="10"/>
       <c r="D629" s="10"/>
@@ -8841,7 +8886,7 @@
       <c r="K629" s="10"/>
       <c r="L629" s="10"/>
     </row>
-    <row r="630" spans="2:12" s="7" customFormat="1">
+    <row r="630" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B630" s="10"/>
       <c r="C630" s="10"/>
       <c r="D630" s="10"/>
@@ -8854,7 +8899,7 @@
       <c r="K630" s="10"/>
       <c r="L630" s="10"/>
     </row>
-    <row r="631" spans="2:12" s="7" customFormat="1">
+    <row r="631" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B631" s="10"/>
       <c r="C631" s="10"/>
       <c r="D631" s="10"/>
@@ -8867,7 +8912,7 @@
       <c r="K631" s="10"/>
       <c r="L631" s="10"/>
     </row>
-    <row r="632" spans="2:12" s="7" customFormat="1">
+    <row r="632" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B632" s="10"/>
       <c r="C632" s="10"/>
       <c r="D632" s="10"/>
@@ -8880,7 +8925,7 @@
       <c r="K632" s="10"/>
       <c r="L632" s="10"/>
     </row>
-    <row r="633" spans="2:12" s="7" customFormat="1">
+    <row r="633" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B633" s="10"/>
       <c r="C633" s="10"/>
       <c r="D633" s="10"/>
@@ -8893,7 +8938,7 @@
       <c r="K633" s="10"/>
       <c r="L633" s="10"/>
     </row>
-    <row r="634" spans="2:12" s="7" customFormat="1">
+    <row r="634" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B634" s="10"/>
       <c r="C634" s="10"/>
       <c r="D634" s="10"/>
@@ -8906,7 +8951,7 @@
       <c r="K634" s="10"/>
       <c r="L634" s="10"/>
     </row>
-    <row r="635" spans="2:12" s="7" customFormat="1">
+    <row r="635" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B635" s="10"/>
       <c r="C635" s="10"/>
       <c r="D635" s="10"/>
@@ -8919,7 +8964,7 @@
       <c r="K635" s="10"/>
       <c r="L635" s="10"/>
     </row>
-    <row r="636" spans="2:12" s="7" customFormat="1">
+    <row r="636" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B636" s="10"/>
       <c r="C636" s="10"/>
       <c r="D636" s="10"/>
@@ -8932,7 +8977,7 @@
       <c r="K636" s="10"/>
       <c r="L636" s="10"/>
     </row>
-    <row r="637" spans="2:12" s="7" customFormat="1">
+    <row r="637" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B637" s="10"/>
       <c r="C637" s="10"/>
       <c r="D637" s="10"/>
@@ -8945,7 +8990,7 @@
       <c r="K637" s="10"/>
       <c r="L637" s="10"/>
     </row>
-    <row r="638" spans="2:12" s="7" customFormat="1">
+    <row r="638" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B638" s="10"/>
       <c r="C638" s="10"/>
       <c r="D638" s="10"/>
@@ -8958,7 +9003,7 @@
       <c r="K638" s="10"/>
       <c r="L638" s="10"/>
     </row>
-    <row r="639" spans="2:12" s="7" customFormat="1">
+    <row r="639" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B639" s="10"/>
       <c r="C639" s="10"/>
       <c r="D639" s="10"/>
@@ -8971,7 +9016,7 @@
       <c r="K639" s="10"/>
       <c r="L639" s="10"/>
     </row>
-    <row r="640" spans="2:12" s="7" customFormat="1">
+    <row r="640" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B640" s="10"/>
       <c r="C640" s="10"/>
       <c r="D640" s="10"/>
@@ -8984,7 +9029,7 @@
       <c r="K640" s="10"/>
       <c r="L640" s="10"/>
     </row>
-    <row r="641" spans="2:12" s="7" customFormat="1">
+    <row r="641" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B641" s="10"/>
       <c r="C641" s="10"/>
       <c r="D641" s="10"/>
@@ -8997,7 +9042,7 @@
       <c r="K641" s="10"/>
       <c r="L641" s="10"/>
     </row>
-    <row r="642" spans="2:12" s="7" customFormat="1">
+    <row r="642" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B642" s="10"/>
       <c r="C642" s="10"/>
       <c r="D642" s="10"/>
@@ -9010,7 +9055,7 @@
       <c r="K642" s="10"/>
       <c r="L642" s="10"/>
     </row>
-    <row r="643" spans="2:12" s="7" customFormat="1">
+    <row r="643" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B643" s="10"/>
       <c r="C643" s="10"/>
       <c r="D643" s="10"/>
@@ -9023,7 +9068,7 @@
       <c r="K643" s="10"/>
       <c r="L643" s="10"/>
     </row>
-    <row r="644" spans="2:12" s="7" customFormat="1">
+    <row r="644" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B644" s="10"/>
       <c r="C644" s="10"/>
       <c r="D644" s="10"/>
@@ -9036,7 +9081,7 @@
       <c r="K644" s="10"/>
       <c r="L644" s="10"/>
     </row>
-    <row r="645" spans="2:12" s="7" customFormat="1">
+    <row r="645" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B645" s="10"/>
       <c r="C645" s="10"/>
       <c r="D645" s="10"/>
@@ -9049,7 +9094,7 @@
       <c r="K645" s="10"/>
       <c r="L645" s="10"/>
     </row>
-    <row r="646" spans="2:12" s="7" customFormat="1">
+    <row r="646" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B646" s="10"/>
       <c r="C646" s="10"/>
       <c r="D646" s="10"/>
@@ -9062,7 +9107,7 @@
       <c r="K646" s="10"/>
       <c r="L646" s="10"/>
     </row>
-    <row r="647" spans="2:12" s="7" customFormat="1">
+    <row r="647" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B647" s="10"/>
       <c r="C647" s="10"/>
       <c r="D647" s="10"/>
@@ -9075,7 +9120,7 @@
       <c r="K647" s="10"/>
       <c r="L647" s="10"/>
     </row>
-    <row r="648" spans="2:12" s="7" customFormat="1">
+    <row r="648" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B648" s="10"/>
       <c r="C648" s="10"/>
       <c r="D648" s="10"/>
@@ -9088,7 +9133,7 @@
       <c r="K648" s="10"/>
       <c r="L648" s="10"/>
     </row>
-    <row r="649" spans="2:12" s="7" customFormat="1">
+    <row r="649" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B649" s="10"/>
       <c r="C649" s="10"/>
       <c r="D649" s="10"/>
@@ -9101,7 +9146,7 @@
       <c r="K649" s="10"/>
       <c r="L649" s="10"/>
     </row>
-    <row r="650" spans="2:12" s="7" customFormat="1">
+    <row r="650" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B650" s="10"/>
       <c r="C650" s="10"/>
       <c r="D650" s="10"/>
@@ -9114,7 +9159,7 @@
       <c r="K650" s="10"/>
       <c r="L650" s="10"/>
     </row>
-    <row r="651" spans="2:12" s="7" customFormat="1">
+    <row r="651" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B651" s="10"/>
       <c r="C651" s="10"/>
       <c r="D651" s="10"/>
@@ -9127,7 +9172,7 @@
       <c r="K651" s="10"/>
       <c r="L651" s="10"/>
     </row>
-    <row r="652" spans="2:12" s="7" customFormat="1">
+    <row r="652" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B652" s="10"/>
       <c r="C652" s="10"/>
       <c r="D652" s="10"/>
@@ -9140,7 +9185,7 @@
       <c r="K652" s="10"/>
       <c r="L652" s="10"/>
     </row>
-    <row r="653" spans="2:12" s="7" customFormat="1">
+    <row r="653" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B653" s="10"/>
       <c r="C653" s="10"/>
       <c r="D653" s="10"/>
@@ -9153,7 +9198,7 @@
       <c r="K653" s="10"/>
       <c r="L653" s="10"/>
     </row>
-    <row r="654" spans="2:12" s="7" customFormat="1">
+    <row r="654" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B654" s="10"/>
       <c r="C654" s="10"/>
       <c r="D654" s="10"/>
@@ -9166,7 +9211,7 @@
       <c r="K654" s="10"/>
       <c r="L654" s="10"/>
     </row>
-    <row r="655" spans="2:12" s="7" customFormat="1">
+    <row r="655" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B655" s="10"/>
       <c r="C655" s="10"/>
       <c r="D655" s="10"/>
@@ -9179,7 +9224,7 @@
       <c r="K655" s="10"/>
       <c r="L655" s="10"/>
     </row>
-    <row r="656" spans="2:12" s="7" customFormat="1">
+    <row r="656" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B656" s="10"/>
       <c r="C656" s="10"/>
       <c r="D656" s="10"/>
@@ -9192,7 +9237,7 @@
       <c r="K656" s="10"/>
       <c r="L656" s="10"/>
     </row>
-    <row r="657" spans="2:12" s="7" customFormat="1">
+    <row r="657" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B657" s="10"/>
       <c r="C657" s="10"/>
       <c r="D657" s="10"/>
@@ -9205,7 +9250,7 @@
       <c r="K657" s="10"/>
       <c r="L657" s="10"/>
     </row>
-    <row r="658" spans="2:12" s="7" customFormat="1">
+    <row r="658" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B658" s="10"/>
       <c r="C658" s="10"/>
       <c r="D658" s="10"/>
@@ -9218,7 +9263,7 @@
       <c r="K658" s="10"/>
       <c r="L658" s="10"/>
     </row>
-    <row r="659" spans="2:12" s="7" customFormat="1">
+    <row r="659" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B659" s="10"/>
       <c r="C659" s="10"/>
       <c r="D659" s="10"/>
@@ -9231,7 +9276,7 @@
       <c r="K659" s="10"/>
       <c r="L659" s="10"/>
     </row>
-    <row r="660" spans="2:12" s="7" customFormat="1">
+    <row r="660" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B660" s="10"/>
       <c r="C660" s="10"/>
       <c r="D660" s="10"/>
@@ -9244,7 +9289,7 @@
       <c r="K660" s="10"/>
       <c r="L660" s="10"/>
     </row>
-    <row r="661" spans="2:12" s="7" customFormat="1">
+    <row r="661" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B661" s="10"/>
       <c r="C661" s="10"/>
       <c r="D661" s="10"/>
@@ -9257,7 +9302,7 @@
       <c r="K661" s="10"/>
       <c r="L661" s="10"/>
     </row>
-    <row r="662" spans="2:12" s="7" customFormat="1">
+    <row r="662" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B662" s="10"/>
       <c r="C662" s="10"/>
       <c r="D662" s="10"/>
@@ -9270,7 +9315,7 @@
       <c r="K662" s="10"/>
       <c r="L662" s="10"/>
     </row>
-    <row r="663" spans="2:12" s="7" customFormat="1">
+    <row r="663" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B663" s="10"/>
       <c r="C663" s="10"/>
       <c r="D663" s="10"/>
@@ -9283,7 +9328,7 @@
       <c r="K663" s="10"/>
       <c r="L663" s="10"/>
     </row>
-    <row r="664" spans="2:12" s="7" customFormat="1">
+    <row r="664" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B664" s="10"/>
       <c r="C664" s="10"/>
       <c r="D664" s="10"/>
@@ -9296,7 +9341,7 @@
       <c r="K664" s="10"/>
       <c r="L664" s="10"/>
     </row>
-    <row r="665" spans="2:12" s="7" customFormat="1">
+    <row r="665" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B665" s="10"/>
       <c r="C665" s="10"/>
       <c r="D665" s="10"/>
@@ -9309,7 +9354,7 @@
       <c r="K665" s="10"/>
       <c r="L665" s="10"/>
     </row>
-    <row r="666" spans="2:12" s="7" customFormat="1">
+    <row r="666" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B666" s="10"/>
       <c r="C666" s="10"/>
       <c r="D666" s="10"/>
@@ -9322,7 +9367,7 @@
       <c r="K666" s="10"/>
       <c r="L666" s="10"/>
     </row>
-    <row r="667" spans="2:12" s="7" customFormat="1">
+    <row r="667" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B667" s="10"/>
       <c r="C667" s="10"/>
       <c r="D667" s="10"/>
@@ -9335,7 +9380,7 @@
       <c r="K667" s="10"/>
       <c r="L667" s="10"/>
     </row>
-    <row r="668" spans="2:12" s="7" customFormat="1">
+    <row r="668" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B668" s="10"/>
       <c r="C668" s="10"/>
       <c r="D668" s="10"/>
@@ -9348,7 +9393,7 @@
       <c r="K668" s="10"/>
       <c r="L668" s="10"/>
     </row>
-    <row r="669" spans="2:12" s="7" customFormat="1">
+    <row r="669" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B669" s="10"/>
       <c r="C669" s="10"/>
       <c r="D669" s="10"/>
@@ -9361,7 +9406,7 @@
       <c r="K669" s="10"/>
       <c r="L669" s="10"/>
     </row>
-    <row r="670" spans="2:12" s="7" customFormat="1">
+    <row r="670" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B670" s="10"/>
       <c r="C670" s="10"/>
       <c r="D670" s="10"/>
@@ -9374,7 +9419,7 @@
       <c r="K670" s="10"/>
       <c r="L670" s="10"/>
     </row>
-    <row r="671" spans="2:12" s="7" customFormat="1">
+    <row r="671" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B671" s="10"/>
       <c r="C671" s="10"/>
       <c r="D671" s="10"/>
@@ -9387,7 +9432,7 @@
       <c r="K671" s="10"/>
       <c r="L671" s="10"/>
     </row>
-    <row r="672" spans="2:12" s="7" customFormat="1">
+    <row r="672" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B672" s="10"/>
       <c r="C672" s="10"/>
       <c r="D672" s="10"/>
@@ -9400,7 +9445,7 @@
       <c r="K672" s="10"/>
       <c r="L672" s="10"/>
     </row>
-    <row r="673" spans="2:12" s="7" customFormat="1">
+    <row r="673" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B673" s="10"/>
       <c r="C673" s="10"/>
       <c r="D673" s="10"/>
@@ -9413,7 +9458,7 @@
       <c r="K673" s="10"/>
       <c r="L673" s="10"/>
     </row>
-    <row r="674" spans="2:12" s="7" customFormat="1">
+    <row r="674" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B674" s="10"/>
       <c r="C674" s="10"/>
       <c r="D674" s="10"/>
@@ -9426,7 +9471,7 @@
       <c r="K674" s="10"/>
       <c r="L674" s="10"/>
     </row>
-    <row r="675" spans="2:12" s="7" customFormat="1">
+    <row r="675" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B675" s="10"/>
       <c r="C675" s="10"/>
       <c r="D675" s="10"/>
@@ -9439,7 +9484,7 @@
       <c r="K675" s="10"/>
       <c r="L675" s="10"/>
     </row>
-    <row r="676" spans="2:12" s="7" customFormat="1">
+    <row r="676" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B676" s="10"/>
       <c r="C676" s="10"/>
       <c r="D676" s="10"/>
@@ -9452,7 +9497,7 @@
       <c r="K676" s="10"/>
       <c r="L676" s="10"/>
     </row>
-    <row r="677" spans="2:12" s="7" customFormat="1">
+    <row r="677" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B677" s="10"/>
       <c r="C677" s="10"/>
       <c r="D677" s="10"/>
@@ -9465,7 +9510,7 @@
       <c r="K677" s="10"/>
       <c r="L677" s="10"/>
     </row>
-    <row r="678" spans="2:12" s="7" customFormat="1">
+    <row r="678" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B678" s="10"/>
       <c r="C678" s="10"/>
       <c r="D678" s="10"/>
@@ -9478,7 +9523,7 @@
       <c r="K678" s="10"/>
       <c r="L678" s="10"/>
     </row>
-    <row r="679" spans="2:12" s="7" customFormat="1">
+    <row r="679" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B679" s="10"/>
       <c r="C679" s="10"/>
       <c r="D679" s="10"/>
@@ -9491,7 +9536,7 @@
       <c r="K679" s="10"/>
       <c r="L679" s="10"/>
     </row>
-    <row r="680" spans="2:12" s="7" customFormat="1">
+    <row r="680" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B680" s="10"/>
       <c r="C680" s="10"/>
       <c r="D680" s="10"/>
@@ -9504,7 +9549,7 @@
       <c r="K680" s="10"/>
       <c r="L680" s="10"/>
     </row>
-    <row r="681" spans="2:12" s="7" customFormat="1">
+    <row r="681" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B681" s="10"/>
       <c r="C681" s="10"/>
       <c r="D681" s="10"/>
@@ -9517,7 +9562,7 @@
       <c r="K681" s="10"/>
       <c r="L681" s="10"/>
     </row>
-    <row r="682" spans="2:12" s="7" customFormat="1">
+    <row r="682" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B682" s="10"/>
       <c r="C682" s="10"/>
       <c r="D682" s="10"/>
@@ -9530,7 +9575,7 @@
       <c r="K682" s="10"/>
       <c r="L682" s="10"/>
     </row>
-    <row r="683" spans="2:12" s="7" customFormat="1">
+    <row r="683" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B683" s="10"/>
       <c r="C683" s="10"/>
       <c r="D683" s="10"/>
@@ -9543,7 +9588,7 @@
       <c r="K683" s="10"/>
       <c r="L683" s="10"/>
     </row>
-    <row r="684" spans="2:12" s="7" customFormat="1">
+    <row r="684" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B684" s="10"/>
       <c r="C684" s="10"/>
       <c r="D684" s="10"/>
@@ -9556,7 +9601,7 @@
       <c r="K684" s="10"/>
       <c r="L684" s="10"/>
     </row>
-    <row r="685" spans="2:12" s="7" customFormat="1">
+    <row r="685" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B685" s="10"/>
       <c r="C685" s="10"/>
       <c r="D685" s="10"/>
@@ -9569,7 +9614,7 @@
       <c r="K685" s="10"/>
       <c r="L685" s="10"/>
     </row>
-    <row r="686" spans="2:12" s="7" customFormat="1">
+    <row r="686" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B686" s="10"/>
       <c r="C686" s="10"/>
       <c r="D686" s="10"/>
@@ -9582,7 +9627,7 @@
       <c r="K686" s="10"/>
       <c r="L686" s="10"/>
     </row>
-    <row r="687" spans="2:12" s="7" customFormat="1">
+    <row r="687" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B687" s="10"/>
       <c r="C687" s="10"/>
       <c r="D687" s="10"/>
@@ -9595,7 +9640,7 @@
       <c r="K687" s="10"/>
       <c r="L687" s="10"/>
     </row>
-    <row r="688" spans="2:12" s="7" customFormat="1">
+    <row r="688" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B688" s="10"/>
       <c r="C688" s="10"/>
       <c r="D688" s="10"/>
@@ -9608,7 +9653,7 @@
       <c r="K688" s="10"/>
       <c r="L688" s="10"/>
     </row>
-    <row r="689" spans="2:12" s="7" customFormat="1">
+    <row r="689" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B689" s="10"/>
       <c r="C689" s="10"/>
       <c r="D689" s="10"/>
@@ -9621,7 +9666,7 @@
       <c r="K689" s="10"/>
       <c r="L689" s="10"/>
     </row>
-    <row r="690" spans="2:12" s="7" customFormat="1">
+    <row r="690" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B690" s="10"/>
       <c r="C690" s="10"/>
       <c r="D690" s="10"/>
@@ -9634,7 +9679,7 @@
       <c r="K690" s="10"/>
       <c r="L690" s="10"/>
     </row>
-    <row r="691" spans="2:12" s="7" customFormat="1">
+    <row r="691" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B691" s="10"/>
       <c r="C691" s="10"/>
       <c r="D691" s="10"/>
@@ -9647,7 +9692,7 @@
       <c r="K691" s="10"/>
       <c r="L691" s="10"/>
     </row>
-    <row r="692" spans="2:12" s="7" customFormat="1">
+    <row r="692" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B692" s="10"/>
       <c r="C692" s="10"/>
       <c r="D692" s="10"/>
@@ -9660,7 +9705,7 @@
       <c r="K692" s="10"/>
       <c r="L692" s="10"/>
     </row>
-    <row r="693" spans="2:12" s="7" customFormat="1">
+    <row r="693" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B693" s="10"/>
       <c r="C693" s="10"/>
       <c r="D693" s="10"/>
@@ -9673,7 +9718,7 @@
       <c r="K693" s="10"/>
       <c r="L693" s="10"/>
     </row>
-    <row r="694" spans="2:12" s="7" customFormat="1">
+    <row r="694" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B694" s="10"/>
       <c r="C694" s="10"/>
       <c r="D694" s="10"/>
@@ -9686,7 +9731,7 @@
       <c r="K694" s="10"/>
       <c r="L694" s="10"/>
     </row>
-    <row r="695" spans="2:12" s="7" customFormat="1">
+    <row r="695" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B695" s="10"/>
       <c r="C695" s="10"/>
       <c r="D695" s="10"/>
@@ -9699,7 +9744,7 @@
       <c r="K695" s="10"/>
       <c r="L695" s="10"/>
     </row>
-    <row r="696" spans="2:12" s="7" customFormat="1">
+    <row r="696" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B696" s="10"/>
       <c r="C696" s="10"/>
       <c r="D696" s="10"/>
@@ -9712,7 +9757,7 @@
       <c r="K696" s="10"/>
       <c r="L696" s="10"/>
     </row>
-    <row r="697" spans="2:12" s="7" customFormat="1">
+    <row r="697" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B697" s="10"/>
       <c r="C697" s="10"/>
       <c r="D697" s="10"/>
@@ -9725,7 +9770,7 @@
       <c r="K697" s="10"/>
       <c r="L697" s="10"/>
     </row>
-    <row r="698" spans="2:12" s="7" customFormat="1">
+    <row r="698" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B698" s="10"/>
       <c r="C698" s="10"/>
       <c r="D698" s="10"/>
@@ -9738,7 +9783,7 @@
       <c r="K698" s="10"/>
       <c r="L698" s="10"/>
     </row>
-    <row r="699" spans="2:12" s="7" customFormat="1">
+    <row r="699" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B699" s="10"/>
       <c r="C699" s="10"/>
       <c r="D699" s="10"/>
@@ -9751,7 +9796,7 @@
       <c r="K699" s="10"/>
       <c r="L699" s="10"/>
     </row>
-    <row r="700" spans="2:12" s="7" customFormat="1">
+    <row r="700" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B700" s="10"/>
       <c r="C700" s="10"/>
       <c r="D700" s="10"/>
@@ -9764,7 +9809,7 @@
       <c r="K700" s="10"/>
       <c r="L700" s="10"/>
     </row>
-    <row r="701" spans="2:12" s="7" customFormat="1">
+    <row r="701" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B701" s="10"/>
       <c r="C701" s="10"/>
       <c r="D701" s="10"/>
@@ -9777,7 +9822,7 @@
       <c r="K701" s="10"/>
       <c r="L701" s="10"/>
     </row>
-    <row r="702" spans="2:12" s="7" customFormat="1">
+    <row r="702" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B702" s="10"/>
       <c r="C702" s="10"/>
       <c r="D702" s="10"/>
@@ -9790,7 +9835,7 @@
       <c r="K702" s="10"/>
       <c r="L702" s="10"/>
     </row>
-    <row r="703" spans="2:12" s="7" customFormat="1">
+    <row r="703" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B703" s="10"/>
       <c r="C703" s="10"/>
       <c r="D703" s="10"/>
@@ -9803,7 +9848,7 @@
       <c r="K703" s="10"/>
       <c r="L703" s="10"/>
     </row>
-    <row r="704" spans="2:12" s="7" customFormat="1">
+    <row r="704" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B704" s="10"/>
       <c r="C704" s="10"/>
       <c r="D704" s="10"/>
@@ -9816,7 +9861,7 @@
       <c r="K704" s="10"/>
       <c r="L704" s="10"/>
     </row>
-    <row r="705" spans="2:12" s="7" customFormat="1">
+    <row r="705" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B705" s="10"/>
       <c r="C705" s="10"/>
       <c r="D705" s="10"/>
@@ -9829,7 +9874,7 @@
       <c r="K705" s="10"/>
       <c r="L705" s="10"/>
     </row>
-    <row r="706" spans="2:12" s="7" customFormat="1">
+    <row r="706" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B706" s="10"/>
       <c r="C706" s="10"/>
       <c r="D706" s="10"/>
@@ -9842,7 +9887,7 @@
       <c r="K706" s="10"/>
       <c r="L706" s="10"/>
     </row>
-    <row r="707" spans="2:12" s="7" customFormat="1">
+    <row r="707" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B707" s="10"/>
       <c r="C707" s="10"/>
       <c r="D707" s="10"/>
@@ -9855,7 +9900,7 @@
       <c r="K707" s="10"/>
       <c r="L707" s="10"/>
     </row>
-    <row r="708" spans="2:12" s="7" customFormat="1">
+    <row r="708" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B708" s="10"/>
       <c r="C708" s="10"/>
       <c r="D708" s="10"/>
@@ -9868,7 +9913,7 @@
       <c r="K708" s="10"/>
       <c r="L708" s="10"/>
     </row>
-    <row r="709" spans="2:12" s="7" customFormat="1">
+    <row r="709" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B709" s="10"/>
       <c r="C709" s="10"/>
       <c r="D709" s="10"/>
@@ -9881,7 +9926,7 @@
       <c r="K709" s="10"/>
       <c r="L709" s="10"/>
     </row>
-    <row r="710" spans="2:12" s="7" customFormat="1">
+    <row r="710" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B710" s="10"/>
       <c r="C710" s="10"/>
       <c r="D710" s="10"/>
@@ -9894,7 +9939,7 @@
       <c r="K710" s="10"/>
       <c r="L710" s="10"/>
     </row>
-    <row r="711" spans="2:12" s="7" customFormat="1">
+    <row r="711" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B711" s="10"/>
       <c r="C711" s="10"/>
       <c r="D711" s="10"/>
@@ -9907,7 +9952,7 @@
       <c r="K711" s="10"/>
       <c r="L711" s="10"/>
     </row>
-    <row r="712" spans="2:12" s="7" customFormat="1">
+    <row r="712" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B712" s="10"/>
       <c r="C712" s="10"/>
       <c r="D712" s="10"/>
@@ -9920,7 +9965,7 @@
       <c r="K712" s="10"/>
       <c r="L712" s="10"/>
     </row>
-    <row r="713" spans="2:12" s="7" customFormat="1">
+    <row r="713" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B713" s="10"/>
       <c r="C713" s="10"/>
       <c r="D713" s="10"/>
@@ -9933,7 +9978,7 @@
       <c r="K713" s="10"/>
       <c r="L713" s="10"/>
     </row>
-    <row r="714" spans="2:12" s="7" customFormat="1">
+    <row r="714" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B714" s="10"/>
       <c r="C714" s="10"/>
       <c r="D714" s="10"/>
@@ -9946,7 +9991,7 @@
       <c r="K714" s="10"/>
       <c r="L714" s="10"/>
     </row>
-    <row r="715" spans="2:12" s="7" customFormat="1">
+    <row r="715" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B715" s="10"/>
       <c r="C715" s="10"/>
       <c r="D715" s="10"/>
@@ -9959,7 +10004,7 @@
       <c r="K715" s="10"/>
       <c r="L715" s="10"/>
     </row>
-    <row r="716" spans="2:12" s="7" customFormat="1">
+    <row r="716" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B716" s="10"/>
       <c r="C716" s="10"/>
       <c r="D716" s="10"/>
@@ -9972,7 +10017,7 @@
       <c r="K716" s="10"/>
       <c r="L716" s="10"/>
     </row>
-    <row r="717" spans="2:12" s="7" customFormat="1">
+    <row r="717" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B717" s="10"/>
       <c r="C717" s="10"/>
       <c r="D717" s="10"/>
@@ -9985,7 +10030,7 @@
       <c r="K717" s="10"/>
       <c r="L717" s="10"/>
     </row>
-    <row r="718" spans="2:12" s="7" customFormat="1">
+    <row r="718" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B718" s="10"/>
       <c r="C718" s="10"/>
       <c r="D718" s="10"/>
@@ -9998,7 +10043,7 @@
       <c r="K718" s="10"/>
       <c r="L718" s="10"/>
     </row>
-    <row r="719" spans="2:12" s="7" customFormat="1">
+    <row r="719" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B719" s="10"/>
       <c r="C719" s="10"/>
       <c r="D719" s="10"/>
@@ -10011,7 +10056,7 @@
       <c r="K719" s="10"/>
       <c r="L719" s="10"/>
     </row>
-    <row r="720" spans="2:12" s="7" customFormat="1">
+    <row r="720" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B720" s="10"/>
       <c r="C720" s="10"/>
       <c r="D720" s="10"/>
@@ -10024,7 +10069,7 @@
       <c r="K720" s="10"/>
       <c r="L720" s="10"/>
     </row>
-    <row r="721" spans="2:12" s="7" customFormat="1">
+    <row r="721" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B721" s="10"/>
       <c r="C721" s="10"/>
       <c r="D721" s="10"/>
@@ -10037,7 +10082,7 @@
       <c r="K721" s="10"/>
       <c r="L721" s="10"/>
     </row>
-    <row r="722" spans="2:12" s="7" customFormat="1">
+    <row r="722" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B722" s="10"/>
       <c r="C722" s="10"/>
       <c r="D722" s="10"/>
@@ -10050,7 +10095,7 @@
       <c r="K722" s="10"/>
       <c r="L722" s="10"/>
     </row>
-    <row r="723" spans="2:12" s="7" customFormat="1">
+    <row r="723" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B723" s="10"/>
       <c r="C723" s="10"/>
       <c r="D723" s="10"/>
@@ -10063,7 +10108,7 @@
       <c r="K723" s="10"/>
       <c r="L723" s="10"/>
     </row>
-    <row r="724" spans="2:12" s="7" customFormat="1">
+    <row r="724" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B724" s="10"/>
       <c r="C724" s="10"/>
       <c r="D724" s="10"/>
@@ -10076,7 +10121,7 @@
       <c r="K724" s="10"/>
       <c r="L724" s="10"/>
     </row>
-    <row r="725" spans="2:12" s="7" customFormat="1">
+    <row r="725" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B725" s="10"/>
       <c r="C725" s="10"/>
       <c r="D725" s="10"/>
@@ -10089,7 +10134,7 @@
       <c r="K725" s="10"/>
       <c r="L725" s="10"/>
     </row>
-    <row r="726" spans="2:12" s="7" customFormat="1">
+    <row r="726" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B726" s="10"/>
       <c r="C726" s="10"/>
       <c r="D726" s="10"/>
@@ -10102,7 +10147,7 @@
       <c r="K726" s="10"/>
       <c r="L726" s="10"/>
     </row>
-    <row r="727" spans="2:12" s="7" customFormat="1">
+    <row r="727" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B727" s="10"/>
       <c r="C727" s="10"/>
       <c r="D727" s="10"/>
@@ -10115,7 +10160,7 @@
       <c r="K727" s="10"/>
       <c r="L727" s="10"/>
     </row>
-    <row r="728" spans="2:12" s="7" customFormat="1">
+    <row r="728" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B728" s="10"/>
       <c r="C728" s="10"/>
       <c r="D728" s="10"/>
@@ -10128,7 +10173,7 @@
       <c r="K728" s="10"/>
       <c r="L728" s="10"/>
     </row>
-    <row r="729" spans="2:12" s="7" customFormat="1">
+    <row r="729" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B729" s="10"/>
       <c r="C729" s="10"/>
       <c r="D729" s="10"/>
@@ -10141,7 +10186,7 @@
       <c r="K729" s="10"/>
       <c r="L729" s="10"/>
     </row>
-    <row r="730" spans="2:12" s="7" customFormat="1">
+    <row r="730" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B730" s="10"/>
       <c r="C730" s="10"/>
       <c r="D730" s="10"/>
@@ -10154,7 +10199,7 @@
       <c r="K730" s="10"/>
       <c r="L730" s="10"/>
     </row>
-    <row r="731" spans="2:12" s="7" customFormat="1">
+    <row r="731" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B731" s="10"/>
       <c r="C731" s="10"/>
       <c r="D731" s="10"/>
@@ -10167,7 +10212,7 @@
       <c r="K731" s="10"/>
       <c r="L731" s="10"/>
     </row>
-    <row r="732" spans="2:12" s="7" customFormat="1">
+    <row r="732" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B732" s="10"/>
       <c r="C732" s="10"/>
       <c r="D732" s="10"/>
@@ -10180,7 +10225,7 @@
       <c r="K732" s="10"/>
       <c r="L732" s="10"/>
     </row>
-    <row r="733" spans="2:12" s="7" customFormat="1">
+    <row r="733" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B733" s="10"/>
       <c r="C733" s="10"/>
       <c r="D733" s="10"/>
@@ -10193,7 +10238,7 @@
       <c r="K733" s="10"/>
       <c r="L733" s="10"/>
     </row>
-    <row r="734" spans="2:12" s="7" customFormat="1">
+    <row r="734" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B734" s="10"/>
       <c r="C734" s="10"/>
       <c r="D734" s="10"/>
@@ -10206,7 +10251,7 @@
       <c r="K734" s="10"/>
       <c r="L734" s="10"/>
     </row>
-    <row r="735" spans="2:12" s="7" customFormat="1">
+    <row r="735" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B735" s="10"/>
       <c r="C735" s="10"/>
       <c r="D735" s="10"/>
@@ -10219,7 +10264,7 @@
       <c r="K735" s="10"/>
       <c r="L735" s="10"/>
     </row>
-    <row r="736" spans="2:12" s="7" customFormat="1">
+    <row r="736" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B736" s="10"/>
       <c r="C736" s="10"/>
       <c r="D736" s="10"/>
@@ -10232,7 +10277,7 @@
       <c r="K736" s="10"/>
       <c r="L736" s="10"/>
     </row>
-    <row r="737" spans="2:12" s="7" customFormat="1">
+    <row r="737" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B737" s="10"/>
       <c r="C737" s="10"/>
       <c r="D737" s="10"/>
@@ -10245,7 +10290,7 @@
       <c r="K737" s="10"/>
       <c r="L737" s="10"/>
     </row>
-    <row r="738" spans="2:12" s="7" customFormat="1">
+    <row r="738" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B738" s="10"/>
       <c r="C738" s="10"/>
       <c r="D738" s="10"/>
@@ -10258,7 +10303,7 @@
       <c r="K738" s="10"/>
       <c r="L738" s="10"/>
     </row>
-    <row r="739" spans="2:12" s="7" customFormat="1">
+    <row r="739" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B739" s="10"/>
       <c r="C739" s="10"/>
       <c r="D739" s="10"/>
@@ -10271,7 +10316,7 @@
       <c r="K739" s="10"/>
       <c r="L739" s="10"/>
     </row>
-    <row r="740" spans="2:12" s="7" customFormat="1">
+    <row r="740" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B740" s="10"/>
       <c r="C740" s="10"/>
       <c r="D740" s="10"/>
@@ -10284,7 +10329,7 @@
       <c r="K740" s="10"/>
       <c r="L740" s="10"/>
     </row>
-    <row r="741" spans="2:12" s="7" customFormat="1">
+    <row r="741" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B741" s="10"/>
       <c r="C741" s="10"/>
       <c r="D741" s="10"/>
@@ -10297,7 +10342,7 @@
       <c r="K741" s="10"/>
       <c r="L741" s="10"/>
     </row>
-    <row r="742" spans="2:12" s="7" customFormat="1">
+    <row r="742" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B742" s="10"/>
       <c r="C742" s="10"/>
       <c r="D742" s="10"/>
@@ -10310,7 +10355,7 @@
       <c r="K742" s="10"/>
       <c r="L742" s="10"/>
     </row>
-    <row r="743" spans="2:12" s="7" customFormat="1">
+    <row r="743" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B743" s="10"/>
       <c r="C743" s="10"/>
       <c r="D743" s="10"/>
@@ -10323,7 +10368,7 @@
       <c r="K743" s="10"/>
       <c r="L743" s="10"/>
     </row>
-    <row r="744" spans="2:12" s="7" customFormat="1">
+    <row r="744" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B744" s="10"/>
       <c r="C744" s="10"/>
       <c r="D744" s="10"/>
@@ -10336,7 +10381,7 @@
       <c r="K744" s="10"/>
       <c r="L744" s="10"/>
     </row>
-    <row r="745" spans="2:12" s="7" customFormat="1">
+    <row r="745" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B745" s="10"/>
       <c r="C745" s="10"/>
       <c r="D745" s="10"/>
@@ -10349,7 +10394,7 @@
       <c r="K745" s="10"/>
       <c r="L745" s="10"/>
     </row>
-    <row r="746" spans="2:12" s="7" customFormat="1">
+    <row r="746" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B746" s="10"/>
       <c r="C746" s="10"/>
       <c r="D746" s="10"/>
@@ -10362,7 +10407,7 @@
       <c r="K746" s="10"/>
       <c r="L746" s="10"/>
     </row>
-    <row r="747" spans="2:12" s="7" customFormat="1">
+    <row r="747" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B747" s="10"/>
       <c r="C747" s="10"/>
       <c r="D747" s="10"/>
@@ -10375,7 +10420,7 @@
       <c r="K747" s="10"/>
       <c r="L747" s="10"/>
     </row>
-    <row r="748" spans="2:12" s="7" customFormat="1">
+    <row r="748" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B748" s="10"/>
       <c r="C748" s="10"/>
       <c r="D748" s="10"/>
@@ -10388,7 +10433,7 @@
       <c r="K748" s="10"/>
       <c r="L748" s="10"/>
     </row>
-    <row r="749" spans="2:12" s="7" customFormat="1">
+    <row r="749" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B749" s="10"/>
       <c r="C749" s="10"/>
       <c r="D749" s="10"/>
@@ -10401,7 +10446,7 @@
       <c r="K749" s="10"/>
       <c r="L749" s="10"/>
     </row>
-    <row r="750" spans="2:12" s="7" customFormat="1">
+    <row r="750" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B750" s="10"/>
       <c r="C750" s="10"/>
       <c r="D750" s="10"/>
@@ -10414,7 +10459,7 @@
       <c r="K750" s="10"/>
       <c r="L750" s="10"/>
     </row>
-    <row r="751" spans="2:12" s="7" customFormat="1">
+    <row r="751" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B751" s="10"/>
       <c r="C751" s="10"/>
       <c r="D751" s="10"/>
@@ -10427,7 +10472,7 @@
       <c r="K751" s="10"/>
       <c r="L751" s="10"/>
     </row>
-    <row r="752" spans="2:12" s="7" customFormat="1">
+    <row r="752" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B752" s="10"/>
       <c r="C752" s="10"/>
       <c r="D752" s="10"/>
@@ -10440,7 +10485,7 @@
       <c r="K752" s="10"/>
       <c r="L752" s="10"/>
     </row>
-    <row r="753" spans="2:12" s="7" customFormat="1">
+    <row r="753" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B753" s="10"/>
       <c r="C753" s="10"/>
       <c r="D753" s="10"/>
@@ -10453,7 +10498,7 @@
       <c r="K753" s="10"/>
       <c r="L753" s="10"/>
     </row>
-    <row r="754" spans="2:12" s="7" customFormat="1">
+    <row r="754" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B754" s="10"/>
       <c r="C754" s="10"/>
       <c r="D754" s="10"/>
@@ -10466,7 +10511,7 @@
       <c r="K754" s="10"/>
       <c r="L754" s="10"/>
     </row>
-    <row r="755" spans="2:12" s="7" customFormat="1">
+    <row r="755" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B755" s="10"/>
       <c r="C755" s="10"/>
       <c r="D755" s="10"/>
@@ -10479,7 +10524,7 @@
       <c r="K755" s="10"/>
       <c r="L755" s="10"/>
     </row>
-    <row r="756" spans="2:12" s="7" customFormat="1">
+    <row r="756" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B756" s="10"/>
       <c r="C756" s="10"/>
       <c r="D756" s="10"/>
@@ -10492,7 +10537,7 @@
       <c r="K756" s="10"/>
       <c r="L756" s="10"/>
     </row>
-    <row r="757" spans="2:12" s="7" customFormat="1">
+    <row r="757" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B757" s="10"/>
       <c r="C757" s="10"/>
       <c r="D757" s="10"/>
@@ -10505,7 +10550,7 @@
       <c r="K757" s="10"/>
       <c r="L757" s="10"/>
     </row>
-    <row r="758" spans="2:12" s="7" customFormat="1">
+    <row r="758" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B758" s="10"/>
       <c r="C758" s="10"/>
       <c r="D758" s="10"/>
@@ -10518,7 +10563,7 @@
       <c r="K758" s="10"/>
       <c r="L758" s="10"/>
     </row>
-    <row r="759" spans="2:12" s="7" customFormat="1">
+    <row r="759" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B759" s="10"/>
       <c r="C759" s="10"/>
       <c r="D759" s="10"/>
@@ -10531,7 +10576,7 @@
       <c r="K759" s="10"/>
       <c r="L759" s="10"/>
     </row>
-    <row r="760" spans="2:12" s="7" customFormat="1">
+    <row r="760" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B760" s="10"/>
       <c r="C760" s="10"/>
       <c r="D760" s="10"/>
@@ -10544,7 +10589,7 @@
       <c r="K760" s="10"/>
       <c r="L760" s="10"/>
     </row>
-    <row r="761" spans="2:12" s="7" customFormat="1">
+    <row r="761" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B761" s="10"/>
       <c r="C761" s="10"/>
       <c r="D761" s="10"/>
@@ -10557,7 +10602,7 @@
       <c r="K761" s="10"/>
       <c r="L761" s="10"/>
     </row>
-    <row r="762" spans="2:12" s="7" customFormat="1">
+    <row r="762" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B762" s="10"/>
       <c r="C762" s="10"/>
       <c r="D762" s="10"/>
@@ -10570,7 +10615,7 @@
       <c r="K762" s="10"/>
       <c r="L762" s="10"/>
     </row>
-    <row r="763" spans="2:12" s="7" customFormat="1">
+    <row r="763" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B763" s="10"/>
       <c r="C763" s="10"/>
       <c r="D763" s="10"/>
@@ -10583,7 +10628,7 @@
       <c r="K763" s="10"/>
       <c r="L763" s="10"/>
     </row>
-    <row r="764" spans="2:12" s="7" customFormat="1">
+    <row r="764" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B764" s="10"/>
       <c r="C764" s="10"/>
       <c r="D764" s="10"/>
@@ -10596,7 +10641,7 @@
       <c r="K764" s="10"/>
       <c r="L764" s="10"/>
     </row>
-    <row r="765" spans="2:12" s="7" customFormat="1">
+    <row r="765" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B765" s="10"/>
       <c r="C765" s="10"/>
       <c r="D765" s="10"/>
@@ -10609,7 +10654,7 @@
       <c r="K765" s="10"/>
       <c r="L765" s="10"/>
     </row>
-    <row r="766" spans="2:12" s="7" customFormat="1">
+    <row r="766" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B766" s="10"/>
       <c r="C766" s="10"/>
       <c r="D766" s="10"/>
@@ -10622,7 +10667,7 @@
       <c r="K766" s="10"/>
       <c r="L766" s="10"/>
     </row>
-    <row r="767" spans="2:12" s="7" customFormat="1">
+    <row r="767" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B767" s="10"/>
       <c r="C767" s="10"/>
       <c r="D767" s="10"/>
@@ -10635,7 +10680,7 @@
       <c r="K767" s="10"/>
       <c r="L767" s="10"/>
     </row>
-    <row r="768" spans="2:12" s="7" customFormat="1">
+    <row r="768" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B768" s="10"/>
       <c r="C768" s="10"/>
       <c r="D768" s="10"/>
@@ -10648,7 +10693,7 @@
       <c r="K768" s="10"/>
       <c r="L768" s="10"/>
     </row>
-    <row r="769" spans="2:12" s="7" customFormat="1">
+    <row r="769" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B769" s="10"/>
       <c r="C769" s="10"/>
       <c r="D769" s="10"/>
@@ -10661,7 +10706,7 @@
       <c r="K769" s="10"/>
       <c r="L769" s="10"/>
     </row>
-    <row r="770" spans="2:12" s="7" customFormat="1">
+    <row r="770" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B770" s="10"/>
       <c r="C770" s="10"/>
       <c r="D770" s="10"/>
@@ -10674,7 +10719,7 @@
       <c r="K770" s="10"/>
       <c r="L770" s="10"/>
     </row>
-    <row r="771" spans="2:12" s="7" customFormat="1">
+    <row r="771" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B771" s="10"/>
       <c r="C771" s="10"/>
       <c r="D771" s="10"/>
@@ -10687,7 +10732,7 @@
       <c r="K771" s="10"/>
       <c r="L771" s="10"/>
     </row>
-    <row r="772" spans="2:12" s="7" customFormat="1">
+    <row r="772" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B772" s="10"/>
       <c r="C772" s="10"/>
       <c r="D772" s="10"/>
@@ -10700,7 +10745,7 @@
       <c r="K772" s="10"/>
       <c r="L772" s="10"/>
     </row>
-    <row r="773" spans="2:12" s="7" customFormat="1">
+    <row r="773" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B773" s="10"/>
       <c r="C773" s="10"/>
       <c r="D773" s="10"/>
@@ -10713,7 +10758,7 @@
       <c r="K773" s="10"/>
       <c r="L773" s="10"/>
     </row>
-    <row r="774" spans="2:12" s="7" customFormat="1">
+    <row r="774" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B774" s="10"/>
       <c r="C774" s="10"/>
       <c r="D774" s="10"/>
@@ -10726,7 +10771,7 @@
       <c r="K774" s="10"/>
       <c r="L774" s="10"/>
     </row>
-    <row r="775" spans="2:12" s="7" customFormat="1">
+    <row r="775" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B775" s="10"/>
       <c r="C775" s="10"/>
       <c r="D775" s="10"/>
@@ -10739,7 +10784,7 @@
       <c r="K775" s="10"/>
       <c r="L775" s="10"/>
     </row>
-    <row r="776" spans="2:12" s="7" customFormat="1">
+    <row r="776" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B776" s="10"/>
       <c r="C776" s="10"/>
       <c r="D776" s="10"/>
@@ -10752,7 +10797,7 @@
       <c r="K776" s="10"/>
       <c r="L776" s="10"/>
     </row>
-    <row r="777" spans="2:12" s="7" customFormat="1">
+    <row r="777" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B777" s="10"/>
       <c r="C777" s="10"/>
       <c r="D777" s="10"/>
@@ -10765,7 +10810,7 @@
       <c r="K777" s="10"/>
       <c r="L777" s="10"/>
     </row>
-    <row r="778" spans="2:12" s="7" customFormat="1">
+    <row r="778" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B778" s="10"/>
       <c r="C778" s="10"/>
       <c r="D778" s="10"/>
@@ -10778,7 +10823,7 @@
       <c r="K778" s="10"/>
       <c r="L778" s="10"/>
     </row>
-    <row r="779" spans="2:12" s="7" customFormat="1">
+    <row r="779" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B779" s="10"/>
       <c r="C779" s="10"/>
       <c r="D779" s="10"/>
@@ -10791,7 +10836,7 @@
       <c r="K779" s="10"/>
       <c r="L779" s="10"/>
     </row>
-    <row r="780" spans="2:12" s="7" customFormat="1">
+    <row r="780" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B780" s="10"/>
       <c r="C780" s="10"/>
       <c r="D780" s="10"/>
@@ -10804,7 +10849,7 @@
       <c r="K780" s="10"/>
       <c r="L780" s="10"/>
     </row>
-    <row r="781" spans="2:12" s="7" customFormat="1">
+    <row r="781" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B781" s="10"/>
       <c r="C781" s="10"/>
       <c r="D781" s="10"/>
@@ -10817,7 +10862,7 @@
       <c r="K781" s="10"/>
       <c r="L781" s="10"/>
     </row>
-    <row r="782" spans="2:12" s="7" customFormat="1">
+    <row r="782" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B782" s="10"/>
       <c r="C782" s="10"/>
       <c r="D782" s="10"/>
@@ -10830,7 +10875,7 @@
       <c r="K782" s="10"/>
       <c r="L782" s="10"/>
     </row>
-    <row r="783" spans="2:12" s="7" customFormat="1">
+    <row r="783" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B783" s="10"/>
       <c r="C783" s="10"/>
       <c r="D783" s="10"/>
@@ -10843,7 +10888,7 @@
       <c r="K783" s="10"/>
       <c r="L783" s="10"/>
     </row>
-    <row r="784" spans="2:12" s="7" customFormat="1">
+    <row r="784" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B784" s="10"/>
       <c r="C784" s="10"/>
       <c r="D784" s="10"/>
@@ -10856,7 +10901,7 @@
       <c r="K784" s="10"/>
       <c r="L784" s="10"/>
     </row>
-    <row r="785" spans="2:12" s="7" customFormat="1">
+    <row r="785" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B785" s="10"/>
       <c r="C785" s="10"/>
       <c r="D785" s="10"/>
@@ -10869,7 +10914,7 @@
       <c r="K785" s="10"/>
       <c r="L785" s="10"/>
     </row>
-    <row r="786" spans="2:12" s="7" customFormat="1">
+    <row r="786" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B786" s="10"/>
       <c r="C786" s="10"/>
       <c r="D786" s="10"/>
@@ -10882,7 +10927,7 @@
       <c r="K786" s="10"/>
       <c r="L786" s="10"/>
     </row>
-    <row r="787" spans="2:12" s="7" customFormat="1">
+    <row r="787" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B787" s="10"/>
       <c r="C787" s="10"/>
       <c r="D787" s="10"/>
@@ -10895,7 +10940,7 @@
       <c r="K787" s="10"/>
       <c r="L787" s="10"/>
     </row>
-    <row r="788" spans="2:12" s="7" customFormat="1">
+    <row r="788" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B788" s="10"/>
       <c r="C788" s="10"/>
       <c r="D788" s="10"/>
@@ -10908,7 +10953,7 @@
       <c r="K788" s="10"/>
       <c r="L788" s="10"/>
     </row>
-    <row r="789" spans="2:12" s="7" customFormat="1">
+    <row r="789" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B789" s="10"/>
       <c r="C789" s="10"/>
       <c r="D789" s="10"/>
@@ -10921,7 +10966,7 @@
       <c r="K789" s="10"/>
       <c r="L789" s="10"/>
     </row>
-    <row r="790" spans="2:12" s="7" customFormat="1">
+    <row r="790" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B790" s="10"/>
       <c r="C790" s="10"/>
       <c r="D790" s="10"/>
@@ -10934,7 +10979,7 @@
       <c r="K790" s="10"/>
       <c r="L790" s="10"/>
     </row>
-    <row r="791" spans="2:12" s="7" customFormat="1">
+    <row r="791" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B791" s="10"/>
       <c r="C791" s="10"/>
       <c r="D791" s="10"/>
@@ -10947,7 +10992,7 @@
       <c r="K791" s="10"/>
       <c r="L791" s="10"/>
     </row>
-    <row r="792" spans="2:12" s="7" customFormat="1">
+    <row r="792" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B792" s="10"/>
       <c r="C792" s="10"/>
       <c r="D792" s="10"/>
@@ -10960,7 +11005,7 @@
       <c r="K792" s="10"/>
       <c r="L792" s="10"/>
     </row>
-    <row r="793" spans="2:12" s="7" customFormat="1">
+    <row r="793" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B793" s="10"/>
       <c r="C793" s="10"/>
       <c r="D793" s="10"/>
@@ -10973,7 +11018,7 @@
       <c r="K793" s="10"/>
       <c r="L793" s="10"/>
     </row>
-    <row r="794" spans="2:12" s="7" customFormat="1">
+    <row r="794" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B794" s="10"/>
       <c r="C794" s="10"/>
       <c r="D794" s="10"/>
@@ -10986,7 +11031,7 @@
       <c r="K794" s="10"/>
       <c r="L794" s="10"/>
     </row>
-    <row r="795" spans="2:12" s="7" customFormat="1">
+    <row r="795" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B795" s="10"/>
       <c r="C795" s="10"/>
       <c r="D795" s="10"/>
@@ -10999,7 +11044,7 @@
       <c r="K795" s="10"/>
       <c r="L795" s="10"/>
     </row>
-    <row r="796" spans="2:12" s="7" customFormat="1">
+    <row r="796" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B796" s="10"/>
       <c r="C796" s="10"/>
       <c r="D796" s="10"/>
@@ -11012,7 +11057,7 @@
       <c r="K796" s="10"/>
       <c r="L796" s="10"/>
     </row>
-    <row r="797" spans="2:12" s="7" customFormat="1">
+    <row r="797" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B797" s="10"/>
       <c r="C797" s="10"/>
       <c r="D797" s="10"/>
@@ -11025,7 +11070,7 @@
       <c r="K797" s="10"/>
       <c r="L797" s="10"/>
     </row>
-    <row r="798" spans="2:12" s="7" customFormat="1">
+    <row r="798" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B798" s="10"/>
       <c r="C798" s="10"/>
       <c r="D798" s="10"/>
@@ -11038,7 +11083,7 @@
       <c r="K798" s="10"/>
       <c r="L798" s="10"/>
     </row>
-    <row r="799" spans="2:12" s="7" customFormat="1">
+    <row r="799" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B799" s="10"/>
       <c r="C799" s="10"/>
       <c r="D799" s="10"/>
@@ -11051,7 +11096,7 @@
       <c r="K799" s="10"/>
       <c r="L799" s="10"/>
     </row>
-    <row r="800" spans="2:12" s="7" customFormat="1">
+    <row r="800" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B800" s="10"/>
       <c r="C800" s="10"/>
       <c r="D800" s="10"/>
@@ -11064,7 +11109,7 @@
       <c r="K800" s="10"/>
       <c r="L800" s="10"/>
     </row>
-    <row r="801" spans="1:12" s="7" customFormat="1">
+    <row r="801" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B801" s="10"/>
       <c r="C801" s="10"/>
       <c r="D801" s="10"/>
@@ -11077,7 +11122,7 @@
       <c r="K801" s="10"/>
       <c r="L801" s="10"/>
     </row>
-    <row r="802" spans="1:12" s="7" customFormat="1">
+    <row r="802" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B802" s="10"/>
       <c r="C802" s="10"/>
       <c r="D802" s="10"/>
@@ -11090,7 +11135,7 @@
       <c r="K802" s="10"/>
       <c r="L802" s="10"/>
     </row>
-    <row r="803" spans="1:12" s="7" customFormat="1">
+    <row r="803" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B803" s="10"/>
       <c r="C803" s="10"/>
       <c r="D803" s="10"/>
@@ -11103,7 +11148,7 @@
       <c r="K803" s="10"/>
       <c r="L803" s="10"/>
     </row>
-    <row r="804" spans="1:12" s="7" customFormat="1">
+    <row r="804" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B804" s="10"/>
       <c r="C804" s="10"/>
       <c r="D804" s="10"/>
@@ -11116,7 +11161,7 @@
       <c r="K804" s="10"/>
       <c r="L804" s="10"/>
     </row>
-    <row r="805" spans="1:12" s="7" customFormat="1">
+    <row r="805" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A805" s="12"/>
       <c r="B805" s="12"/>
       <c r="C805" s="10"/>
@@ -11130,7 +11175,7 @@
       <c r="K805" s="10"/>
       <c r="L805" s="10"/>
     </row>
-    <row r="806" spans="1:12" s="7" customFormat="1">
+    <row r="806" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B806" s="10"/>
       <c r="C806" s="10"/>
       <c r="D806" s="10"/>
@@ -11143,7 +11188,7 @@
       <c r="K806" s="10"/>
       <c r="L806" s="10"/>
     </row>
-    <row r="807" spans="1:12" s="7" customFormat="1">
+    <row r="807" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B807" s="10"/>
       <c r="C807" s="10"/>
       <c r="D807" s="10"/>
@@ -11156,7 +11201,7 @@
       <c r="K807" s="10"/>
       <c r="L807" s="10"/>
     </row>
-    <row r="808" spans="1:12" s="7" customFormat="1">
+    <row r="808" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B808" s="10"/>
       <c r="C808" s="10"/>
       <c r="D808" s="10"/>
@@ -11169,7 +11214,7 @@
       <c r="K808" s="10"/>
       <c r="L808" s="10"/>
     </row>
-    <row r="809" spans="1:12" s="7" customFormat="1">
+    <row r="809" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B809" s="10"/>
       <c r="C809" s="10"/>
       <c r="D809" s="10"/>
@@ -11182,7 +11227,7 @@
       <c r="K809" s="10"/>
       <c r="L809" s="10"/>
     </row>
-    <row r="810" spans="1:12" s="7" customFormat="1">
+    <row r="810" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A810" s="12"/>
       <c r="B810" s="12"/>
       <c r="C810" s="10"/>
@@ -11196,7 +11241,7 @@
       <c r="K810" s="10"/>
       <c r="L810" s="10"/>
     </row>
-    <row r="811" spans="1:12" s="7" customFormat="1">
+    <row r="811" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B811" s="10"/>
       <c r="C811" s="10"/>
       <c r="D811" s="10"/>
@@ -11209,7 +11254,7 @@
       <c r="K811" s="10"/>
       <c r="L811" s="10"/>
     </row>
-    <row r="812" spans="1:12" s="7" customFormat="1">
+    <row r="812" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B812" s="10"/>
       <c r="C812" s="10"/>
       <c r="D812" s="10"/>
@@ -11222,7 +11267,7 @@
       <c r="K812" s="10"/>
       <c r="L812" s="10"/>
     </row>
-    <row r="813" spans="1:12" s="7" customFormat="1">
+    <row r="813" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B813" s="10"/>
       <c r="C813" s="10"/>
       <c r="D813" s="10"/>
@@ -11235,7 +11280,7 @@
       <c r="K813" s="10"/>
       <c r="L813" s="10"/>
     </row>
-    <row r="814" spans="1:12" s="7" customFormat="1">
+    <row r="814" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B814" s="10"/>
       <c r="C814" s="10"/>
       <c r="D814" s="10"/>
@@ -11248,7 +11293,7 @@
       <c r="K814" s="10"/>
       <c r="L814" s="10"/>
     </row>
-    <row r="815" spans="1:12" s="7" customFormat="1">
+    <row r="815" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B815" s="10"/>
       <c r="C815" s="10"/>
       <c r="D815" s="10"/>
@@ -11261,7 +11306,7 @@
       <c r="K815" s="10"/>
       <c r="L815" s="10"/>
     </row>
-    <row r="816" spans="1:12" s="7" customFormat="1">
+    <row r="816" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B816" s="10"/>
       <c r="C816" s="10"/>
       <c r="D816" s="10"/>
@@ -11274,7 +11319,7 @@
       <c r="K816" s="10"/>
       <c r="L816" s="10"/>
     </row>
-    <row r="817" spans="1:12" s="7" customFormat="1">
+    <row r="817" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B817" s="10"/>
       <c r="C817" s="10"/>
       <c r="D817" s="10"/>
@@ -11287,7 +11332,7 @@
       <c r="K817" s="10"/>
       <c r="L817" s="10"/>
     </row>
-    <row r="818" spans="1:12" s="7" customFormat="1">
+    <row r="818" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B818" s="10"/>
       <c r="C818" s="10"/>
       <c r="D818" s="10"/>
@@ -11300,7 +11345,7 @@
       <c r="K818" s="10"/>
       <c r="L818" s="10"/>
     </row>
-    <row r="819" spans="1:12" s="7" customFormat="1">
+    <row r="819" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B819" s="10"/>
       <c r="C819" s="10"/>
       <c r="D819" s="10"/>
@@ -11313,7 +11358,7 @@
       <c r="K819" s="10"/>
       <c r="L819" s="10"/>
     </row>
-    <row r="820" spans="1:12" s="7" customFormat="1">
+    <row r="820" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B820" s="10"/>
       <c r="C820" s="10"/>
       <c r="D820" s="10"/>
@@ -11326,7 +11371,7 @@
       <c r="K820" s="10"/>
       <c r="L820" s="10"/>
     </row>
-    <row r="821" spans="1:12" s="7" customFormat="1">
+    <row r="821" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B821" s="10"/>
       <c r="C821" s="10"/>
       <c r="D821" s="10"/>
@@ -11339,7 +11384,7 @@
       <c r="K821" s="10"/>
       <c r="L821" s="10"/>
     </row>
-    <row r="822" spans="1:12" s="7" customFormat="1">
+    <row r="822" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B822" s="10"/>
       <c r="C822" s="10"/>
       <c r="D822" s="10"/>
@@ -11352,7 +11397,7 @@
       <c r="K822" s="10"/>
       <c r="L822" s="10"/>
     </row>
-    <row r="823" spans="1:12" s="7" customFormat="1">
+    <row r="823" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B823" s="10"/>
       <c r="C823" s="10"/>
       <c r="D823" s="10"/>
@@ -11365,7 +11410,7 @@
       <c r="K823" s="10"/>
       <c r="L823" s="10"/>
     </row>
-    <row r="824" spans="1:12" s="7" customFormat="1">
+    <row r="824" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B824" s="10"/>
       <c r="C824" s="10"/>
       <c r="D824" s="10"/>
@@ -11378,7 +11423,7 @@
       <c r="K824" s="10"/>
       <c r="L824" s="10"/>
     </row>
-    <row r="825" spans="1:12" s="7" customFormat="1">
+    <row r="825" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B825" s="10"/>
       <c r="C825" s="10"/>
       <c r="D825" s="10"/>
@@ -11391,7 +11436,7 @@
       <c r="K825" s="10"/>
       <c r="L825" s="10"/>
     </row>
-    <row r="826" spans="1:12" s="7" customFormat="1">
+    <row r="826" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B826" s="10"/>
       <c r="C826" s="10"/>
       <c r="D826" s="10"/>
@@ -11404,7 +11449,7 @@
       <c r="K826" s="10"/>
       <c r="L826" s="10"/>
     </row>
-    <row r="827" spans="1:12" s="7" customFormat="1">
+    <row r="827" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B827" s="10"/>
       <c r="C827" s="10"/>
       <c r="D827" s="10"/>
@@ -11417,7 +11462,7 @@
       <c r="K827" s="10"/>
       <c r="L827" s="10"/>
     </row>
-    <row r="828" spans="1:12" s="7" customFormat="1">
+    <row r="828" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B828" s="10"/>
       <c r="C828" s="10"/>
       <c r="D828" s="10"/>
@@ -11430,7 +11475,7 @@
       <c r="K828" s="10"/>
       <c r="L828" s="10"/>
     </row>
-    <row r="829" spans="1:12" s="7" customFormat="1">
+    <row r="829" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B829" s="10"/>
       <c r="C829" s="10"/>
       <c r="D829" s="10"/>
@@ -11443,7 +11488,7 @@
       <c r="K829" s="10"/>
       <c r="L829" s="10"/>
     </row>
-    <row r="830" spans="1:12" s="7" customFormat="1">
+    <row r="830" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B830" s="10"/>
       <c r="C830" s="10"/>
       <c r="D830" s="10"/>
@@ -11456,7 +11501,7 @@
       <c r="K830" s="10"/>
       <c r="L830" s="10"/>
     </row>
-    <row r="831" spans="1:12" s="7" customFormat="1">
+    <row r="831" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A831" s="12"/>
       <c r="B831" s="12"/>
       <c r="C831" s="10"/>
@@ -11470,7 +11515,7 @@
       <c r="K831" s="10"/>
       <c r="L831" s="10"/>
     </row>
-    <row r="832" spans="1:12" s="7" customFormat="1">
+    <row r="832" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B832" s="10"/>
       <c r="C832" s="10"/>
       <c r="D832" s="10"/>
@@ -11483,7 +11528,7 @@
       <c r="K832" s="10"/>
       <c r="L832" s="10"/>
     </row>
-    <row r="833" spans="1:12" s="7" customFormat="1">
+    <row r="833" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B833" s="10"/>
       <c r="C833" s="10"/>
       <c r="D833" s="10"/>
@@ -11496,7 +11541,7 @@
       <c r="K833" s="10"/>
       <c r="L833" s="10"/>
     </row>
-    <row r="834" spans="1:12" s="7" customFormat="1">
+    <row r="834" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B834" s="10"/>
       <c r="C834" s="10"/>
       <c r="D834" s="10"/>
@@ -11509,7 +11554,7 @@
       <c r="K834" s="10"/>
       <c r="L834" s="10"/>
     </row>
-    <row r="835" spans="1:12" s="7" customFormat="1">
+    <row r="835" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B835" s="10"/>
       <c r="C835" s="10"/>
       <c r="D835" s="10"/>
@@ -11522,7 +11567,7 @@
       <c r="K835" s="10"/>
       <c r="L835" s="10"/>
     </row>
-    <row r="836" spans="1:12" s="7" customFormat="1">
+    <row r="836" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B836" s="10"/>
       <c r="C836" s="10"/>
       <c r="D836" s="10"/>
@@ -11535,7 +11580,7 @@
       <c r="K836" s="10"/>
       <c r="L836" s="10"/>
     </row>
-    <row r="837" spans="1:12" s="7" customFormat="1">
+    <row r="837" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B837" s="10"/>
       <c r="C837" s="10"/>
       <c r="D837" s="10"/>
@@ -11548,7 +11593,7 @@
       <c r="K837" s="10"/>
       <c r="L837" s="10"/>
     </row>
-    <row r="838" spans="1:12" s="7" customFormat="1">
+    <row r="838" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A838" s="12"/>
       <c r="B838" s="12"/>
       <c r="C838" s="10"/>
@@ -11562,7 +11607,7 @@
       <c r="K838" s="10"/>
       <c r="L838" s="10"/>
     </row>
-    <row r="839" spans="1:12" s="7" customFormat="1">
+    <row r="839" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B839" s="10"/>
       <c r="C839" s="10"/>
       <c r="D839" s="10"/>
@@ -11575,7 +11620,7 @@
       <c r="K839" s="10"/>
       <c r="L839" s="10"/>
     </row>
-    <row r="840" spans="1:12" s="7" customFormat="1">
+    <row r="840" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B840" s="10"/>
       <c r="C840" s="10"/>
       <c r="D840" s="10"/>
@@ -11588,7 +11633,7 @@
       <c r="K840" s="10"/>
       <c r="L840" s="10"/>
     </row>
-    <row r="841" spans="1:12" s="7" customFormat="1">
+    <row r="841" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B841" s="10"/>
       <c r="C841" s="10"/>
       <c r="D841" s="10"/>
@@ -11601,7 +11646,7 @@
       <c r="K841" s="10"/>
       <c r="L841" s="10"/>
     </row>
-    <row r="842" spans="1:12" s="7" customFormat="1">
+    <row r="842" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B842" s="10"/>
       <c r="C842" s="10"/>
       <c r="D842" s="10"/>
@@ -11614,7 +11659,7 @@
       <c r="K842" s="10"/>
       <c r="L842" s="10"/>
     </row>
-    <row r="843" spans="1:12" s="7" customFormat="1">
+    <row r="843" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B843" s="10"/>
       <c r="C843" s="10"/>
       <c r="D843" s="10"/>
@@ -11627,7 +11672,7 @@
       <c r="K843" s="10"/>
       <c r="L843" s="10"/>
     </row>
-    <row r="844" spans="1:12" s="7" customFormat="1">
+    <row r="844" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B844" s="10"/>
       <c r="C844" s="10"/>
       <c r="D844" s="10"/>
@@ -11640,7 +11685,7 @@
       <c r="K844" s="10"/>
       <c r="L844" s="10"/>
     </row>
-    <row r="845" spans="1:12" s="7" customFormat="1">
+    <row r="845" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B845" s="10"/>
       <c r="C845" s="10"/>
       <c r="D845" s="10"/>
@@ -11653,7 +11698,7 @@
       <c r="K845" s="10"/>
       <c r="L845" s="10"/>
     </row>
-    <row r="846" spans="1:12" s="7" customFormat="1">
+    <row r="846" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B846" s="10"/>
       <c r="C846" s="10"/>
       <c r="D846" s="10"/>
@@ -11666,7 +11711,7 @@
       <c r="K846" s="10"/>
       <c r="L846" s="10"/>
     </row>
-    <row r="847" spans="1:12" s="7" customFormat="1">
+    <row r="847" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A847" s="12"/>
       <c r="B847" s="12"/>
       <c r="C847" s="10"/>
@@ -11680,7 +11725,7 @@
       <c r="K847" s="10"/>
       <c r="L847" s="10"/>
     </row>
-    <row r="848" spans="1:12" s="7" customFormat="1">
+    <row r="848" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B848" s="10"/>
       <c r="C848" s="10"/>
       <c r="D848" s="10"/>
@@ -11693,7 +11738,7 @@
       <c r="K848" s="10"/>
       <c r="L848" s="10"/>
     </row>
-    <row r="849" spans="2:12" s="7" customFormat="1">
+    <row r="849" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B849" s="10"/>
       <c r="C849" s="10"/>
       <c r="D849" s="10"/>
@@ -11706,7 +11751,7 @@
       <c r="K849" s="10"/>
       <c r="L849" s="10"/>
     </row>
-    <row r="850" spans="2:12" s="7" customFormat="1">
+    <row r="850" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B850" s="10"/>
       <c r="C850" s="10"/>
       <c r="D850" s="10"/>
@@ -11719,7 +11764,7 @@
       <c r="K850" s="10"/>
       <c r="L850" s="10"/>
     </row>
-    <row r="851" spans="2:12" s="7" customFormat="1">
+    <row r="851" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B851" s="10"/>
       <c r="C851" s="10"/>
       <c r="D851" s="10"/>
@@ -11732,7 +11777,7 @@
       <c r="K851" s="10"/>
       <c r="L851" s="10"/>
     </row>
-    <row r="852" spans="2:12" s="7" customFormat="1">
+    <row r="852" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B852" s="10"/>
       <c r="C852" s="10"/>
       <c r="D852" s="10"/>
@@ -11745,7 +11790,7 @@
       <c r="K852" s="10"/>
       <c r="L852" s="10"/>
     </row>
-    <row r="853" spans="2:12" s="7" customFormat="1">
+    <row r="853" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B853" s="10"/>
       <c r="C853" s="10"/>
       <c r="D853" s="10"/>
@@ -11758,7 +11803,7 @@
       <c r="K853" s="10"/>
       <c r="L853" s="10"/>
     </row>
-    <row r="854" spans="2:12" s="7" customFormat="1">
+    <row r="854" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B854" s="10"/>
       <c r="C854" s="10"/>
       <c r="D854" s="10"/>
@@ -11771,7 +11816,7 @@
       <c r="K854" s="10"/>
       <c r="L854" s="10"/>
     </row>
-    <row r="855" spans="2:12" s="7" customFormat="1">
+    <row r="855" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B855" s="10"/>
       <c r="C855" s="10"/>
       <c r="D855" s="10"/>
@@ -11784,7 +11829,7 @@
       <c r="K855" s="10"/>
       <c r="L855" s="10"/>
     </row>
-    <row r="856" spans="2:12" s="7" customFormat="1">
+    <row r="856" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B856" s="10"/>
       <c r="C856" s="10"/>
       <c r="D856" s="10"/>
@@ -11797,7 +11842,7 @@
       <c r="K856" s="10"/>
       <c r="L856" s="10"/>
     </row>
-    <row r="857" spans="2:12" s="7" customFormat="1">
+    <row r="857" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B857" s="10"/>
       <c r="C857" s="10"/>
       <c r="D857" s="10"/>
@@ -11810,7 +11855,7 @@
       <c r="K857" s="10"/>
       <c r="L857" s="10"/>
     </row>
-    <row r="858" spans="2:12" s="7" customFormat="1">
+    <row r="858" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B858" s="10"/>
       <c r="C858" s="10"/>
       <c r="D858" s="10"/>
@@ -11823,7 +11868,7 @@
       <c r="K858" s="10"/>
       <c r="L858" s="10"/>
     </row>
-    <row r="859" spans="2:12" s="7" customFormat="1">
+    <row r="859" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B859" s="10"/>
       <c r="C859" s="10"/>
       <c r="D859" s="10"/>
@@ -11836,7 +11881,7 @@
       <c r="K859" s="10"/>
       <c r="L859" s="10"/>
     </row>
-    <row r="860" spans="2:12" s="7" customFormat="1">
+    <row r="860" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B860" s="10"/>
       <c r="C860" s="10"/>
       <c r="D860" s="10"/>
@@ -11849,7 +11894,7 @@
       <c r="K860" s="10"/>
       <c r="L860" s="10"/>
     </row>
-    <row r="861" spans="2:12" s="7" customFormat="1">
+    <row r="861" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B861" s="10"/>
       <c r="C861" s="10"/>
       <c r="D861" s="10"/>
@@ -11862,7 +11907,7 @@
       <c r="K861" s="10"/>
       <c r="L861" s="10"/>
     </row>
-    <row r="862" spans="2:12" s="7" customFormat="1">
+    <row r="862" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B862" s="10"/>
       <c r="C862" s="10"/>
       <c r="D862" s="10"/>
@@ -11875,7 +11920,7 @@
       <c r="K862" s="10"/>
       <c r="L862" s="10"/>
     </row>
-    <row r="863" spans="2:12" s="7" customFormat="1">
+    <row r="863" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B863" s="10"/>
       <c r="C863" s="10"/>
       <c r="D863" s="10"/>
@@ -11888,7 +11933,7 @@
       <c r="K863" s="10"/>
       <c r="L863" s="10"/>
     </row>
-    <row r="864" spans="2:12" s="7" customFormat="1">
+    <row r="864" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B864" s="10"/>
       <c r="C864" s="10"/>
       <c r="D864" s="10"/>
@@ -11901,7 +11946,7 @@
       <c r="K864" s="10"/>
       <c r="L864" s="10"/>
     </row>
-    <row r="865" spans="1:12" s="7" customFormat="1">
+    <row r="865" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B865" s="10"/>
       <c r="C865" s="10"/>
       <c r="D865" s="10"/>
@@ -11914,7 +11959,7 @@
       <c r="K865" s="10"/>
       <c r="L865" s="10"/>
     </row>
-    <row r="866" spans="1:12" s="7" customFormat="1">
+    <row r="866" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B866" s="10"/>
       <c r="C866" s="10"/>
       <c r="D866" s="10"/>
@@ -11927,7 +11972,7 @@
       <c r="K866" s="10"/>
       <c r="L866" s="10"/>
     </row>
-    <row r="867" spans="1:12" s="7" customFormat="1">
+    <row r="867" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B867" s="10"/>
       <c r="C867" s="10"/>
       <c r="D867" s="10"/>
@@ -11940,7 +11985,7 @@
       <c r="K867" s="10"/>
       <c r="L867" s="10"/>
     </row>
-    <row r="868" spans="1:12" s="7" customFormat="1">
+    <row r="868" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B868" s="10"/>
       <c r="C868" s="10"/>
       <c r="D868" s="10"/>
@@ -11953,7 +11998,7 @@
       <c r="K868" s="10"/>
       <c r="L868" s="10"/>
     </row>
-    <row r="869" spans="1:12" s="7" customFormat="1">
+    <row r="869" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A869" s="12"/>
       <c r="B869" s="12"/>
       <c r="C869" s="10"/>
@@ -11967,7 +12012,7 @@
       <c r="K869" s="10"/>
       <c r="L869" s="10"/>
     </row>
-    <row r="870" spans="1:12" s="7" customFormat="1">
+    <row r="870" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B870" s="10"/>
       <c r="C870" s="10"/>
       <c r="D870" s="10"/>
@@ -11980,7 +12025,7 @@
       <c r="K870" s="10"/>
       <c r="L870" s="10"/>
     </row>
-    <row r="871" spans="1:12" s="7" customFormat="1">
+    <row r="871" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B871" s="10"/>
       <c r="C871" s="10"/>
       <c r="D871" s="10"/>
@@ -11993,7 +12038,7 @@
       <c r="K871" s="10"/>
       <c r="L871" s="10"/>
     </row>
-    <row r="872" spans="1:12" s="7" customFormat="1">
+    <row r="872" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B872" s="10"/>
       <c r="C872" s="10"/>
       <c r="D872" s="10"/>
@@ -12006,7 +12051,7 @@
       <c r="K872" s="10"/>
       <c r="L872" s="10"/>
     </row>
-    <row r="873" spans="1:12" s="7" customFormat="1">
+    <row r="873" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B873" s="10"/>
       <c r="C873" s="10"/>
       <c r="D873" s="10"/>
@@ -12019,7 +12064,7 @@
       <c r="K873" s="10"/>
       <c r="L873" s="10"/>
     </row>
-    <row r="874" spans="1:12" s="7" customFormat="1">
+    <row r="874" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A874" s="12"/>
       <c r="B874" s="12"/>
       <c r="C874" s="10"/>
@@ -12033,7 +12078,7 @@
       <c r="K874" s="10"/>
       <c r="L874" s="10"/>
     </row>
-    <row r="875" spans="1:12" s="7" customFormat="1">
+    <row r="875" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B875" s="10"/>
       <c r="C875" s="10"/>
       <c r="D875" s="10"/>
@@ -12046,7 +12091,7 @@
       <c r="K875" s="10"/>
       <c r="L875" s="10"/>
     </row>
-    <row r="876" spans="1:12" s="7" customFormat="1">
+    <row r="876" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A876" s="12"/>
       <c r="B876" s="12"/>
       <c r="C876" s="10"/>
@@ -12060,7 +12105,7 @@
       <c r="K876" s="10"/>
       <c r="L876" s="10"/>
     </row>
-    <row r="877" spans="1:12" s="7" customFormat="1">
+    <row r="877" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B877" s="10"/>
       <c r="C877" s="10"/>
       <c r="D877" s="10"/>
@@ -12073,7 +12118,7 @@
       <c r="K877" s="10"/>
       <c r="L877" s="10"/>
     </row>
-    <row r="878" spans="1:12" s="7" customFormat="1">
+    <row r="878" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B878" s="10"/>
       <c r="C878" s="10"/>
       <c r="D878" s="10"/>
@@ -12086,7 +12131,7 @@
       <c r="K878" s="10"/>
       <c r="L878" s="10"/>
     </row>
-    <row r="879" spans="1:12" s="7" customFormat="1">
+    <row r="879" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B879" s="10"/>
       <c r="C879" s="10"/>
       <c r="D879" s="10"/>
@@ -12099,7 +12144,7 @@
       <c r="K879" s="10"/>
       <c r="L879" s="10"/>
     </row>
-    <row r="880" spans="1:12" s="7" customFormat="1">
+    <row r="880" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B880" s="10"/>
       <c r="C880" s="10"/>
       <c r="D880" s="10"/>
@@ -12112,7 +12157,7 @@
       <c r="K880" s="10"/>
       <c r="L880" s="10"/>
     </row>
-    <row r="881" spans="2:12" s="7" customFormat="1">
+    <row r="881" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B881" s="10"/>
       <c r="C881" s="10"/>
       <c r="D881" s="10"/>
@@ -12125,7 +12170,7 @@
       <c r="K881" s="10"/>
       <c r="L881" s="10"/>
     </row>
-    <row r="882" spans="2:12" s="7" customFormat="1">
+    <row r="882" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B882" s="10"/>
       <c r="C882" s="10"/>
       <c r="D882" s="10"/>
@@ -12138,7 +12183,7 @@
       <c r="K882" s="10"/>
       <c r="L882" s="10"/>
     </row>
-    <row r="883" spans="2:12" s="7" customFormat="1">
+    <row r="883" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B883" s="10"/>
       <c r="C883" s="10"/>
       <c r="D883" s="10"/>
@@ -12151,7 +12196,7 @@
       <c r="K883" s="10"/>
       <c r="L883" s="10"/>
     </row>
-    <row r="884" spans="2:12" s="7" customFormat="1">
+    <row r="884" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B884" s="10"/>
       <c r="C884" s="10"/>
       <c r="D884" s="10"/>
@@ -12164,7 +12209,7 @@
       <c r="K884" s="10"/>
       <c r="L884" s="10"/>
     </row>
-    <row r="885" spans="2:12" s="7" customFormat="1">
+    <row r="885" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B885" s="10"/>
       <c r="C885" s="10"/>
       <c r="D885" s="10"/>
@@ -12177,7 +12222,7 @@
       <c r="K885" s="10"/>
       <c r="L885" s="10"/>
     </row>
-    <row r="886" spans="2:12" s="7" customFormat="1">
+    <row r="886" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B886" s="10"/>
       <c r="C886" s="10"/>
       <c r="D886" s="10"/>
@@ -12190,7 +12235,7 @@
       <c r="K886" s="10"/>
       <c r="L886" s="10"/>
     </row>
-    <row r="887" spans="2:12" s="7" customFormat="1">
+    <row r="887" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B887" s="10"/>
       <c r="C887" s="10"/>
       <c r="D887" s="10"/>
@@ -12203,7 +12248,7 @@
       <c r="K887" s="10"/>
       <c r="L887" s="10"/>
     </row>
-    <row r="888" spans="2:12" s="7" customFormat="1">
+    <row r="888" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B888" s="10"/>
       <c r="C888" s="10"/>
       <c r="D888" s="10"/>
@@ -12216,7 +12261,7 @@
       <c r="K888" s="10"/>
       <c r="L888" s="10"/>
     </row>
-    <row r="889" spans="2:12" s="7" customFormat="1">
+    <row r="889" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B889" s="10"/>
       <c r="C889" s="10"/>
       <c r="D889" s="10"/>
@@ -12229,7 +12274,7 @@
       <c r="K889" s="10"/>
       <c r="L889" s="10"/>
     </row>
-    <row r="890" spans="2:12" s="7" customFormat="1">
+    <row r="890" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B890" s="10"/>
       <c r="C890" s="10"/>
       <c r="D890" s="10"/>
@@ -12242,7 +12287,7 @@
       <c r="K890" s="10"/>
       <c r="L890" s="10"/>
     </row>
-    <row r="891" spans="2:12" s="7" customFormat="1">
+    <row r="891" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B891" s="10"/>
       <c r="C891" s="10"/>
       <c r="D891" s="10"/>
@@ -12255,7 +12300,7 @@
       <c r="K891" s="10"/>
       <c r="L891" s="10"/>
     </row>
-    <row r="892" spans="2:12" s="7" customFormat="1">
+    <row r="892" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B892" s="10"/>
       <c r="C892" s="10"/>
       <c r="D892" s="10"/>
@@ -12268,7 +12313,7 @@
       <c r="K892" s="10"/>
       <c r="L892" s="10"/>
     </row>
-    <row r="893" spans="2:12" s="7" customFormat="1">
+    <row r="893" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B893" s="10"/>
       <c r="C893" s="10"/>
       <c r="D893" s="10"/>
@@ -12281,7 +12326,7 @@
       <c r="K893" s="10"/>
       <c r="L893" s="10"/>
     </row>
-    <row r="894" spans="2:12" s="7" customFormat="1">
+    <row r="894" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B894" s="10"/>
       <c r="C894" s="10"/>
       <c r="D894" s="10"/>
@@ -12294,7 +12339,7 @@
       <c r="K894" s="10"/>
       <c r="L894" s="10"/>
     </row>
-    <row r="895" spans="2:12" s="7" customFormat="1">
+    <row r="895" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B895" s="10"/>
       <c r="C895" s="10"/>
       <c r="D895" s="10"/>
@@ -12307,7 +12352,7 @@
       <c r="K895" s="10"/>
       <c r="L895" s="10"/>
     </row>
-    <row r="896" spans="2:12" s="7" customFormat="1">
+    <row r="896" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B896" s="10"/>
       <c r="C896" s="10"/>
       <c r="D896" s="10"/>
@@ -12320,7 +12365,7 @@
       <c r="K896" s="10"/>
       <c r="L896" s="10"/>
     </row>
-    <row r="897" spans="2:12" s="7" customFormat="1">
+    <row r="897" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B897" s="10"/>
       <c r="C897" s="10"/>
       <c r="D897" s="10"/>
@@ -12333,7 +12378,7 @@
       <c r="K897" s="10"/>
       <c r="L897" s="10"/>
     </row>
-    <row r="898" spans="2:12" s="7" customFormat="1">
+    <row r="898" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B898" s="10"/>
       <c r="C898" s="10"/>
       <c r="D898" s="10"/>
@@ -12346,7 +12391,7 @@
       <c r="K898" s="10"/>
       <c r="L898" s="10"/>
     </row>
-    <row r="899" spans="2:12" s="7" customFormat="1">
+    <row r="899" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B899" s="10"/>
       <c r="C899" s="10"/>
       <c r="D899" s="10"/>
@@ -12359,7 +12404,7 @@
       <c r="K899" s="10"/>
       <c r="L899" s="10"/>
     </row>
-    <row r="900" spans="2:12" s="7" customFormat="1">
+    <row r="900" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B900" s="10"/>
       <c r="C900" s="10"/>
       <c r="D900" s="10"/>
@@ -12372,7 +12417,7 @@
       <c r="K900" s="10"/>
       <c r="L900" s="10"/>
     </row>
-    <row r="901" spans="2:12" s="7" customFormat="1">
+    <row r="901" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B901" s="10"/>
       <c r="C901" s="10"/>
       <c r="D901" s="10"/>
@@ -12385,7 +12430,7 @@
       <c r="K901" s="10"/>
       <c r="L901" s="10"/>
     </row>
-    <row r="902" spans="2:12" s="7" customFormat="1">
+    <row r="902" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B902" s="10"/>
       <c r="C902" s="10"/>
       <c r="D902" s="10"/>
@@ -12398,7 +12443,7 @@
       <c r="K902" s="10"/>
       <c r="L902" s="10"/>
     </row>
-    <row r="903" spans="2:12" s="7" customFormat="1">
+    <row r="903" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B903" s="10"/>
       <c r="C903" s="10"/>
       <c r="D903" s="10"/>
@@ -12411,7 +12456,7 @@
       <c r="K903" s="10"/>
       <c r="L903" s="10"/>
     </row>
-    <row r="904" spans="2:12" s="7" customFormat="1">
+    <row r="904" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B904" s="10"/>
       <c r="C904" s="10"/>
       <c r="D904" s="10"/>
@@ -12424,7 +12469,7 @@
       <c r="K904" s="10"/>
       <c r="L904" s="10"/>
     </row>
-    <row r="905" spans="2:12" s="7" customFormat="1">
+    <row r="905" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B905" s="10"/>
       <c r="C905" s="10"/>
       <c r="D905" s="10"/>
@@ -12437,7 +12482,7 @@
       <c r="K905" s="10"/>
       <c r="L905" s="10"/>
     </row>
-    <row r="906" spans="2:12" s="7" customFormat="1">
+    <row r="906" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B906" s="10"/>
       <c r="C906" s="10"/>
       <c r="D906" s="10"/>
@@ -12450,7 +12495,7 @@
       <c r="K906" s="10"/>
       <c r="L906" s="10"/>
     </row>
-    <row r="907" spans="2:12" s="7" customFormat="1">
+    <row r="907" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B907" s="10"/>
       <c r="C907" s="10"/>
       <c r="D907" s="10"/>
@@ -12463,7 +12508,7 @@
       <c r="K907" s="10"/>
       <c r="L907" s="10"/>
     </row>
-    <row r="908" spans="2:12" s="7" customFormat="1">
+    <row r="908" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B908" s="10"/>
       <c r="C908" s="10"/>
       <c r="D908" s="10"/>
@@ -12476,7 +12521,7 @@
       <c r="K908" s="10"/>
       <c r="L908" s="10"/>
     </row>
-    <row r="909" spans="2:12" s="7" customFormat="1">
+    <row r="909" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B909" s="10"/>
       <c r="C909" s="10"/>
       <c r="D909" s="10"/>
@@ -12489,7 +12534,7 @@
       <c r="K909" s="10"/>
       <c r="L909" s="10"/>
     </row>
-    <row r="910" spans="2:12" s="7" customFormat="1">
+    <row r="910" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B910" s="10"/>
       <c r="C910" s="10"/>
       <c r="D910" s="10"/>
@@ -12502,7 +12547,7 @@
       <c r="K910" s="10"/>
       <c r="L910" s="10"/>
     </row>
-    <row r="911" spans="2:12" s="7" customFormat="1">
+    <row r="911" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B911" s="10"/>
       <c r="C911" s="10"/>
       <c r="D911" s="10"/>
@@ -12515,7 +12560,7 @@
       <c r="K911" s="10"/>
       <c r="L911" s="10"/>
     </row>
-    <row r="912" spans="2:12" s="7" customFormat="1">
+    <row r="912" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B912" s="10"/>
       <c r="C912" s="10"/>
       <c r="D912" s="10"/>
@@ -12528,7 +12573,7 @@
       <c r="K912" s="10"/>
       <c r="L912" s="10"/>
     </row>
-    <row r="913" spans="2:12" s="7" customFormat="1">
+    <row r="913" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B913" s="10"/>
       <c r="C913" s="10"/>
       <c r="D913" s="10"/>
@@ -12541,7 +12586,7 @@
       <c r="K913" s="10"/>
       <c r="L913" s="10"/>
     </row>
-    <row r="914" spans="2:12" s="7" customFormat="1">
+    <row r="914" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B914" s="10"/>
       <c r="C914" s="10"/>
       <c r="D914" s="10"/>
@@ -12554,7 +12599,7 @@
       <c r="K914" s="10"/>
       <c r="L914" s="10"/>
     </row>
-    <row r="915" spans="2:12" s="7" customFormat="1">
+    <row r="915" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B915" s="10"/>
       <c r="C915" s="10"/>
       <c r="D915" s="10"/>
@@ -12567,7 +12612,7 @@
       <c r="K915" s="10"/>
       <c r="L915" s="10"/>
     </row>
-    <row r="916" spans="2:12" s="7" customFormat="1">
+    <row r="916" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B916" s="10"/>
       <c r="C916" s="10"/>
       <c r="D916" s="10"/>
@@ -12580,7 +12625,7 @@
       <c r="K916" s="10"/>
       <c r="L916" s="10"/>
     </row>
-    <row r="917" spans="2:12" s="7" customFormat="1">
+    <row r="917" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B917" s="10"/>
       <c r="C917" s="10"/>
       <c r="D917" s="10"/>
@@ -12593,7 +12638,7 @@
       <c r="K917" s="10"/>
       <c r="L917" s="10"/>
     </row>
-    <row r="918" spans="2:12" s="7" customFormat="1">
+    <row r="918" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B918" s="10"/>
       <c r="C918" s="10"/>
       <c r="D918" s="10"/>
@@ -12606,7 +12651,7 @@
       <c r="K918" s="10"/>
       <c r="L918" s="10"/>
     </row>
-    <row r="919" spans="2:12" s="7" customFormat="1">
+    <row r="919" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B919" s="10"/>
       <c r="C919" s="10"/>
       <c r="D919" s="10"/>
@@ -12619,7 +12664,7 @@
       <c r="K919" s="10"/>
       <c r="L919" s="10"/>
     </row>
-    <row r="920" spans="2:12" s="7" customFormat="1">
+    <row r="920" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B920" s="10"/>
       <c r="C920" s="10"/>
       <c r="D920" s="10"/>
@@ -12632,7 +12677,7 @@
       <c r="K920" s="10"/>
       <c r="L920" s="10"/>
     </row>
-    <row r="921" spans="2:12" s="7" customFormat="1">
+    <row r="921" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B921" s="10"/>
       <c r="C921" s="10"/>
       <c r="D921" s="10"/>
@@ -12645,7 +12690,7 @@
       <c r="K921" s="10"/>
       <c r="L921" s="10"/>
     </row>
-    <row r="922" spans="2:12" s="7" customFormat="1">
+    <row r="922" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B922" s="10"/>
       <c r="C922" s="10"/>
       <c r="D922" s="10"/>
@@ -12658,7 +12703,7 @@
       <c r="K922" s="10"/>
       <c r="L922" s="10"/>
     </row>
-    <row r="923" spans="2:12" s="7" customFormat="1">
+    <row r="923" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B923" s="10"/>
       <c r="C923" s="10"/>
       <c r="D923" s="10"/>
@@ -12671,7 +12716,7 @@
       <c r="K923" s="10"/>
       <c r="L923" s="10"/>
     </row>
-    <row r="924" spans="2:12" s="7" customFormat="1">
+    <row r="924" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B924" s="10"/>
       <c r="C924" s="10"/>
       <c r="D924" s="10"/>
@@ -12684,7 +12729,7 @@
       <c r="K924" s="10"/>
       <c r="L924" s="10"/>
     </row>
-    <row r="925" spans="2:12" s="7" customFormat="1">
+    <row r="925" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B925" s="10"/>
       <c r="C925" s="10"/>
       <c r="D925" s="10"/>
@@ -12697,7 +12742,7 @@
       <c r="K925" s="10"/>
       <c r="L925" s="10"/>
     </row>
-    <row r="926" spans="2:12" s="7" customFormat="1">
+    <row r="926" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B926" s="10"/>
       <c r="C926" s="10"/>
       <c r="D926" s="10"/>
@@ -12710,7 +12755,7 @@
       <c r="K926" s="10"/>
       <c r="L926" s="10"/>
     </row>
-    <row r="927" spans="2:12" s="7" customFormat="1">
+    <row r="927" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B927" s="10"/>
       <c r="C927" s="10"/>
       <c r="D927" s="10"/>
@@ -12723,7 +12768,7 @@
       <c r="K927" s="10"/>
       <c r="L927" s="10"/>
     </row>
-    <row r="928" spans="2:12" s="7" customFormat="1">
+    <row r="928" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B928" s="10"/>
       <c r="C928" s="10"/>
       <c r="D928" s="10"/>
@@ -12736,7 +12781,7 @@
       <c r="K928" s="10"/>
       <c r="L928" s="10"/>
     </row>
-    <row r="929" spans="2:12" s="7" customFormat="1">
+    <row r="929" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B929" s="10"/>
       <c r="C929" s="10"/>
       <c r="D929" s="10"/>
@@ -12749,7 +12794,7 @@
       <c r="K929" s="10"/>
       <c r="L929" s="10"/>
     </row>
-    <row r="930" spans="2:12" s="7" customFormat="1">
+    <row r="930" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B930" s="10"/>
       <c r="C930" s="10"/>
       <c r="D930" s="10"/>
@@ -12762,7 +12807,7 @@
       <c r="K930" s="10"/>
       <c r="L930" s="10"/>
     </row>
-    <row r="931" spans="2:12" s="7" customFormat="1">
+    <row r="931" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B931" s="10"/>
       <c r="C931" s="10"/>
       <c r="D931" s="10"/>
@@ -12775,7 +12820,7 @@
       <c r="K931" s="10"/>
       <c r="L931" s="10"/>
     </row>
-    <row r="932" spans="2:12" s="7" customFormat="1">
+    <row r="932" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B932" s="10"/>
       <c r="C932" s="10"/>
       <c r="D932" s="10"/>
@@ -12788,7 +12833,7 @@
       <c r="K932" s="10"/>
       <c r="L932" s="10"/>
     </row>
-    <row r="933" spans="2:12" s="7" customFormat="1">
+    <row r="933" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B933" s="10"/>
       <c r="C933" s="10"/>
       <c r="D933" s="10"/>
@@ -12801,7 +12846,7 @@
       <c r="K933" s="10"/>
       <c r="L933" s="10"/>
     </row>
-    <row r="934" spans="2:12" s="7" customFormat="1">
+    <row r="934" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B934" s="10"/>
       <c r="C934" s="10"/>
       <c r="D934" s="10"/>
@@ -12814,7 +12859,7 @@
       <c r="K934" s="10"/>
       <c r="L934" s="10"/>
     </row>
-    <row r="935" spans="2:12" s="7" customFormat="1">
+    <row r="935" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B935" s="10"/>
       <c r="C935" s="10"/>
       <c r="D935" s="10"/>
@@ -12827,7 +12872,7 @@
       <c r="K935" s="10"/>
       <c r="L935" s="10"/>
     </row>
-    <row r="936" spans="2:12" s="7" customFormat="1">
+    <row r="936" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B936" s="10"/>
       <c r="C936" s="10"/>
       <c r="D936" s="10"/>
@@ -12840,7 +12885,7 @@
       <c r="K936" s="10"/>
       <c r="L936" s="10"/>
     </row>
-    <row r="937" spans="2:12" s="7" customFormat="1">
+    <row r="937" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B937" s="10"/>
       <c r="C937" s="10"/>
       <c r="D937" s="10"/>
@@ -12853,7 +12898,7 @@
       <c r="K937" s="10"/>
       <c r="L937" s="10"/>
     </row>
-    <row r="938" spans="2:12" s="7" customFormat="1">
+    <row r="938" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B938" s="10"/>
       <c r="C938" s="10"/>
       <c r="D938" s="10"/>
@@ -12866,7 +12911,7 @@
       <c r="K938" s="10"/>
       <c r="L938" s="10"/>
     </row>
-    <row r="939" spans="2:12" s="7" customFormat="1">
+    <row r="939" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B939" s="10"/>
       <c r="C939" s="10"/>
       <c r="D939" s="10"/>
@@ -12879,7 +12924,7 @@
       <c r="K939" s="10"/>
       <c r="L939" s="10"/>
     </row>
-    <row r="940" spans="2:12" s="7" customFormat="1">
+    <row r="940" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B940" s="10"/>
       <c r="C940" s="10"/>
       <c r="D940" s="10"/>
@@ -12892,7 +12937,7 @@
       <c r="K940" s="10"/>
       <c r="L940" s="10"/>
     </row>
-    <row r="941" spans="2:12" s="7" customFormat="1">
+    <row r="941" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B941" s="10"/>
       <c r="C941" s="10"/>
       <c r="D941" s="10"/>
@@ -12905,7 +12950,7 @@
       <c r="K941" s="10"/>
       <c r="L941" s="10"/>
     </row>
-    <row r="942" spans="2:12" s="7" customFormat="1">
+    <row r="942" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B942" s="10"/>
       <c r="C942" s="10"/>
       <c r="D942" s="10"/>
@@ -12918,7 +12963,7 @@
       <c r="K942" s="10"/>
       <c r="L942" s="10"/>
     </row>
-    <row r="943" spans="2:12" s="7" customFormat="1">
+    <row r="943" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B943" s="10"/>
       <c r="C943" s="10"/>
       <c r="D943" s="10"/>
@@ -12931,7 +12976,7 @@
       <c r="K943" s="10"/>
       <c r="L943" s="10"/>
     </row>
-    <row r="944" spans="2:12" s="7" customFormat="1">
+    <row r="944" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B944" s="10"/>
       <c r="C944" s="10"/>
       <c r="D944" s="10"/>
@@ -12944,7 +12989,7 @@
       <c r="K944" s="10"/>
       <c r="L944" s="10"/>
     </row>
-    <row r="945" spans="2:12" s="7" customFormat="1">
+    <row r="945" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B945" s="10"/>
       <c r="C945" s="10"/>
       <c r="D945" s="10"/>
@@ -12957,7 +13002,7 @@
       <c r="K945" s="10"/>
       <c r="L945" s="10"/>
     </row>
-    <row r="946" spans="2:12" s="7" customFormat="1">
+    <row r="946" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B946" s="10"/>
       <c r="C946" s="10"/>
       <c r="D946" s="10"/>
@@ -12970,7 +13015,7 @@
       <c r="K946" s="10"/>
       <c r="L946" s="10"/>
     </row>
-    <row r="947" spans="2:12" s="7" customFormat="1">
+    <row r="947" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B947" s="10"/>
       <c r="C947" s="10"/>
       <c r="D947" s="10"/>
@@ -12983,7 +13028,7 @@
       <c r="K947" s="10"/>
       <c r="L947" s="10"/>
     </row>
-    <row r="948" spans="2:12" s="7" customFormat="1">
+    <row r="948" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B948" s="10"/>
       <c r="C948" s="10"/>
       <c r="D948" s="10"/>
@@ -12996,7 +13041,7 @@
       <c r="K948" s="10"/>
       <c r="L948" s="10"/>
     </row>
-    <row r="949" spans="2:12" s="7" customFormat="1">
+    <row r="949" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B949" s="10"/>
       <c r="C949" s="10"/>
       <c r="D949" s="10"/>
@@ -13009,7 +13054,7 @@
       <c r="K949" s="10"/>
       <c r="L949" s="10"/>
     </row>
-    <row r="950" spans="2:12" s="7" customFormat="1">
+    <row r="950" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B950" s="10"/>
       <c r="C950" s="10"/>
       <c r="D950" s="10"/>
@@ -13022,7 +13067,7 @@
       <c r="K950" s="10"/>
       <c r="L950" s="10"/>
     </row>
-    <row r="951" spans="2:12" s="7" customFormat="1">
+    <row r="951" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B951" s="10"/>
       <c r="C951" s="10"/>
       <c r="D951" s="10"/>
@@ -13035,7 +13080,7 @@
       <c r="K951" s="10"/>
       <c r="L951" s="10"/>
     </row>
-    <row r="952" spans="2:12" s="7" customFormat="1">
+    <row r="952" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B952" s="10"/>
       <c r="C952" s="10"/>
       <c r="D952" s="10"/>
@@ -13048,7 +13093,7 @@
       <c r="K952" s="10"/>
       <c r="L952" s="10"/>
     </row>
-    <row r="953" spans="2:12" s="7" customFormat="1">
+    <row r="953" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B953" s="10"/>
       <c r="C953" s="10"/>
       <c r="D953" s="10"/>
@@ -13061,7 +13106,7 @@
       <c r="K953" s="10"/>
       <c r="L953" s="10"/>
     </row>
-    <row r="954" spans="2:12" s="7" customFormat="1">
+    <row r="954" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B954" s="10"/>
       <c r="C954" s="10"/>
       <c r="D954" s="10"/>
@@ -13074,7 +13119,7 @@
       <c r="K954" s="10"/>
       <c r="L954" s="10"/>
     </row>
-    <row r="955" spans="2:12" s="7" customFormat="1">
+    <row r="955" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B955" s="10"/>
       <c r="C955" s="10"/>
       <c r="D955" s="10"/>
@@ -13087,7 +13132,7 @@
       <c r="K955" s="10"/>
       <c r="L955" s="10"/>
     </row>
-    <row r="956" spans="2:12" s="7" customFormat="1">
+    <row r="956" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B956" s="10"/>
       <c r="C956" s="10"/>
       <c r="D956" s="10"/>
@@ -13100,7 +13145,7 @@
       <c r="K956" s="10"/>
       <c r="L956" s="10"/>
     </row>
-    <row r="957" spans="2:12" s="7" customFormat="1">
+    <row r="957" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B957" s="10"/>
       <c r="C957" s="10"/>
       <c r="D957" s="10"/>
@@ -13113,7 +13158,7 @@
       <c r="K957" s="10"/>
       <c r="L957" s="10"/>
     </row>
-    <row r="958" spans="2:12" s="7" customFormat="1">
+    <row r="958" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B958" s="10"/>
       <c r="C958" s="10"/>
       <c r="D958" s="10"/>
@@ -13126,7 +13171,7 @@
       <c r="K958" s="10"/>
       <c r="L958" s="10"/>
     </row>
-    <row r="959" spans="2:12" s="7" customFormat="1">
+    <row r="959" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B959" s="10"/>
       <c r="C959" s="10"/>
       <c r="D959" s="10"/>
@@ -13139,7 +13184,7 @@
       <c r="K959" s="10"/>
       <c r="L959" s="10"/>
     </row>
-    <row r="960" spans="2:12" s="7" customFormat="1">
+    <row r="960" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B960" s="10"/>
       <c r="C960" s="10"/>
       <c r="D960" s="10"/>
@@ -13152,7 +13197,7 @@
       <c r="K960" s="10"/>
       <c r="L960" s="10"/>
     </row>
-    <row r="961" spans="1:12" s="7" customFormat="1">
+    <row r="961" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A961" s="12"/>
       <c r="B961" s="12"/>
       <c r="C961" s="10"/>
@@ -13166,7 +13211,7 @@
       <c r="K961" s="10"/>
       <c r="L961" s="10"/>
     </row>
-    <row r="962" spans="1:12" s="7" customFormat="1">
+    <row r="962" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A962" s="12"/>
       <c r="B962" s="12"/>
       <c r="C962" s="10"/>
@@ -13180,7 +13225,7 @@
       <c r="K962" s="10"/>
       <c r="L962" s="10"/>
     </row>
-    <row r="963" spans="1:12" s="7" customFormat="1">
+    <row r="963" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B963" s="10"/>
       <c r="C963" s="10"/>
       <c r="D963" s="10"/>
@@ -13193,7 +13238,7 @@
       <c r="K963" s="10"/>
       <c r="L963" s="10"/>
     </row>
-    <row r="964" spans="1:12" s="7" customFormat="1">
+    <row r="964" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A964" s="12"/>
       <c r="B964" s="12"/>
       <c r="C964" s="10"/>
@@ -13207,7 +13252,7 @@
       <c r="K964" s="10"/>
       <c r="L964" s="10"/>
     </row>
-    <row r="965" spans="1:12" s="7" customFormat="1">
+    <row r="965" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B965" s="10"/>
       <c r="C965" s="10"/>
       <c r="D965" s="10"/>
@@ -13220,7 +13265,7 @@
       <c r="K965" s="10"/>
       <c r="L965" s="10"/>
     </row>
-    <row r="966" spans="1:12" s="7" customFormat="1">
+    <row r="966" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B966" s="10"/>
       <c r="C966" s="10"/>
       <c r="D966" s="10"/>
@@ -13233,7 +13278,7 @@
       <c r="K966" s="10"/>
       <c r="L966" s="10"/>
     </row>
-    <row r="967" spans="1:12" s="7" customFormat="1">
+    <row r="967" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B967" s="10"/>
       <c r="C967" s="10"/>
       <c r="D967" s="10"/>
@@ -13246,7 +13291,7 @@
       <c r="K967" s="10"/>
       <c r="L967" s="10"/>
     </row>
-    <row r="968" spans="1:12" s="7" customFormat="1">
+    <row r="968" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B968" s="10"/>
       <c r="C968" s="10"/>
       <c r="D968" s="10"/>
@@ -13259,7 +13304,7 @@
       <c r="K968" s="10"/>
       <c r="L968" s="10"/>
     </row>
-    <row r="969" spans="1:12" s="7" customFormat="1">
+    <row r="969" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B969" s="10"/>
       <c r="C969" s="10"/>
       <c r="D969" s="10"/>
@@ -13272,7 +13317,7 @@
       <c r="K969" s="10"/>
       <c r="L969" s="10"/>
     </row>
-    <row r="970" spans="1:12" s="7" customFormat="1">
+    <row r="970" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B970" s="10"/>
       <c r="C970" s="10"/>
       <c r="D970" s="10"/>
@@ -13285,7 +13330,7 @@
       <c r="K970" s="10"/>
       <c r="L970" s="10"/>
     </row>
-    <row r="971" spans="1:12" s="7" customFormat="1">
+    <row r="971" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B971" s="10"/>
       <c r="C971" s="10"/>
       <c r="D971" s="10"/>
@@ -13298,7 +13343,7 @@
       <c r="K971" s="10"/>
       <c r="L971" s="10"/>
     </row>
-    <row r="972" spans="1:12" s="7" customFormat="1">
+    <row r="972" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B972" s="10"/>
       <c r="C972" s="10"/>
       <c r="D972" s="10"/>
@@ -13311,7 +13356,7 @@
       <c r="K972" s="10"/>
       <c r="L972" s="10"/>
     </row>
-    <row r="973" spans="1:12" s="7" customFormat="1">
+    <row r="973" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B973" s="10"/>
       <c r="C973" s="10"/>
       <c r="D973" s="10"/>
@@ -13324,7 +13369,7 @@
       <c r="K973" s="10"/>
       <c r="L973" s="10"/>
     </row>
-    <row r="974" spans="1:12" s="7" customFormat="1">
+    <row r="974" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B974" s="10"/>
       <c r="C974" s="10"/>
       <c r="D974" s="10"/>
@@ -13337,7 +13382,7 @@
       <c r="K974" s="10"/>
       <c r="L974" s="10"/>
     </row>
-    <row r="975" spans="1:12" s="7" customFormat="1">
+    <row r="975" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B975" s="10"/>
       <c r="C975" s="10"/>
       <c r="D975" s="10"/>
@@ -13350,7 +13395,7 @@
       <c r="K975" s="10"/>
       <c r="L975" s="10"/>
     </row>
-    <row r="976" spans="1:12" s="7" customFormat="1">
+    <row r="976" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B976" s="10"/>
       <c r="C976" s="10"/>
       <c r="D976" s="10"/>
@@ -13363,7 +13408,7 @@
       <c r="K976" s="10"/>
       <c r="L976" s="10"/>
     </row>
-    <row r="977" spans="1:12" s="7" customFormat="1">
+    <row r="977" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A977" s="12"/>
       <c r="B977" s="12"/>
       <c r="C977" s="10"/>
@@ -13377,7 +13422,7 @@
       <c r="K977" s="10"/>
       <c r="L977" s="10"/>
     </row>
-    <row r="978" spans="1:12" s="7" customFormat="1">
+    <row r="978" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B978" s="10"/>
       <c r="C978" s="10"/>
       <c r="D978" s="10"/>
@@ -13390,7 +13435,7 @@
       <c r="K978" s="10"/>
       <c r="L978" s="10"/>
     </row>
-    <row r="979" spans="1:12" s="7" customFormat="1">
+    <row r="979" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B979" s="10"/>
       <c r="C979" s="10"/>
       <c r="D979" s="10"/>
@@ -13403,7 +13448,7 @@
       <c r="K979" s="10"/>
       <c r="L979" s="10"/>
     </row>
-    <row r="980" spans="1:12" s="7" customFormat="1">
+    <row r="980" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B980" s="10"/>
       <c r="C980" s="10"/>
       <c r="D980" s="10"/>
@@ -13416,7 +13461,7 @@
       <c r="K980" s="10"/>
       <c r="L980" s="10"/>
     </row>
-    <row r="981" spans="1:12" s="7" customFormat="1">
+    <row r="981" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B981" s="10"/>
       <c r="C981" s="10"/>
       <c r="D981" s="10"/>
@@ -13429,7 +13474,7 @@
       <c r="K981" s="10"/>
       <c r="L981" s="10"/>
     </row>
-    <row r="982" spans="1:12" s="7" customFormat="1">
+    <row r="982" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B982" s="10"/>
       <c r="C982" s="10"/>
       <c r="D982" s="10"/>
@@ -13442,7 +13487,7 @@
       <c r="K982" s="10"/>
       <c r="L982" s="10"/>
     </row>
-    <row r="983" spans="1:12" s="7" customFormat="1">
+    <row r="983" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A983" s="12"/>
       <c r="B983" s="12"/>
       <c r="C983" s="10"/>
@@ -13456,7 +13501,7 @@
       <c r="K983" s="10"/>
       <c r="L983" s="10"/>
     </row>
-    <row r="984" spans="1:12" s="7" customFormat="1">
+    <row r="984" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B984" s="10"/>
       <c r="C984" s="10"/>
       <c r="D984" s="10"/>
@@ -13469,7 +13514,7 @@
       <c r="K984" s="10"/>
       <c r="L984" s="10"/>
     </row>
-    <row r="985" spans="1:12" s="7" customFormat="1">
+    <row r="985" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A985" s="12"/>
       <c r="B985" s="12"/>
       <c r="C985" s="10"/>
@@ -13483,7 +13528,7 @@
       <c r="K985" s="10"/>
       <c r="L985" s="10"/>
     </row>
-    <row r="986" spans="1:12" s="7" customFormat="1">
+    <row r="986" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B986" s="10"/>
       <c r="C986" s="10"/>
       <c r="D986" s="10"/>
@@ -13496,7 +13541,7 @@
       <c r="K986" s="10"/>
       <c r="L986" s="10"/>
     </row>
-    <row r="987" spans="1:12" s="7" customFormat="1">
+    <row r="987" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A987" s="12"/>
       <c r="B987" s="12"/>
       <c r="C987" s="10"/>
@@ -13510,7 +13555,7 @@
       <c r="K987" s="10"/>
       <c r="L987" s="10"/>
     </row>
-    <row r="988" spans="1:12" s="7" customFormat="1">
+    <row r="988" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A988" s="12"/>
       <c r="B988" s="12"/>
       <c r="C988" s="10"/>
@@ -13524,7 +13569,7 @@
       <c r="K988" s="10"/>
       <c r="L988" s="10"/>
     </row>
-    <row r="989" spans="1:12" s="7" customFormat="1">
+    <row r="989" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A989" s="12"/>
       <c r="B989" s="12"/>
       <c r="C989" s="10"/>
@@ -13538,11 +13583,11 @@
       <c r="K989" s="10"/>
       <c r="L989" s="10"/>
     </row>
-    <row r="990" spans="1:12" s="7" customFormat="1"/>
-    <row r="991" spans="1:12" s="7" customFormat="1"/>
-    <row r="992" spans="1:12" s="7" customFormat="1"/>
-    <row r="993" s="7" customFormat="1"/>
-    <row r="994" s="7" customFormat="1"/>
+    <row r="990" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="991" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="992" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="993" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="994" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
@@ -13554,12 +13599,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13568,12 +13613,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
